--- a/Projects/CCRU_SAND/Data/Contract Execution 2018.xlsx
+++ b/Projects/CCRU_SAND/Data/Contract Execution 2018.xlsx
@@ -5,15 +5,15 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="992" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Pos 2018 - MT - Hypermarket" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="Pos 2018 - MT - Supermarket" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="Pos 2018 - MT - Convenience Big" sheetId="3" state="visible" r:id="rId4"/>
-    <sheet name="Pos 2018 - MT - Convenience Small" sheetId="4" state="visible" r:id="rId5"/>
-    <sheet name="Pos 2018 - Canteen" sheetId="5" state="visible" r:id="rId6"/>
-    <sheet name="Pos 2018 - QSR" sheetId="6" state="visible" r:id="rId7"/>
+    <sheet name="Pos 2018 - QSR" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="Pos 2018 - MT - Convenience Big" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="Pos 2018 - MT - Convenience Small" sheetId="5" state="visible" r:id="rId6"/>
+    <sheet name="Pos 2018 - Canteen" sheetId="6" state="visible" r:id="rId7"/>
     <sheet name="Pos 2018 - Petroleum" sheetId="7" state="visible" r:id="rId8"/>
     <sheet name="Pos 2018 - HoReCa - Bar Tavern Night Clubs" sheetId="8" state="visible" r:id="rId9"/>
     <sheet name="Pos 2018 - HoReCa - Coffee Tea Shops" sheetId="9" state="visible" r:id="rId10"/>
@@ -21,29 +21,29 @@
     <sheet name="Alcomarket" sheetId="11" state="hidden" r:id="rId12"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0" vbProcedure="false">'Pos 2018 - MT - Hypermarket'!$A$1:$AH$25</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0" vbProcedure="false">'Pos 2018 - MT - Hypermarket'!$A$1:$AH$25</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0" vbProcedure="false">'Pos 2018 - MT - Hypermarket'!$A$1:$AH$25</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0_0" vbProcedure="false">'Pos 2018 - MT - Hypermarket'!$A$1:$AH$25</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0_0_0" vbProcedure="false">'Pos 2018 - MT - Hypermarket'!$A$1:$AH$25</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0_0_0_0" vbProcedure="false">'Pos 2018 - MT - Hypermarket'!$A$1:$AH$25</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">'Pos 2018 - MT - Hypermarket'!$A$1:$AH$25</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">'Pos 2018 - MT - Hypermarket'!$A$1:$AH$25</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Pos 2018 - MT - Hypermarket'!$A$1:$AH$25</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Pos 2018 - MT - Hypermarket'!$A$1:$AH$25</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Pos 2018 - MT - Hypermarket'!$A$1:$AH$25</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Pos 2018 - MT - Hypermarket'!$A$1:$AH$25</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Pos 2018 - MT - Hypermarket'!$A$1:$AH$25</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Pos 2018 - MT - Hypermarket'!$A$1:$AH$25</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Pos 2018 - MT - Hypermarket'!$A$1:$AH$25</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Pos 2018 - MT - Hypermarket'!$A$1:$AH$25</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Pos 2018 - MT - Hypermarket'!$A$1:$AH$25</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Pos 2018 - MT - Hypermarket'!$A$1:$AH$25</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Pos 2018 - MT - Hypermarket'!$A$1:$AH$25</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Pos 2018 - MT - Hypermarket'!$A$1:$AH$25</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Pos 2018 - MT - Hypermarket'!$A$1:$AH$25</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Pos 2018 - MT - Hypermarket'!$A$1:$AH$25</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'Pos 2018 - MT - Hypermarket'!$A$1:$AH$25</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0" vbProcedure="false">'Pos 2018 - MT - Hypermarket'!$A$1:$AH$24</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0" vbProcedure="false">'Pos 2018 - MT - Hypermarket'!$A$1:$AH$24</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0" vbProcedure="false">'Pos 2018 - MT - Hypermarket'!$A$1:$AH$24</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0_0" vbProcedure="false">'Pos 2018 - MT - Hypermarket'!$A$1:$AH$24</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0_0_0" vbProcedure="false">'Pos 2018 - MT - Hypermarket'!$A$1:$AH$24</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0_0_0_0" vbProcedure="false">'Pos 2018 - MT - Hypermarket'!$A$1:$AH$24</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">'Pos 2018 - MT - Hypermarket'!$A$1:$AH$24</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">'Pos 2018 - MT - Hypermarket'!$A$1:$AH$24</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Pos 2018 - MT - Hypermarket'!$A$1:$AH$24</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Pos 2018 - MT - Hypermarket'!$A$1:$AH$24</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Pos 2018 - MT - Hypermarket'!$A$1:$AH$24</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Pos 2018 - MT - Hypermarket'!$A$1:$AH$24</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Pos 2018 - MT - Hypermarket'!$A$1:$AH$24</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Pos 2018 - MT - Hypermarket'!$A$1:$AH$24</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Pos 2018 - MT - Hypermarket'!$A$1:$AH$24</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Pos 2018 - MT - Hypermarket'!$A$1:$AH$24</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Pos 2018 - MT - Hypermarket'!$A$1:$AH$24</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Pos 2018 - MT - Hypermarket'!$A$1:$AH$24</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Pos 2018 - MT - Hypermarket'!$A$1:$AH$24</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Pos 2018 - MT - Hypermarket'!$A$1:$AH$24</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Pos 2018 - MT - Hypermarket'!$A$1:$AH$24</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Pos 2018 - MT - Hypermarket'!$A$1:$AH$24</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'Pos 2018 - MT - Hypermarket'!$A$1:$AH$24</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2398" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2396" uniqueCount="145">
   <si>
     <t xml:space="preserve">Channel</t>
   </si>
@@ -300,10 +300,10 @@
     <t xml:space="preserve">17,18,19,20,21,22</t>
   </si>
   <si>
-    <t xml:space="preserve"> Shelf Share</t>
+    <t xml:space="preserve">Shelf Share</t>
   </si>
   <si>
-    <t xml:space="preserve"> SSD Shelf Share</t>
+    <t xml:space="preserve">SSD Shelf Share</t>
   </si>
   <si>
     <t xml:space="preserve">SOS</t>
@@ -366,19 +366,13 @@
     <t xml:space="preserve">SM</t>
   </si>
   <si>
-    <t xml:space="preserve">CB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SSD  Shelf Share</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CNT</t>
+    <t xml:space="preserve">QSR</t>
   </si>
   <si>
     <t xml:space="preserve">2,3,4,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">average</t>
   </si>
   <si>
     <t xml:space="preserve">6,7,8,9,10,11,12,13,14,15,16,17</t>
@@ -462,22 +456,19 @@
     <t xml:space="preserve">KPI: Drink Out: Evening out</t>
   </si>
   <si>
-    <t xml:space="preserve">QSR</t>
+    <t xml:space="preserve">CB</t>
   </si>
   <si>
-    <t xml:space="preserve">average</t>
+    <t xml:space="preserve">CS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CNT</t>
   </si>
   <si>
     <t xml:space="preserve">PTR</t>
   </si>
   <si>
     <t xml:space="preserve">19,20,21,22,23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shelf Share</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SSD Shelf Share</t>
   </si>
   <si>
     <t xml:space="preserve">HRC_BTNC</t>
@@ -694,12 +685,12 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -735,7 +726,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="__Anonymous_Sheet_DB__0" displayName="__Anonymous_Sheet_DB__0" ref="A1:AH37" headerRowCount="1" totalsRowCount="0" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="__Anonymous_Sheet_DB__0" displayName="__Anonymous_Sheet_DB__0" ref="A1:AH36" headerRowCount="1" totalsRowCount="0" totalsRowShown="0">
   <tableColumns count="34">
     <tableColumn id="1" name="Channel"/>
     <tableColumn id="2" name="KPI Set Type"/>
@@ -780,29 +771,29 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AK65536"/>
+  <dimension ref="A1:AK24"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+      <selection pane="topLeft" activeCell="X1" activeCellId="0" sqref="X1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="1" style="1" width="19.995951417004"/>
-    <col collapsed="false" hidden="false" max="6" min="3" style="2" width="19.995951417004"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="19.995951417004"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="19.995951417004"/>
-    <col collapsed="false" hidden="false" max="10" min="9" style="1" width="19.995951417004"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="2" width="19.995951417004"/>
-    <col collapsed="false" hidden="false" max="13" min="12" style="1" width="19.995951417004"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="2" width="19.995951417004"/>
-    <col collapsed="false" hidden="false" max="25" min="15" style="1" width="19.995951417004"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="3" width="19.995951417004"/>
-    <col collapsed="false" hidden="false" max="28" min="27" style="1" width="19.995951417004"/>
-    <col collapsed="false" hidden="false" max="30" min="29" style="2" width="19.995951417004"/>
-    <col collapsed="false" hidden="false" max="32" min="31" style="1" width="19.995951417004"/>
-    <col collapsed="false" hidden="false" max="37" min="33" style="4" width="19.995951417004"/>
-    <col collapsed="false" hidden="false" max="1025" min="38" style="1" width="19.995951417004"/>
+    <col collapsed="false" hidden="false" max="2" min="1" style="1" width="20.8542510121457"/>
+    <col collapsed="false" hidden="false" max="6" min="3" style="2" width="20.8542510121457"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="20.8542510121457"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="20.8542510121457"/>
+    <col collapsed="false" hidden="false" max="10" min="9" style="1" width="20.8542510121457"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="2" width="20.8542510121457"/>
+    <col collapsed="false" hidden="false" max="13" min="12" style="1" width="20.8542510121457"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="2" width="20.8542510121457"/>
+    <col collapsed="false" hidden="false" max="25" min="15" style="1" width="20.8542510121457"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="3" width="20.8542510121457"/>
+    <col collapsed="false" hidden="false" max="28" min="27" style="1" width="20.8542510121457"/>
+    <col collapsed="false" hidden="false" max="30" min="29" style="2" width="20.8542510121457"/>
+    <col collapsed="false" hidden="false" max="32" min="31" style="1" width="20.8542510121457"/>
+    <col collapsed="false" hidden="false" max="37" min="33" style="4" width="20.8542510121457"/>
+    <col collapsed="false" hidden="false" max="1025" min="38" style="1" width="20.8542510121457"/>
   </cols>
   <sheetData>
     <row r="1" s="5" customFormat="true" ht="67" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2245,30 +2236,6 @@
         <v>39</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="37" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="B25" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="C25" s="2" t="n">
-        <v>22</v>
-      </c>
-      <c r="D25" s="14"/>
-      <c r="E25" s="14"/>
-      <c r="H25" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="J25" s="17"/>
-      <c r="AB25" s="13"/>
-      <c r="AD25" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE25" s="13"/>
-      <c r="AF25" s="13"/>
-    </row>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="1.14375" bottom="1.14375" header="0.511805555555555" footer="0.511805555555555"/>
@@ -2291,25 +2258,25 @@
   <dimension ref="A1:AF65536"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="topLeft" activeCell="H17" activeCellId="0" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="16.8542510121458"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="17.5668016194332"/>
-    <col collapsed="false" hidden="false" max="6" min="3" style="2" width="16.8542510121458"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="16.8542510121458"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="16.8542510121458"/>
-    <col collapsed="false" hidden="false" max="10" min="9" style="1" width="16.8542510121458"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="2" width="16.8542510121458"/>
-    <col collapsed="false" hidden="false" max="25" min="12" style="1" width="16.8542510121458"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="2" width="16.8542510121458"/>
-    <col collapsed="false" hidden="false" max="28" min="27" style="1" width="16.8542510121458"/>
-    <col collapsed="false" hidden="false" max="30" min="29" style="2" width="16.8542510121458"/>
-    <col collapsed="false" hidden="false" max="32" min="31" style="1" width="16.8542510121458"/>
-    <col collapsed="false" hidden="false" max="37" min="33" style="25" width="16.8542510121458"/>
-    <col collapsed="false" hidden="false" max="1025" min="38" style="1" width="16.8542510121458"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="17.5668016194332"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="18.2834008097166"/>
+    <col collapsed="false" hidden="false" max="6" min="3" style="2" width="17.5668016194332"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="17.5668016194332"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="17.5668016194332"/>
+    <col collapsed="false" hidden="false" max="10" min="9" style="1" width="17.5668016194332"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="2" width="17.5668016194332"/>
+    <col collapsed="false" hidden="false" max="25" min="12" style="1" width="17.5668016194332"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="2" width="17.5668016194332"/>
+    <col collapsed="false" hidden="false" max="28" min="27" style="1" width="17.5668016194332"/>
+    <col collapsed="false" hidden="false" max="30" min="29" style="2" width="17.5668016194332"/>
+    <col collapsed="false" hidden="false" max="32" min="31" style="1" width="17.5668016194332"/>
+    <col collapsed="false" hidden="false" max="37" min="33" style="25" width="17.5668016194332"/>
+    <col collapsed="false" hidden="false" max="1025" min="38" style="1" width="17.5668016194332"/>
   </cols>
   <sheetData>
     <row r="1" s="5" customFormat="true" ht="64" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2411,8 +2378,8 @@
       </c>
     </row>
     <row r="2" s="4" customFormat="true" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="23" t="s">
-        <v>143</v>
+      <c r="A2" s="22" t="s">
+        <v>140</v>
       </c>
       <c r="B2" s="11" t="s">
         <v>33</v>
@@ -2461,8 +2428,8 @@
       </c>
     </row>
     <row r="3" s="4" customFormat="true" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="23" t="s">
-        <v>143</v>
+      <c r="A3" s="22" t="s">
+        <v>140</v>
       </c>
       <c r="B3" s="11" t="s">
         <v>33</v>
@@ -2511,8 +2478,8 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="23" t="s">
-        <v>143</v>
+      <c r="A4" s="22" t="s">
+        <v>140</v>
       </c>
       <c r="B4" s="18" t="s">
         <v>42</v>
@@ -2528,7 +2495,7 @@
         <v>2</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="H4" s="0"/>
       <c r="I4" s="1" t="s">
@@ -2569,8 +2536,8 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="23" t="s">
-        <v>143</v>
+      <c r="A5" s="22" t="s">
+        <v>140</v>
       </c>
       <c r="B5" s="18" t="s">
         <v>42</v>
@@ -2639,8 +2606,8 @@
       </c>
     </row>
     <row r="6" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="23" t="s">
-        <v>143</v>
+      <c r="A6" s="22" t="s">
+        <v>140</v>
       </c>
       <c r="B6" s="18" t="s">
         <v>42</v>
@@ -2709,8 +2676,8 @@
       </c>
     </row>
     <row r="7" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="23" t="s">
-        <v>143</v>
+      <c r="A7" s="22" t="s">
+        <v>140</v>
       </c>
       <c r="B7" s="18" t="s">
         <v>42</v>
@@ -2779,8 +2746,8 @@
       </c>
     </row>
     <row r="8" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="23" t="s">
-        <v>143</v>
+      <c r="A8" s="22" t="s">
+        <v>140</v>
       </c>
       <c r="B8" s="18" t="s">
         <v>42</v>
@@ -2796,11 +2763,11 @@
         <v>2</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="H8" s="0"/>
       <c r="I8" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="J8" s="13" t="s">
         <v>45</v>
@@ -2837,8 +2804,8 @@
       </c>
     </row>
     <row r="9" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="23" t="s">
-        <v>143</v>
+      <c r="A9" s="22" t="s">
+        <v>140</v>
       </c>
       <c r="B9" s="18" t="s">
         <v>42</v>
@@ -2859,17 +2826,17 @@
         <v>5</v>
       </c>
       <c r="I9" s="17" t="s">
-        <v>110</v>
-      </c>
-      <c r="J9" s="22" t="s">
-        <v>111</v>
+        <v>108</v>
+      </c>
+      <c r="J9" s="23" t="s">
+        <v>109</v>
       </c>
       <c r="K9" s="2" t="n">
         <v>1</v>
       </c>
       <c r="L9" s="0"/>
       <c r="M9" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="N9" s="1" t="s">
         <v>49</v>
@@ -2901,8 +2868,8 @@
       </c>
     </row>
     <row r="10" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="23" t="s">
-        <v>143</v>
+      <c r="A10" s="22" t="s">
+        <v>140</v>
       </c>
       <c r="B10" s="18" t="s">
         <v>42</v>
@@ -2923,17 +2890,17 @@
         <v>5</v>
       </c>
       <c r="I10" s="17" t="s">
-        <v>113</v>
-      </c>
-      <c r="J10" s="22" t="s">
         <v>111</v>
+      </c>
+      <c r="J10" s="23" t="s">
+        <v>109</v>
       </c>
       <c r="K10" s="2" t="n">
         <v>1</v>
       </c>
       <c r="L10" s="0"/>
       <c r="M10" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="N10" s="1" t="s">
         <v>49</v>
@@ -2965,8 +2932,8 @@
       </c>
     </row>
     <row r="11" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="23" t="s">
-        <v>143</v>
+      <c r="A11" s="22" t="s">
+        <v>140</v>
       </c>
       <c r="B11" s="18" t="s">
         <v>42</v>
@@ -2987,17 +2954,17 @@
         <v>5</v>
       </c>
       <c r="I11" s="17" t="s">
-        <v>115</v>
-      </c>
-      <c r="J11" s="22" t="s">
-        <v>111</v>
+        <v>113</v>
+      </c>
+      <c r="J11" s="23" t="s">
+        <v>109</v>
       </c>
       <c r="K11" s="2" t="n">
         <v>1</v>
       </c>
       <c r="L11" s="0"/>
       <c r="M11" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="N11" s="1" t="s">
         <v>49</v>
@@ -3029,8 +2996,8 @@
       </c>
     </row>
     <row r="12" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="23" t="s">
-        <v>143</v>
+      <c r="A12" s="22" t="s">
+        <v>140</v>
       </c>
       <c r="B12" s="18" t="s">
         <v>42</v>
@@ -3051,17 +3018,17 @@
         <v>5</v>
       </c>
       <c r="I12" s="17" t="s">
-        <v>117</v>
-      </c>
-      <c r="J12" s="22" t="s">
-        <v>111</v>
+        <v>115</v>
+      </c>
+      <c r="J12" s="23" t="s">
+        <v>109</v>
       </c>
       <c r="K12" s="2" t="n">
         <v>1</v>
       </c>
       <c r="L12" s="0"/>
       <c r="M12" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="N12" s="1" t="s">
         <v>49</v>
@@ -3093,8 +3060,8 @@
       </c>
     </row>
     <row r="13" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="23" t="s">
-        <v>143</v>
+      <c r="A13" s="22" t="s">
+        <v>140</v>
       </c>
       <c r="B13" s="18" t="s">
         <v>42</v>
@@ -3115,17 +3082,17 @@
         <v>5</v>
       </c>
       <c r="I13" s="17" t="s">
-        <v>119</v>
-      </c>
-      <c r="J13" s="22" t="s">
-        <v>111</v>
+        <v>117</v>
+      </c>
+      <c r="J13" s="23" t="s">
+        <v>109</v>
       </c>
       <c r="K13" s="2" t="n">
         <v>1</v>
       </c>
       <c r="L13" s="0"/>
       <c r="M13" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="N13" s="1" t="s">
         <v>49</v>
@@ -3157,8 +3124,8 @@
       </c>
     </row>
     <row r="14" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="23" t="s">
-        <v>143</v>
+      <c r="A14" s="22" t="s">
+        <v>140</v>
       </c>
       <c r="B14" s="18" t="s">
         <v>42</v>
@@ -3179,17 +3146,17 @@
         <v>5</v>
       </c>
       <c r="I14" s="17" t="s">
-        <v>121</v>
-      </c>
-      <c r="J14" s="22" t="s">
-        <v>111</v>
+        <v>119</v>
+      </c>
+      <c r="J14" s="23" t="s">
+        <v>109</v>
       </c>
       <c r="K14" s="2" t="n">
         <v>1</v>
       </c>
       <c r="L14" s="0"/>
       <c r="M14" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="N14" s="1" t="s">
         <v>49</v>
@@ -3221,8 +3188,8 @@
       </c>
     </row>
     <row r="15" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="23" t="s">
-        <v>143</v>
+      <c r="A15" s="22" t="s">
+        <v>140</v>
       </c>
       <c r="B15" s="18" t="s">
         <v>42</v>
@@ -3243,17 +3210,17 @@
         <v>5</v>
       </c>
       <c r="I15" s="17" t="s">
-        <v>123</v>
-      </c>
-      <c r="J15" s="22" t="s">
-        <v>111</v>
+        <v>121</v>
+      </c>
+      <c r="J15" s="23" t="s">
+        <v>109</v>
       </c>
       <c r="K15" s="2" t="n">
         <v>1</v>
       </c>
       <c r="L15" s="0"/>
       <c r="M15" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="N15" s="1" t="s">
         <v>49</v>
@@ -3285,8 +3252,8 @@
       </c>
     </row>
     <row r="16" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="23" t="s">
-        <v>143</v>
+      <c r="A16" s="22" t="s">
+        <v>140</v>
       </c>
       <c r="B16" s="18" t="s">
         <v>42</v>
@@ -3307,17 +3274,17 @@
         <v>5</v>
       </c>
       <c r="I16" s="17" t="s">
-        <v>125</v>
-      </c>
-      <c r="J16" s="22" t="s">
-        <v>111</v>
+        <v>123</v>
+      </c>
+      <c r="J16" s="23" t="s">
+        <v>109</v>
       </c>
       <c r="K16" s="2" t="n">
         <v>1</v>
       </c>
       <c r="L16" s="0"/>
       <c r="M16" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="N16" s="1" t="s">
         <v>49</v>
@@ -3349,8 +3316,8 @@
       </c>
     </row>
     <row r="17" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="23" t="s">
-        <v>143</v>
+      <c r="A17" s="22" t="s">
+        <v>140</v>
       </c>
       <c r="B17" s="18" t="s">
         <v>42</v>
@@ -3371,17 +3338,17 @@
         <v>5</v>
       </c>
       <c r="I17" s="17" t="s">
-        <v>127</v>
-      </c>
-      <c r="J17" s="22" t="s">
-        <v>111</v>
+        <v>125</v>
+      </c>
+      <c r="J17" s="23" t="s">
+        <v>109</v>
       </c>
       <c r="K17" s="2" t="n">
         <v>1</v>
       </c>
       <c r="L17" s="0"/>
       <c r="M17" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="N17" s="1" t="s">
         <v>49</v>
@@ -3413,8 +3380,8 @@
       </c>
     </row>
     <row r="18" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="23" t="s">
-        <v>143</v>
+      <c r="A18" s="22" t="s">
+        <v>140</v>
       </c>
       <c r="B18" s="18" t="s">
         <v>42</v>
@@ -3435,17 +3402,17 @@
         <v>5</v>
       </c>
       <c r="I18" s="17" t="s">
-        <v>129</v>
-      </c>
-      <c r="J18" s="22" t="s">
-        <v>111</v>
+        <v>127</v>
+      </c>
+      <c r="J18" s="23" t="s">
+        <v>109</v>
       </c>
       <c r="K18" s="2" t="n">
         <v>1</v>
       </c>
       <c r="L18" s="0"/>
       <c r="M18" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="N18" s="1" t="s">
         <v>49</v>
@@ -3477,8 +3444,8 @@
       </c>
     </row>
     <row r="19" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="23" t="s">
-        <v>143</v>
+      <c r="A19" s="22" t="s">
+        <v>140</v>
       </c>
       <c r="B19" s="18" t="s">
         <v>42</v>
@@ -3499,17 +3466,17 @@
         <v>5</v>
       </c>
       <c r="I19" s="17" t="s">
-        <v>131</v>
-      </c>
-      <c r="J19" s="22" t="s">
-        <v>111</v>
+        <v>129</v>
+      </c>
+      <c r="J19" s="23" t="s">
+        <v>109</v>
       </c>
       <c r="K19" s="2" t="n">
         <v>1</v>
       </c>
       <c r="L19" s="0"/>
       <c r="M19" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="N19" s="1" t="s">
         <v>49</v>
@@ -3541,8 +3508,8 @@
       </c>
     </row>
     <row r="20" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="23" t="s">
-        <v>143</v>
+      <c r="A20" s="22" t="s">
+        <v>140</v>
       </c>
       <c r="B20" s="18" t="s">
         <v>42</v>
@@ -3563,17 +3530,17 @@
         <v>5</v>
       </c>
       <c r="I20" s="17" t="s">
-        <v>133</v>
-      </c>
-      <c r="J20" s="22" t="s">
-        <v>111</v>
+        <v>131</v>
+      </c>
+      <c r="J20" s="23" t="s">
+        <v>109</v>
       </c>
       <c r="K20" s="14" t="n">
         <v>1</v>
       </c>
       <c r="L20" s="13"/>
       <c r="M20" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="N20" s="1" t="s">
         <v>49</v>
@@ -3629,7 +3596,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="12.8542510121458"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="13.4251012145749"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3640,7 +3607,7 @@
         <v>8</v>
       </c>
       <c r="C1" s="26" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="D1" s="27" t="s">
         <v>9</v>
@@ -3664,18 +3631,18 @@
         <v>25</v>
       </c>
       <c r="K1" s="27" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="L1" s="27" t="s">
         <v>3</v>
       </c>
       <c r="M1" s="27" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="28" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
   </sheetData>
@@ -3696,27 +3663,27 @@
   </sheetPr>
   <dimension ref="A1:AK65536"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="T1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="Z2" activeCellId="0" sqref="Z2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="1" style="1" width="17.5668016194332"/>
-    <col collapsed="false" hidden="false" max="6" min="3" style="2" width="17.5668016194332"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="17.5668016194332"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="17.5668016194332"/>
-    <col collapsed="false" hidden="false" max="10" min="9" style="1" width="17.5668016194332"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="2" width="17.5668016194332"/>
-    <col collapsed="false" hidden="false" max="13" min="12" style="1" width="17.5668016194332"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="2" width="17.5668016194332"/>
-    <col collapsed="false" hidden="false" max="25" min="15" style="1" width="17.5668016194332"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="2" width="17.5668016194332"/>
-    <col collapsed="false" hidden="false" max="28" min="27" style="1" width="17.5668016194332"/>
-    <col collapsed="false" hidden="false" max="30" min="29" style="2" width="17.5668016194332"/>
-    <col collapsed="false" hidden="false" max="32" min="31" style="1" width="17.5668016194332"/>
-    <col collapsed="false" hidden="false" max="37" min="33" style="0" width="17.5668016194332"/>
-    <col collapsed="false" hidden="false" max="1025" min="38" style="1" width="17.5668016194332"/>
+    <col collapsed="false" hidden="false" max="2" min="1" style="1" width="18.2834008097166"/>
+    <col collapsed="false" hidden="false" max="6" min="3" style="2" width="18.2834008097166"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="18.2834008097166"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="18.2834008097166"/>
+    <col collapsed="false" hidden="false" max="10" min="9" style="1" width="18.2834008097166"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="2" width="18.2834008097166"/>
+    <col collapsed="false" hidden="false" max="13" min="12" style="1" width="18.2834008097166"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="2" width="18.2834008097166"/>
+    <col collapsed="false" hidden="false" max="25" min="15" style="1" width="18.2834008097166"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="2" width="18.2834008097166"/>
+    <col collapsed="false" hidden="false" max="28" min="27" style="1" width="18.2834008097166"/>
+    <col collapsed="false" hidden="false" max="30" min="29" style="2" width="18.2834008097166"/>
+    <col collapsed="false" hidden="false" max="32" min="31" style="1" width="18.2834008097166"/>
+    <col collapsed="false" hidden="false" max="37" min="33" style="0" width="18.2834008097166"/>
+    <col collapsed="false" hidden="false" max="1025" min="38" style="1" width="18.2834008097166"/>
   </cols>
   <sheetData>
     <row r="1" s="5" customFormat="true" ht="56" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5186,27 +5153,1365 @@
   <dimension ref="A1:AK65536"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="18.4251012145749"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="17.5668016194332"/>
-    <col collapsed="false" hidden="false" max="6" min="3" style="2" width="18.4251012145749"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="21.7085020242915"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="18.4251012145749"/>
-    <col collapsed="false" hidden="false" max="10" min="9" style="1" width="18.4251012145749"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="2" width="18.4251012145749"/>
-    <col collapsed="false" hidden="false" max="13" min="12" style="1" width="18.4251012145749"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="2" width="18.4251012145749"/>
-    <col collapsed="false" hidden="false" max="25" min="15" style="1" width="18.4251012145749"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="2" width="18.4251012145749"/>
-    <col collapsed="false" hidden="false" max="28" min="27" style="1" width="18.4251012145749"/>
-    <col collapsed="false" hidden="false" max="30" min="29" style="2" width="18.4251012145749"/>
-    <col collapsed="false" hidden="false" max="32" min="31" style="1" width="18.4251012145749"/>
-    <col collapsed="false" hidden="false" max="37" min="33" style="0" width="9.2834008097166"/>
-    <col collapsed="false" hidden="false" max="1025" min="38" style="1" width="18.4251012145749"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="19.1376518218624"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="18.2834008097166"/>
+    <col collapsed="false" hidden="false" max="6" min="3" style="2" width="19.1376518218624"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="19.1376518218624"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="19.1376518218624"/>
+    <col collapsed="false" hidden="false" max="10" min="9" style="1" width="19.1376518218624"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="2" width="19.1376518218624"/>
+    <col collapsed="false" hidden="false" max="25" min="12" style="1" width="19.1376518218624"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="2" width="19.1376518218624"/>
+    <col collapsed="false" hidden="false" max="28" min="27" style="1" width="19.1376518218624"/>
+    <col collapsed="false" hidden="false" max="30" min="29" style="2" width="19.1376518218624"/>
+    <col collapsed="false" hidden="false" max="32" min="31" style="1" width="19.1376518218624"/>
+    <col collapsed="false" hidden="false" max="37" min="33" style="20" width="19.1376518218624"/>
+    <col collapsed="false" hidden="false" max="1025" min="38" style="1" width="19.1376518218624"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="5" customFormat="true" ht="64" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" s="21"/>
+      <c r="AH1" s="21"/>
+      <c r="AI1" s="21"/>
+      <c r="AJ1" s="21"/>
+      <c r="AK1" s="21"/>
+    </row>
+    <row r="2" s="4" customFormat="true" ht="39" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="22" t="s">
+        <v>103</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" s="12" t="n">
+        <v>2</v>
+      </c>
+      <c r="G2" s="11"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="J2" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="K2" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="O2" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z2" s="12" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AB2" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC2" s="12"/>
+      <c r="AD2" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE2" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="AF2" s="13" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" s="4" customFormat="true" ht="39" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="22" t="s">
+        <v>103</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" s="12" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" s="12" t="n">
+        <v>2</v>
+      </c>
+      <c r="G3" s="11"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="J3" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="K3" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="O3" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z3" s="12" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AB3" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC3" s="12"/>
+      <c r="AD3" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE3" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="AF3" s="13" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="38" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="22" t="s">
+        <v>103</v>
+      </c>
+      <c r="B4" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" s="0"/>
+      <c r="F4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H4" s="0"/>
+      <c r="I4" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="J4" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="K4" s="0"/>
+      <c r="L4" s="0"/>
+      <c r="M4" s="0"/>
+      <c r="N4" s="0"/>
+      <c r="O4" s="0"/>
+      <c r="P4" s="0"/>
+      <c r="Q4" s="0"/>
+      <c r="R4" s="0"/>
+      <c r="S4" s="0"/>
+      <c r="T4" s="0"/>
+      <c r="U4" s="0"/>
+      <c r="V4" s="0"/>
+      <c r="W4" s="0"/>
+      <c r="X4" s="0"/>
+      <c r="Y4" s="0"/>
+      <c r="Z4" s="2" t="n">
+        <v>0.333</v>
+      </c>
+      <c r="AA4" s="0"/>
+      <c r="AB4" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="AC4" s="19"/>
+      <c r="AD4" s="19"/>
+      <c r="AE4" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF4" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="38" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="22" t="s">
+        <v>103</v>
+      </c>
+      <c r="B5" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="F5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="G5" s="0"/>
+      <c r="H5" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="K5" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" s="0"/>
+      <c r="M5" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="P5" s="0"/>
+      <c r="Q5" s="0"/>
+      <c r="R5" s="0"/>
+      <c r="S5" s="0"/>
+      <c r="T5" s="0"/>
+      <c r="U5" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="V5" s="0"/>
+      <c r="W5" s="0"/>
+      <c r="X5" s="0"/>
+      <c r="Y5" s="0"/>
+      <c r="Z5" s="19"/>
+      <c r="AA5" s="0"/>
+      <c r="AB5" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC5" s="19"/>
+      <c r="AD5" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE5" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AF5" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="38" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="22" t="s">
+        <v>103</v>
+      </c>
+      <c r="B6" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="C6" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="F6" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="G6" s="0"/>
+      <c r="H6" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="K6" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" s="0"/>
+      <c r="M6" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="P6" s="0"/>
+      <c r="Q6" s="0"/>
+      <c r="R6" s="0"/>
+      <c r="S6" s="0"/>
+      <c r="T6" s="0"/>
+      <c r="U6" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="V6" s="0"/>
+      <c r="W6" s="0"/>
+      <c r="X6" s="0"/>
+      <c r="Y6" s="0"/>
+      <c r="Z6" s="19"/>
+      <c r="AA6" s="0"/>
+      <c r="AB6" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC6" s="19"/>
+      <c r="AD6" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE6" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AF6" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="38" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="22" t="s">
+        <v>103</v>
+      </c>
+      <c r="B7" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="C7" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="F7" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="G7" s="0"/>
+      <c r="H7" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="K7" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" s="0"/>
+      <c r="M7" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="P7" s="0"/>
+      <c r="Q7" s="0"/>
+      <c r="R7" s="0"/>
+      <c r="S7" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="T7" s="0"/>
+      <c r="U7" s="0"/>
+      <c r="V7" s="0"/>
+      <c r="W7" s="0"/>
+      <c r="X7" s="0"/>
+      <c r="Y7" s="0"/>
+      <c r="Z7" s="19"/>
+      <c r="AA7" s="0"/>
+      <c r="AB7" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="AC7" s="19"/>
+      <c r="AD7" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE7" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AF7" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="38" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="22" t="s">
+        <v>103</v>
+      </c>
+      <c r="B8" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="C8" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="D8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" s="0"/>
+      <c r="F8" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="H8" s="0"/>
+      <c r="I8" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="J8" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="K8" s="0"/>
+      <c r="L8" s="0"/>
+      <c r="M8" s="0"/>
+      <c r="N8" s="0"/>
+      <c r="O8" s="0"/>
+      <c r="P8" s="0"/>
+      <c r="Q8" s="0"/>
+      <c r="R8" s="0"/>
+      <c r="S8" s="0"/>
+      <c r="T8" s="0"/>
+      <c r="U8" s="0"/>
+      <c r="V8" s="0"/>
+      <c r="W8" s="0"/>
+      <c r="X8" s="0"/>
+      <c r="Y8" s="0"/>
+      <c r="Z8" s="2" t="n">
+        <v>0.667</v>
+      </c>
+      <c r="AA8" s="0"/>
+      <c r="AB8" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="AC8" s="19"/>
+      <c r="AD8" s="19"/>
+      <c r="AE8" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF8" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="38" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="22" t="s">
+        <v>103</v>
+      </c>
+      <c r="B9" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="C9" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="D9" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="F9" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="H9" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="I9" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="J9" s="23" t="s">
+        <v>109</v>
+      </c>
+      <c r="K9" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" s="0"/>
+      <c r="M9" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="O9" s="0"/>
+      <c r="P9" s="0"/>
+      <c r="Q9" s="0"/>
+      <c r="R9" s="0"/>
+      <c r="S9" s="0"/>
+      <c r="T9" s="0"/>
+      <c r="U9" s="0"/>
+      <c r="V9" s="0"/>
+      <c r="W9" s="0"/>
+      <c r="X9" s="0"/>
+      <c r="Y9" s="0"/>
+      <c r="AA9" s="0"/>
+      <c r="AB9" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="AC9" s="19"/>
+      <c r="AD9" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE9" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="AF9" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="38" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="22" t="s">
+        <v>103</v>
+      </c>
+      <c r="B10" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="C10" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="D10" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="F10" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="H10" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="I10" s="17" t="s">
+        <v>111</v>
+      </c>
+      <c r="J10" s="23" t="s">
+        <v>109</v>
+      </c>
+      <c r="K10" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" s="0"/>
+      <c r="M10" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="N10" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="O10" s="0"/>
+      <c r="P10" s="0"/>
+      <c r="Q10" s="0"/>
+      <c r="R10" s="0"/>
+      <c r="S10" s="0"/>
+      <c r="T10" s="0"/>
+      <c r="U10" s="0"/>
+      <c r="V10" s="0"/>
+      <c r="W10" s="0"/>
+      <c r="X10" s="0"/>
+      <c r="Y10" s="0"/>
+      <c r="AA10" s="0"/>
+      <c r="AB10" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="AC10" s="19"/>
+      <c r="AD10" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE10" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="AF10" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="38" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="22" t="s">
+        <v>103</v>
+      </c>
+      <c r="B11" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="C11" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="D11" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="F11" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="H11" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="I11" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="J11" s="23" t="s">
+        <v>109</v>
+      </c>
+      <c r="K11" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" s="0"/>
+      <c r="M11" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="N11" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="O11" s="0"/>
+      <c r="P11" s="0"/>
+      <c r="Q11" s="0"/>
+      <c r="R11" s="0"/>
+      <c r="S11" s="0"/>
+      <c r="T11" s="0"/>
+      <c r="U11" s="0"/>
+      <c r="V11" s="0"/>
+      <c r="W11" s="0"/>
+      <c r="X11" s="0"/>
+      <c r="Y11" s="0"/>
+      <c r="AA11" s="0"/>
+      <c r="AB11" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="AC11" s="19"/>
+      <c r="AD11" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE11" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="AF11" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="38" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="22" t="s">
+        <v>103</v>
+      </c>
+      <c r="B12" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="C12" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="D12" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="F12" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="H12" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="I12" s="17" t="s">
+        <v>115</v>
+      </c>
+      <c r="J12" s="23" t="s">
+        <v>109</v>
+      </c>
+      <c r="K12" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" s="0"/>
+      <c r="M12" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="N12" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="O12" s="0"/>
+      <c r="P12" s="0"/>
+      <c r="Q12" s="0"/>
+      <c r="R12" s="0"/>
+      <c r="S12" s="0"/>
+      <c r="T12" s="0"/>
+      <c r="U12" s="0"/>
+      <c r="V12" s="0"/>
+      <c r="W12" s="0"/>
+      <c r="X12" s="0"/>
+      <c r="Y12" s="0"/>
+      <c r="AA12" s="0"/>
+      <c r="AB12" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="AC12" s="19"/>
+      <c r="AD12" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE12" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="AF12" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="38" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A13" s="22" t="s">
+        <v>103</v>
+      </c>
+      <c r="B13" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="C13" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="D13" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="F13" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="H13" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="I13" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="J13" s="23" t="s">
+        <v>109</v>
+      </c>
+      <c r="K13" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" s="0"/>
+      <c r="M13" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="N13" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="O13" s="0"/>
+      <c r="P13" s="0"/>
+      <c r="Q13" s="0"/>
+      <c r="R13" s="0"/>
+      <c r="S13" s="0"/>
+      <c r="T13" s="0"/>
+      <c r="U13" s="0"/>
+      <c r="V13" s="0"/>
+      <c r="W13" s="0"/>
+      <c r="X13" s="0"/>
+      <c r="Y13" s="0"/>
+      <c r="AA13" s="0"/>
+      <c r="AB13" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="AC13" s="19"/>
+      <c r="AD13" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE13" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="AF13" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="38" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A14" s="22" t="s">
+        <v>103</v>
+      </c>
+      <c r="B14" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="C14" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="D14" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="F14" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="H14" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="I14" s="17" t="s">
+        <v>119</v>
+      </c>
+      <c r="J14" s="23" t="s">
+        <v>109</v>
+      </c>
+      <c r="K14" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" s="0"/>
+      <c r="M14" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="N14" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="O14" s="0"/>
+      <c r="P14" s="0"/>
+      <c r="Q14" s="0"/>
+      <c r="R14" s="0"/>
+      <c r="S14" s="0"/>
+      <c r="T14" s="0"/>
+      <c r="U14" s="0"/>
+      <c r="V14" s="0"/>
+      <c r="W14" s="0"/>
+      <c r="X14" s="0"/>
+      <c r="Y14" s="0"/>
+      <c r="AA14" s="0"/>
+      <c r="AB14" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="AC14" s="19"/>
+      <c r="AD14" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE14" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="AF14" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="38" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A15" s="22" t="s">
+        <v>103</v>
+      </c>
+      <c r="B15" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="C15" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="D15" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="F15" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="H15" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="I15" s="17" t="s">
+        <v>121</v>
+      </c>
+      <c r="J15" s="23" t="s">
+        <v>109</v>
+      </c>
+      <c r="K15" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" s="0"/>
+      <c r="M15" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="N15" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="O15" s="0"/>
+      <c r="P15" s="0"/>
+      <c r="Q15" s="0"/>
+      <c r="R15" s="0"/>
+      <c r="S15" s="0"/>
+      <c r="T15" s="0"/>
+      <c r="U15" s="0"/>
+      <c r="V15" s="0"/>
+      <c r="W15" s="0"/>
+      <c r="X15" s="0"/>
+      <c r="Y15" s="0"/>
+      <c r="AA15" s="0"/>
+      <c r="AB15" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="AC15" s="19"/>
+      <c r="AD15" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE15" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="AF15" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="38" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A16" s="22" t="s">
+        <v>103</v>
+      </c>
+      <c r="B16" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="C16" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="D16" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="F16" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="H16" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="I16" s="17" t="s">
+        <v>123</v>
+      </c>
+      <c r="J16" s="23" t="s">
+        <v>109</v>
+      </c>
+      <c r="K16" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" s="0"/>
+      <c r="M16" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="N16" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="O16" s="0"/>
+      <c r="P16" s="0"/>
+      <c r="Q16" s="0"/>
+      <c r="R16" s="0"/>
+      <c r="S16" s="0"/>
+      <c r="T16" s="0"/>
+      <c r="U16" s="0"/>
+      <c r="V16" s="0"/>
+      <c r="W16" s="0"/>
+      <c r="X16" s="0"/>
+      <c r="Y16" s="0"/>
+      <c r="AA16" s="0"/>
+      <c r="AB16" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="AC16" s="19"/>
+      <c r="AD16" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE16" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="AF16" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="38" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A17" s="22" t="s">
+        <v>103</v>
+      </c>
+      <c r="B17" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="C17" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="D17" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="F17" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="H17" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="I17" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="J17" s="23" t="s">
+        <v>109</v>
+      </c>
+      <c r="K17" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" s="0"/>
+      <c r="M17" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="N17" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="O17" s="0"/>
+      <c r="P17" s="0"/>
+      <c r="Q17" s="0"/>
+      <c r="R17" s="0"/>
+      <c r="S17" s="0"/>
+      <c r="T17" s="0"/>
+      <c r="U17" s="0"/>
+      <c r="V17" s="0"/>
+      <c r="W17" s="0"/>
+      <c r="X17" s="0"/>
+      <c r="Y17" s="0"/>
+      <c r="AA17" s="0"/>
+      <c r="AB17" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="AC17" s="19"/>
+      <c r="AD17" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE17" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="AF17" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="38" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A18" s="22" t="s">
+        <v>103</v>
+      </c>
+      <c r="B18" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="C18" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="D18" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="F18" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="H18" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="I18" s="17" t="s">
+        <v>127</v>
+      </c>
+      <c r="J18" s="23" t="s">
+        <v>109</v>
+      </c>
+      <c r="K18" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" s="0"/>
+      <c r="M18" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="N18" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="O18" s="0"/>
+      <c r="P18" s="0"/>
+      <c r="Q18" s="0"/>
+      <c r="R18" s="0"/>
+      <c r="S18" s="0"/>
+      <c r="T18" s="0"/>
+      <c r="U18" s="0"/>
+      <c r="V18" s="0"/>
+      <c r="W18" s="0"/>
+      <c r="X18" s="0"/>
+      <c r="Y18" s="0"/>
+      <c r="AA18" s="0"/>
+      <c r="AB18" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="AC18" s="19"/>
+      <c r="AD18" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE18" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="AF18" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="38" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A19" s="22" t="s">
+        <v>103</v>
+      </c>
+      <c r="B19" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="C19" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="D19" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="F19" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="H19" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="I19" s="17" t="s">
+        <v>129</v>
+      </c>
+      <c r="J19" s="23" t="s">
+        <v>109</v>
+      </c>
+      <c r="K19" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" s="0"/>
+      <c r="M19" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="N19" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="O19" s="0"/>
+      <c r="P19" s="0"/>
+      <c r="Q19" s="0"/>
+      <c r="R19" s="0"/>
+      <c r="S19" s="0"/>
+      <c r="T19" s="0"/>
+      <c r="U19" s="0"/>
+      <c r="V19" s="0"/>
+      <c r="W19" s="0"/>
+      <c r="X19" s="0"/>
+      <c r="Y19" s="0"/>
+      <c r="AA19" s="0"/>
+      <c r="AB19" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="AC19" s="19"/>
+      <c r="AD19" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE19" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="AF19" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="38" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A20" s="22" t="s">
+        <v>103</v>
+      </c>
+      <c r="B20" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="C20" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="D20" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="F20" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="H20" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="I20" s="17" t="s">
+        <v>131</v>
+      </c>
+      <c r="J20" s="23" t="s">
+        <v>109</v>
+      </c>
+      <c r="K20" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" s="13"/>
+      <c r="M20" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="N20" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="O20" s="13"/>
+      <c r="P20" s="13"/>
+      <c r="Q20" s="13"/>
+      <c r="R20" s="13"/>
+      <c r="S20" s="13"/>
+      <c r="T20" s="13"/>
+      <c r="U20" s="13"/>
+      <c r="V20" s="13"/>
+      <c r="W20" s="13"/>
+      <c r="X20" s="13"/>
+      <c r="Y20" s="13"/>
+      <c r="AA20" s="13"/>
+      <c r="AB20" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="AC20" s="14"/>
+      <c r="AD20" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE20" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="AF20" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:AK65536"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="U1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="Z3" activeCellId="0" sqref="Z3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="19.2834008097166"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="18.2834008097166"/>
+    <col collapsed="false" hidden="false" max="6" min="3" style="2" width="19.2834008097166"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="22.7085020242915"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="19.2834008097166"/>
+    <col collapsed="false" hidden="false" max="10" min="9" style="1" width="19.2834008097166"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="2" width="19.2834008097166"/>
+    <col collapsed="false" hidden="false" max="13" min="12" style="1" width="19.2834008097166"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="2" width="19.2834008097166"/>
+    <col collapsed="false" hidden="false" max="25" min="15" style="1" width="19.2834008097166"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="2" width="19.2834008097166"/>
+    <col collapsed="false" hidden="false" max="28" min="27" style="1" width="19.2834008097166"/>
+    <col collapsed="false" hidden="false" max="30" min="29" style="2" width="19.2834008097166"/>
+    <col collapsed="false" hidden="false" max="32" min="31" style="1" width="19.2834008097166"/>
+    <col collapsed="false" hidden="false" max="37" min="33" style="0" width="9.71255060728745"/>
+    <col collapsed="false" hidden="false" max="1025" min="38" style="1" width="19.2834008097166"/>
   </cols>
   <sheetData>
     <row r="1" s="5" customFormat="true" ht="65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5314,7 +6619,7 @@
     </row>
     <row r="2" s="4" customFormat="true" ht="39" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="18" t="s">
-        <v>103</v>
+        <v>133</v>
       </c>
       <c r="B2" s="11" t="s">
         <v>33</v>
@@ -5364,7 +6669,7 @@
     </row>
     <row r="3" s="4" customFormat="true" ht="39" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="18" t="s">
-        <v>103</v>
+        <v>133</v>
       </c>
       <c r="B3" s="11" t="s">
         <v>33</v>
@@ -5414,7 +6719,7 @@
     </row>
     <row r="4" customFormat="false" ht="40" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="18" t="s">
-        <v>103</v>
+        <v>133</v>
       </c>
       <c r="B4" s="18" t="s">
         <v>42</v>
@@ -5472,7 +6777,7 @@
     </row>
     <row r="5" customFormat="false" ht="40" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="18" t="s">
-        <v>103</v>
+        <v>133</v>
       </c>
       <c r="B5" s="18" t="s">
         <v>42</v>
@@ -5533,7 +6838,7 @@
     </row>
     <row r="6" customFormat="false" ht="40" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="18" t="s">
-        <v>103</v>
+        <v>133</v>
       </c>
       <c r="B6" s="18" t="s">
         <v>42</v>
@@ -5594,7 +6899,7 @@
     </row>
     <row r="7" customFormat="false" ht="40" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="18" t="s">
-        <v>103</v>
+        <v>133</v>
       </c>
       <c r="B7" s="18" t="s">
         <v>42</v>
@@ -5655,7 +6960,7 @@
     </row>
     <row r="8" customFormat="false" ht="40" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="18" t="s">
-        <v>103</v>
+        <v>133</v>
       </c>
       <c r="B8" s="18" t="s">
         <v>42</v>
@@ -5716,7 +7021,7 @@
     </row>
     <row r="9" customFormat="false" ht="40" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="18" t="s">
-        <v>103</v>
+        <v>133</v>
       </c>
       <c r="B9" s="18" t="s">
         <v>42</v>
@@ -5777,7 +7082,7 @@
     </row>
     <row r="10" customFormat="false" ht="40" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="18" t="s">
-        <v>103</v>
+        <v>133</v>
       </c>
       <c r="B10" s="18" t="s">
         <v>42</v>
@@ -5838,7 +7143,7 @@
     </row>
     <row r="11" customFormat="false" ht="40" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="18" t="s">
-        <v>103</v>
+        <v>133</v>
       </c>
       <c r="B11" s="18" t="s">
         <v>42</v>
@@ -5899,7 +7204,7 @@
     </row>
     <row r="12" customFormat="false" ht="40" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="18" t="s">
-        <v>103</v>
+        <v>133</v>
       </c>
       <c r="B12" s="18" t="s">
         <v>42</v>
@@ -5960,7 +7265,7 @@
     </row>
     <row r="13" customFormat="false" ht="40" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="18" t="s">
-        <v>103</v>
+        <v>133</v>
       </c>
       <c r="B13" s="18" t="s">
         <v>42</v>
@@ -6021,7 +7326,7 @@
     </row>
     <row r="14" customFormat="false" ht="40" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="18" t="s">
-        <v>103</v>
+        <v>133</v>
       </c>
       <c r="B14" s="18" t="s">
         <v>42</v>
@@ -6082,7 +7387,7 @@
     </row>
     <row r="15" customFormat="false" ht="40" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="18" t="s">
-        <v>103</v>
+        <v>133</v>
       </c>
       <c r="B15" s="18" t="s">
         <v>42</v>
@@ -6130,7 +7435,7 @@
     </row>
     <row r="16" customFormat="false" ht="40" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="18" t="s">
-        <v>103</v>
+        <v>133</v>
       </c>
       <c r="B16" s="18" t="s">
         <v>42</v>
@@ -6190,7 +7495,7 @@
     </row>
     <row r="17" customFormat="false" ht="40" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="18" t="s">
-        <v>103</v>
+        <v>133</v>
       </c>
       <c r="B17" s="18" t="s">
         <v>42</v>
@@ -6250,7 +7555,7 @@
     </row>
     <row r="18" customFormat="false" ht="40" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="18" t="s">
-        <v>103</v>
+        <v>133</v>
       </c>
       <c r="B18" s="18" t="s">
         <v>42</v>
@@ -6309,7 +7614,7 @@
     </row>
     <row r="19" customFormat="false" ht="40" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="18" t="s">
-        <v>103</v>
+        <v>133</v>
       </c>
       <c r="B19" s="18" t="s">
         <v>42</v>
@@ -6356,7 +7661,7 @@
     </row>
     <row r="20" customFormat="false" ht="40" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="18" t="s">
-        <v>103</v>
+        <v>133</v>
       </c>
       <c r="B20" s="18" t="s">
         <v>42</v>
@@ -6377,7 +7682,7 @@
         <v>16</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>104</v>
+        <v>82</v>
       </c>
       <c r="J20" s="17" t="s">
         <v>83</v>
@@ -6416,7 +7721,7 @@
     </row>
     <row r="21" customFormat="false" ht="40" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="18" t="s">
-        <v>103</v>
+        <v>133</v>
       </c>
       <c r="B21" s="18" t="s">
         <v>42</v>
@@ -6476,7 +7781,7 @@
     </row>
     <row r="22" customFormat="false" ht="40" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="18" t="s">
-        <v>103</v>
+        <v>133</v>
       </c>
       <c r="B22" s="18" t="s">
         <v>42</v>
@@ -6536,7 +7841,7 @@
     </row>
     <row r="23" customFormat="false" ht="40" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="18" t="s">
-        <v>103</v>
+        <v>133</v>
       </c>
       <c r="B23" s="18" t="s">
         <v>42</v>
@@ -6596,7 +7901,7 @@
     </row>
     <row r="24" customFormat="false" ht="40" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="18" t="s">
-        <v>103</v>
+        <v>133</v>
       </c>
       <c r="B24" s="18" t="s">
         <v>42</v>
@@ -6666,31 +7971,31 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:AJ65536"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I22" activeCellId="0" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="19.5668016194332"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="17.5668016194332"/>
-    <col collapsed="false" hidden="false" max="6" min="3" style="2" width="19.5668016194332"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="19.5668016194332"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="19.5668016194332"/>
-    <col collapsed="false" hidden="false" max="10" min="9" style="1" width="19.5668016194332"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="2" width="19.5668016194332"/>
-    <col collapsed="false" hidden="false" max="25" min="12" style="1" width="19.5668016194332"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="2" width="19.5668016194332"/>
-    <col collapsed="false" hidden="false" max="28" min="27" style="1" width="19.5668016194332"/>
-    <col collapsed="false" hidden="false" max="30" min="29" style="2" width="19.5668016194332"/>
-    <col collapsed="false" hidden="false" max="1025" min="31" style="1" width="19.5668016194332"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="20.4251012145749"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="18.2834008097166"/>
+    <col collapsed="false" hidden="false" max="6" min="3" style="2" width="20.4251012145749"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="20.4251012145749"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="20.4251012145749"/>
+    <col collapsed="false" hidden="false" max="10" min="9" style="1" width="20.4251012145749"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="2" width="20.4251012145749"/>
+    <col collapsed="false" hidden="false" max="25" min="12" style="1" width="20.4251012145749"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="2" width="20.4251012145749"/>
+    <col collapsed="false" hidden="false" max="28" min="27" style="1" width="20.4251012145749"/>
+    <col collapsed="false" hidden="false" max="30" min="29" style="2" width="20.4251012145749"/>
+    <col collapsed="false" hidden="false" max="1025" min="31" style="1" width="20.4251012145749"/>
   </cols>
   <sheetData>
     <row r="1" s="5" customFormat="true" ht="59" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6796,7 +8101,7 @@
     </row>
     <row r="2" s="4" customFormat="true" ht="39" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="18" t="s">
-        <v>105</v>
+        <v>134</v>
       </c>
       <c r="B2" s="11" t="s">
         <v>33</v>
@@ -6846,7 +8151,7 @@
     </row>
     <row r="3" s="4" customFormat="true" ht="39" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="18" t="s">
-        <v>105</v>
+        <v>134</v>
       </c>
       <c r="B3" s="11" t="s">
         <v>33</v>
@@ -6896,7 +8201,7 @@
     </row>
     <row r="4" customFormat="false" ht="37" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="18" t="s">
-        <v>105</v>
+        <v>134</v>
       </c>
       <c r="B4" s="18" t="s">
         <v>42</v>
@@ -6956,7 +8261,7 @@
     </row>
     <row r="5" customFormat="false" ht="37" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="18" t="s">
-        <v>105</v>
+        <v>134</v>
       </c>
       <c r="B5" s="18" t="s">
         <v>42</v>
@@ -7019,7 +8324,7 @@
     </row>
     <row r="6" customFormat="false" ht="37" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="18" t="s">
-        <v>105</v>
+        <v>134</v>
       </c>
       <c r="B6" s="18" t="s">
         <v>42</v>
@@ -7082,7 +8387,7 @@
     </row>
     <row r="7" customFormat="false" ht="37" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="18" t="s">
-        <v>105</v>
+        <v>134</v>
       </c>
       <c r="B7" s="18" t="s">
         <v>42</v>
@@ -7145,7 +8450,7 @@
     </row>
     <row r="8" customFormat="false" ht="37" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="18" t="s">
-        <v>105</v>
+        <v>134</v>
       </c>
       <c r="B8" s="18" t="s">
         <v>42</v>
@@ -7208,7 +8513,7 @@
     </row>
     <row r="9" customFormat="false" ht="37" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="18" t="s">
-        <v>105</v>
+        <v>134</v>
       </c>
       <c r="B9" s="18" t="s">
         <v>42</v>
@@ -7271,7 +8576,7 @@
     </row>
     <row r="10" customFormat="false" ht="37" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="18" t="s">
-        <v>105</v>
+        <v>134</v>
       </c>
       <c r="B10" s="18" t="s">
         <v>42</v>
@@ -7334,7 +8639,7 @@
     </row>
     <row r="11" customFormat="false" ht="37" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="18" t="s">
-        <v>105</v>
+        <v>134</v>
       </c>
       <c r="B11" s="18" t="s">
         <v>42</v>
@@ -7397,7 +8702,7 @@
     </row>
     <row r="12" customFormat="false" ht="37" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="18" t="s">
-        <v>105</v>
+        <v>134</v>
       </c>
       <c r="B12" s="18" t="s">
         <v>42</v>
@@ -7460,7 +8765,7 @@
     </row>
     <row r="13" customFormat="false" ht="37" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="18" t="s">
-        <v>105</v>
+        <v>134</v>
       </c>
       <c r="B13" s="18" t="s">
         <v>42</v>
@@ -7523,7 +8828,7 @@
     </row>
     <row r="14" customFormat="false" ht="37" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="18" t="s">
-        <v>105</v>
+        <v>134</v>
       </c>
       <c r="B14" s="18" t="s">
         <v>42</v>
@@ -7586,7 +8891,7 @@
     </row>
     <row r="15" customFormat="false" ht="37" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="18" t="s">
-        <v>105</v>
+        <v>134</v>
       </c>
       <c r="B15" s="18" t="s">
         <v>42</v>
@@ -7636,7 +8941,7 @@
     </row>
     <row r="16" customFormat="false" ht="37" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="18" t="s">
-        <v>105</v>
+        <v>134</v>
       </c>
       <c r="B16" s="18" t="s">
         <v>42</v>
@@ -7698,7 +9003,7 @@
     </row>
     <row r="17" customFormat="false" ht="37" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="18" t="s">
-        <v>105</v>
+        <v>134</v>
       </c>
       <c r="B17" s="18" t="s">
         <v>42</v>
@@ -7760,7 +9065,7 @@
     </row>
     <row r="18" customFormat="false" ht="37" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="18" t="s">
-        <v>105</v>
+        <v>134</v>
       </c>
       <c r="B18" s="18" t="s">
         <v>42</v>
@@ -7821,7 +9126,7 @@
     </row>
     <row r="19" customFormat="false" ht="37" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="18" t="s">
-        <v>105</v>
+        <v>134</v>
       </c>
       <c r="B19" s="18" t="s">
         <v>42</v>
@@ -7870,7 +9175,7 @@
     </row>
     <row r="20" customFormat="false" ht="37" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="18" t="s">
-        <v>105</v>
+        <v>134</v>
       </c>
       <c r="B20" s="18" t="s">
         <v>42</v>
@@ -7932,7 +9237,7 @@
     </row>
     <row r="21" customFormat="false" ht="37" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="18" t="s">
-        <v>105</v>
+        <v>134</v>
       </c>
       <c r="B21" s="18" t="s">
         <v>42</v>
@@ -7994,7 +9299,7 @@
     </row>
     <row r="22" customFormat="false" ht="37" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="18" t="s">
-        <v>105</v>
+        <v>134</v>
       </c>
       <c r="B22" s="18" t="s">
         <v>42</v>
@@ -8056,7 +9361,7 @@
     </row>
     <row r="23" customFormat="false" ht="37" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="18" t="s">
-        <v>105</v>
+        <v>134</v>
       </c>
       <c r="B23" s="18" t="s">
         <v>42</v>
@@ -8118,7 +9423,7 @@
     </row>
     <row r="24" customFormat="false" ht="37" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="18" t="s">
-        <v>105</v>
+        <v>134</v>
       </c>
       <c r="B24" s="18" t="s">
         <v>42</v>
@@ -8177,1344 +9482,6 @@
       </c>
       <c r="AG24" s="13"/>
       <c r="AH24" s="13"/>
-    </row>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:AK65536"/>
-  <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="20.7085020242915"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="17.5668016194332"/>
-    <col collapsed="false" hidden="false" max="6" min="3" style="2" width="20.7085020242915"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="20.7085020242915"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="20.7085020242915"/>
-    <col collapsed="false" hidden="false" max="10" min="9" style="1" width="20.7085020242915"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="2" width="20.7085020242915"/>
-    <col collapsed="false" hidden="false" max="25" min="12" style="1" width="20.7085020242915"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="2" width="20.7085020242915"/>
-    <col collapsed="false" hidden="false" max="28" min="27" style="1" width="20.7085020242915"/>
-    <col collapsed="false" hidden="false" max="30" min="29" style="2" width="20.7085020242915"/>
-    <col collapsed="false" hidden="false" max="32" min="31" style="1" width="20.7085020242915"/>
-    <col collapsed="false" hidden="false" max="37" min="33" style="20" width="20.7085020242915"/>
-    <col collapsed="false" hidden="false" max="1025" min="38" style="1" width="20.7085020242915"/>
-  </cols>
-  <sheetData>
-    <row r="1" s="5" customFormat="true" ht="80" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="R1" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="S1" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="T1" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="U1" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="V1" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="W1" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="X1" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="Y1" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="Z1" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="AA1" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="AB1" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="AC1" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="AD1" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="AE1" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="AF1" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="AG1" s="21"/>
-      <c r="AH1" s="21"/>
-      <c r="AI1" s="21"/>
-      <c r="AJ1" s="21"/>
-      <c r="AK1" s="21"/>
-    </row>
-    <row r="2" s="4" customFormat="true" ht="39" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="18" t="s">
-        <v>106</v>
-      </c>
-      <c r="B2" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="C2" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" s="12" t="n">
-        <v>2</v>
-      </c>
-      <c r="G2" s="11"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="J2" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="K2" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="O2" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="Z2" s="12" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="AB2" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="AC2" s="12"/>
-      <c r="AD2" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE2" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="AF2" s="13" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="3" s="4" customFormat="true" ht="39" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="18" t="s">
-        <v>106</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="C3" s="12" t="n">
-        <v>2</v>
-      </c>
-      <c r="D3" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="E3" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" s="12" t="n">
-        <v>2</v>
-      </c>
-      <c r="G3" s="11"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="J3" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="K3" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="O3" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="Z3" s="12" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="AB3" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="AC3" s="12"/>
-      <c r="AD3" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE3" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="AF3" s="13" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="40" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="18" t="s">
-        <v>106</v>
-      </c>
-      <c r="B4" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="C4" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" s="0"/>
-      <c r="F4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="H4" s="0"/>
-      <c r="I4" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="J4" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="K4" s="0"/>
-      <c r="L4" s="0"/>
-      <c r="M4" s="0"/>
-      <c r="N4" s="0"/>
-      <c r="O4" s="0"/>
-      <c r="P4" s="0"/>
-      <c r="Q4" s="0"/>
-      <c r="R4" s="0"/>
-      <c r="S4" s="0"/>
-      <c r="T4" s="0"/>
-      <c r="U4" s="0"/>
-      <c r="V4" s="0"/>
-      <c r="W4" s="0"/>
-      <c r="X4" s="0"/>
-      <c r="Y4" s="0"/>
-      <c r="Z4" s="2" t="n">
-        <v>0.333</v>
-      </c>
-      <c r="AA4" s="0"/>
-      <c r="AB4" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="AC4" s="19"/>
-      <c r="AD4" s="19"/>
-      <c r="AE4" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="AF4" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="40" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="18" t="s">
-        <v>106</v>
-      </c>
-      <c r="B5" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="C5" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="F5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="G5" s="0"/>
-      <c r="H5" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="K5" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="L5" s="0"/>
-      <c r="M5" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="N5" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="O5" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="P5" s="0"/>
-      <c r="Q5" s="0"/>
-      <c r="R5" s="0"/>
-      <c r="S5" s="0"/>
-      <c r="T5" s="0"/>
-      <c r="U5" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="V5" s="0"/>
-      <c r="W5" s="0"/>
-      <c r="X5" s="0"/>
-      <c r="Y5" s="0"/>
-      <c r="Z5" s="19"/>
-      <c r="AA5" s="0"/>
-      <c r="AB5" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="AC5" s="19"/>
-      <c r="AD5" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE5" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="AF5" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="40" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="18" t="s">
-        <v>106</v>
-      </c>
-      <c r="B6" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="C6" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="D6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E6" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="F6" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="G6" s="0"/>
-      <c r="H6" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="K6" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="L6" s="0"/>
-      <c r="M6" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="N6" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="O6" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="P6" s="0"/>
-      <c r="Q6" s="0"/>
-      <c r="R6" s="0"/>
-      <c r="S6" s="0"/>
-      <c r="T6" s="0"/>
-      <c r="U6" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="V6" s="0"/>
-      <c r="W6" s="0"/>
-      <c r="X6" s="0"/>
-      <c r="Y6" s="0"/>
-      <c r="Z6" s="19"/>
-      <c r="AA6" s="0"/>
-      <c r="AB6" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="AC6" s="19"/>
-      <c r="AD6" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE6" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="AF6" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="40" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="18" t="s">
-        <v>106</v>
-      </c>
-      <c r="B7" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="C7" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="D7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E7" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="F7" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="G7" s="0"/>
-      <c r="H7" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="K7" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="L7" s="0"/>
-      <c r="M7" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="N7" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="O7" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="P7" s="0"/>
-      <c r="Q7" s="0"/>
-      <c r="R7" s="0"/>
-      <c r="S7" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="T7" s="0"/>
-      <c r="U7" s="0"/>
-      <c r="V7" s="0"/>
-      <c r="W7" s="0"/>
-      <c r="X7" s="0"/>
-      <c r="Y7" s="0"/>
-      <c r="Z7" s="19"/>
-      <c r="AA7" s="0"/>
-      <c r="AB7" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="AC7" s="19"/>
-      <c r="AD7" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE7" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="AF7" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="40" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="18" t="s">
-        <v>106</v>
-      </c>
-      <c r="B8" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="C8" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="D8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E8" s="0"/>
-      <c r="F8" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="H8" s="0"/>
-      <c r="I8" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="J8" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="K8" s="0"/>
-      <c r="L8" s="0"/>
-      <c r="M8" s="0"/>
-      <c r="N8" s="0"/>
-      <c r="O8" s="0"/>
-      <c r="P8" s="0"/>
-      <c r="Q8" s="0"/>
-      <c r="R8" s="0"/>
-      <c r="S8" s="0"/>
-      <c r="T8" s="0"/>
-      <c r="U8" s="0"/>
-      <c r="V8" s="0"/>
-      <c r="W8" s="0"/>
-      <c r="X8" s="0"/>
-      <c r="Y8" s="0"/>
-      <c r="Z8" s="2" t="n">
-        <v>0.667</v>
-      </c>
-      <c r="AA8" s="0"/>
-      <c r="AB8" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="AC8" s="19"/>
-      <c r="AD8" s="19"/>
-      <c r="AE8" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="AF8" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="40" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="18" t="s">
-        <v>106</v>
-      </c>
-      <c r="B9" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="C9" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="D9" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="E9" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="F9" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="H9" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="I9" s="17" t="s">
-        <v>110</v>
-      </c>
-      <c r="J9" s="22" t="s">
-        <v>111</v>
-      </c>
-      <c r="K9" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="L9" s="0"/>
-      <c r="M9" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="N9" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="O9" s="0"/>
-      <c r="P9" s="0"/>
-      <c r="Q9" s="0"/>
-      <c r="R9" s="0"/>
-      <c r="S9" s="0"/>
-      <c r="T9" s="0"/>
-      <c r="U9" s="0"/>
-      <c r="V9" s="0"/>
-      <c r="W9" s="0"/>
-      <c r="X9" s="0"/>
-      <c r="Y9" s="0"/>
-      <c r="AA9" s="0"/>
-      <c r="AB9" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="AC9" s="19"/>
-      <c r="AD9" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE9" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="AF9" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="40" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="18" t="s">
-        <v>106</v>
-      </c>
-      <c r="B10" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="C10" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="D10" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="E10" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="F10" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="H10" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="I10" s="17" t="s">
-        <v>113</v>
-      </c>
-      <c r="J10" s="22" t="s">
-        <v>111</v>
-      </c>
-      <c r="K10" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="L10" s="0"/>
-      <c r="M10" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="N10" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="O10" s="0"/>
-      <c r="P10" s="0"/>
-      <c r="Q10" s="0"/>
-      <c r="R10" s="0"/>
-      <c r="S10" s="0"/>
-      <c r="T10" s="0"/>
-      <c r="U10" s="0"/>
-      <c r="V10" s="0"/>
-      <c r="W10" s="0"/>
-      <c r="X10" s="0"/>
-      <c r="Y10" s="0"/>
-      <c r="AA10" s="0"/>
-      <c r="AB10" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="AC10" s="19"/>
-      <c r="AD10" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE10" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="AF10" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="40" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="18" t="s">
-        <v>106</v>
-      </c>
-      <c r="B11" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="C11" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="D11" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="E11" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="F11" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="H11" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="I11" s="17" t="s">
-        <v>115</v>
-      </c>
-      <c r="J11" s="22" t="s">
-        <v>111</v>
-      </c>
-      <c r="K11" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="L11" s="0"/>
-      <c r="M11" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="N11" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="O11" s="0"/>
-      <c r="P11" s="0"/>
-      <c r="Q11" s="0"/>
-      <c r="R11" s="0"/>
-      <c r="S11" s="0"/>
-      <c r="T11" s="0"/>
-      <c r="U11" s="0"/>
-      <c r="V11" s="0"/>
-      <c r="W11" s="0"/>
-      <c r="X11" s="0"/>
-      <c r="Y11" s="0"/>
-      <c r="AA11" s="0"/>
-      <c r="AB11" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="AC11" s="19"/>
-      <c r="AD11" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE11" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="AF11" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="40" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="18" t="s">
-        <v>106</v>
-      </c>
-      <c r="B12" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="C12" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="D12" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="E12" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="F12" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="H12" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="I12" s="17" t="s">
-        <v>117</v>
-      </c>
-      <c r="J12" s="22" t="s">
-        <v>111</v>
-      </c>
-      <c r="K12" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="L12" s="0"/>
-      <c r="M12" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="N12" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="O12" s="0"/>
-      <c r="P12" s="0"/>
-      <c r="Q12" s="0"/>
-      <c r="R12" s="0"/>
-      <c r="S12" s="0"/>
-      <c r="T12" s="0"/>
-      <c r="U12" s="0"/>
-      <c r="V12" s="0"/>
-      <c r="W12" s="0"/>
-      <c r="X12" s="0"/>
-      <c r="Y12" s="0"/>
-      <c r="AA12" s="0"/>
-      <c r="AB12" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="AC12" s="19"/>
-      <c r="AD12" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE12" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="AF12" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="40" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="18" t="s">
-        <v>106</v>
-      </c>
-      <c r="B13" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="C13" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="D13" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="E13" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="F13" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="H13" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="I13" s="17" t="s">
-        <v>119</v>
-      </c>
-      <c r="J13" s="22" t="s">
-        <v>111</v>
-      </c>
-      <c r="K13" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="L13" s="0"/>
-      <c r="M13" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="N13" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="O13" s="0"/>
-      <c r="P13" s="0"/>
-      <c r="Q13" s="0"/>
-      <c r="R13" s="0"/>
-      <c r="S13" s="0"/>
-      <c r="T13" s="0"/>
-      <c r="U13" s="0"/>
-      <c r="V13" s="0"/>
-      <c r="W13" s="0"/>
-      <c r="X13" s="0"/>
-      <c r="Y13" s="0"/>
-      <c r="AA13" s="0"/>
-      <c r="AB13" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="AC13" s="19"/>
-      <c r="AD13" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE13" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="AF13" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="40" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="18" t="s">
-        <v>106</v>
-      </c>
-      <c r="B14" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="C14" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="D14" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="E14" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="F14" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="H14" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="I14" s="17" t="s">
-        <v>121</v>
-      </c>
-      <c r="J14" s="22" t="s">
-        <v>111</v>
-      </c>
-      <c r="K14" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="L14" s="0"/>
-      <c r="M14" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="N14" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="O14" s="0"/>
-      <c r="P14" s="0"/>
-      <c r="Q14" s="0"/>
-      <c r="R14" s="0"/>
-      <c r="S14" s="0"/>
-      <c r="T14" s="0"/>
-      <c r="U14" s="0"/>
-      <c r="V14" s="0"/>
-      <c r="W14" s="0"/>
-      <c r="X14" s="0"/>
-      <c r="Y14" s="0"/>
-      <c r="AA14" s="0"/>
-      <c r="AB14" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="AC14" s="19"/>
-      <c r="AD14" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE14" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="AF14" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="40" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="18" t="s">
-        <v>106</v>
-      </c>
-      <c r="B15" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="C15" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="D15" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="E15" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="F15" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="H15" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="I15" s="17" t="s">
-        <v>123</v>
-      </c>
-      <c r="J15" s="22" t="s">
-        <v>111</v>
-      </c>
-      <c r="K15" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="L15" s="0"/>
-      <c r="M15" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="N15" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="O15" s="0"/>
-      <c r="P15" s="0"/>
-      <c r="Q15" s="0"/>
-      <c r="R15" s="0"/>
-      <c r="S15" s="0"/>
-      <c r="T15" s="0"/>
-      <c r="U15" s="0"/>
-      <c r="V15" s="0"/>
-      <c r="W15" s="0"/>
-      <c r="X15" s="0"/>
-      <c r="Y15" s="0"/>
-      <c r="AA15" s="0"/>
-      <c r="AB15" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="AC15" s="19"/>
-      <c r="AD15" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE15" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="AF15" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="40" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="18" t="s">
-        <v>106</v>
-      </c>
-      <c r="B16" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="C16" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="D16" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="E16" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="F16" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="H16" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="I16" s="17" t="s">
-        <v>125</v>
-      </c>
-      <c r="J16" s="22" t="s">
-        <v>111</v>
-      </c>
-      <c r="K16" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="L16" s="0"/>
-      <c r="M16" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="N16" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="O16" s="0"/>
-      <c r="P16" s="0"/>
-      <c r="Q16" s="0"/>
-      <c r="R16" s="0"/>
-      <c r="S16" s="0"/>
-      <c r="T16" s="0"/>
-      <c r="U16" s="0"/>
-      <c r="V16" s="0"/>
-      <c r="W16" s="0"/>
-      <c r="X16" s="0"/>
-      <c r="Y16" s="0"/>
-      <c r="AA16" s="0"/>
-      <c r="AB16" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="AC16" s="19"/>
-      <c r="AD16" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE16" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="AF16" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="40" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="18" t="s">
-        <v>106</v>
-      </c>
-      <c r="B17" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="C17" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="D17" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="E17" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="F17" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="H17" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="I17" s="17" t="s">
-        <v>127</v>
-      </c>
-      <c r="J17" s="22" t="s">
-        <v>111</v>
-      </c>
-      <c r="K17" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="L17" s="0"/>
-      <c r="M17" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="N17" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="O17" s="0"/>
-      <c r="P17" s="0"/>
-      <c r="Q17" s="0"/>
-      <c r="R17" s="0"/>
-      <c r="S17" s="0"/>
-      <c r="T17" s="0"/>
-      <c r="U17" s="0"/>
-      <c r="V17" s="0"/>
-      <c r="W17" s="0"/>
-      <c r="X17" s="0"/>
-      <c r="Y17" s="0"/>
-      <c r="AA17" s="0"/>
-      <c r="AB17" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="AC17" s="19"/>
-      <c r="AD17" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE17" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="AF17" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="40" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="18" t="s">
-        <v>106</v>
-      </c>
-      <c r="B18" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="C18" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="D18" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="E18" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="F18" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="H18" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="I18" s="17" t="s">
-        <v>129</v>
-      </c>
-      <c r="J18" s="22" t="s">
-        <v>111</v>
-      </c>
-      <c r="K18" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="L18" s="0"/>
-      <c r="M18" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="N18" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="O18" s="0"/>
-      <c r="P18" s="0"/>
-      <c r="Q18" s="0"/>
-      <c r="R18" s="0"/>
-      <c r="S18" s="0"/>
-      <c r="T18" s="0"/>
-      <c r="U18" s="0"/>
-      <c r="V18" s="0"/>
-      <c r="W18" s="0"/>
-      <c r="X18" s="0"/>
-      <c r="Y18" s="0"/>
-      <c r="AA18" s="0"/>
-      <c r="AB18" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="AC18" s="19"/>
-      <c r="AD18" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE18" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="AF18" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="40" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="18" t="s">
-        <v>106</v>
-      </c>
-      <c r="B19" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="C19" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="D19" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="E19" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="F19" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="H19" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="I19" s="17" t="s">
-        <v>131</v>
-      </c>
-      <c r="J19" s="22" t="s">
-        <v>111</v>
-      </c>
-      <c r="K19" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="L19" s="0"/>
-      <c r="M19" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="N19" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="O19" s="0"/>
-      <c r="P19" s="0"/>
-      <c r="Q19" s="0"/>
-      <c r="R19" s="0"/>
-      <c r="S19" s="0"/>
-      <c r="T19" s="0"/>
-      <c r="U19" s="0"/>
-      <c r="V19" s="0"/>
-      <c r="W19" s="0"/>
-      <c r="X19" s="0"/>
-      <c r="Y19" s="0"/>
-      <c r="AA19" s="0"/>
-      <c r="AB19" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="AC19" s="19"/>
-      <c r="AD19" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE19" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="AF19" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="40" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="18" t="s">
-        <v>106</v>
-      </c>
-      <c r="B20" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="C20" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="D20" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="E20" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="F20" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="H20" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="I20" s="17" t="s">
-        <v>133</v>
-      </c>
-      <c r="J20" s="22" t="s">
-        <v>111</v>
-      </c>
-      <c r="K20" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="L20" s="13"/>
-      <c r="M20" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="N20" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="O20" s="13"/>
-      <c r="P20" s="13"/>
-      <c r="Q20" s="13"/>
-      <c r="R20" s="13"/>
-      <c r="S20" s="13"/>
-      <c r="T20" s="13"/>
-      <c r="U20" s="13"/>
-      <c r="V20" s="13"/>
-      <c r="W20" s="13"/>
-      <c r="X20" s="13"/>
-      <c r="Y20" s="13"/>
-      <c r="AA20" s="13"/>
-      <c r="AB20" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="AC20" s="14"/>
-      <c r="AD20" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE20" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="AF20" s="1" t="s">
-        <v>39</v>
-      </c>
     </row>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
@@ -9536,28 +9503,28 @@
   <dimension ref="A1:AK65536"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="18.2834008097166"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="17.5668016194332"/>
-    <col collapsed="false" hidden="false" max="6" min="3" style="2" width="18.2834008097166"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="18.2834008097166"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="18.2834008097166"/>
-    <col collapsed="false" hidden="false" max="10" min="9" style="1" width="18.2834008097166"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="2" width="18.2834008097166"/>
-    <col collapsed="false" hidden="false" max="25" min="12" style="1" width="18.2834008097166"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="2" width="18.2834008097166"/>
-    <col collapsed="false" hidden="false" max="28" min="27" style="1" width="18.2834008097166"/>
-    <col collapsed="false" hidden="false" max="30" min="29" style="2" width="18.2834008097166"/>
-    <col collapsed="false" hidden="false" max="32" min="31" style="1" width="18.2834008097166"/>
-    <col collapsed="false" hidden="false" max="37" min="33" style="20" width="18.2834008097166"/>
-    <col collapsed="false" hidden="false" max="1025" min="38" style="1" width="18.2834008097166"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="21.5668016194332"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="18.2834008097166"/>
+    <col collapsed="false" hidden="false" max="6" min="3" style="2" width="21.5668016194332"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="21.5668016194332"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="21.5668016194332"/>
+    <col collapsed="false" hidden="false" max="10" min="9" style="1" width="21.5668016194332"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="2" width="21.5668016194332"/>
+    <col collapsed="false" hidden="false" max="25" min="12" style="1" width="21.5668016194332"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="2" width="21.5668016194332"/>
+    <col collapsed="false" hidden="false" max="28" min="27" style="1" width="21.5668016194332"/>
+    <col collapsed="false" hidden="false" max="30" min="29" style="2" width="21.5668016194332"/>
+    <col collapsed="false" hidden="false" max="32" min="31" style="1" width="21.5668016194332"/>
+    <col collapsed="false" hidden="false" max="37" min="33" style="20" width="21.5668016194332"/>
+    <col collapsed="false" hidden="false" max="1025" min="38" style="1" width="21.5668016194332"/>
   </cols>
   <sheetData>
-    <row r="1" s="5" customFormat="true" ht="64" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" s="5" customFormat="true" ht="80" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -9661,7 +9628,7 @@
       <c r="AK1" s="21"/>
     </row>
     <row r="2" s="4" customFormat="true" ht="39" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="18" t="s">
         <v>135</v>
       </c>
       <c r="B2" s="11" t="s">
@@ -9711,7 +9678,7 @@
       </c>
     </row>
     <row r="3" s="4" customFormat="true" ht="39" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="23" t="s">
+      <c r="A3" s="18" t="s">
         <v>135</v>
       </c>
       <c r="B3" s="11" t="s">
@@ -9760,8 +9727,8 @@
         <v>39</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="38" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="23" t="s">
+    <row r="4" customFormat="false" ht="40" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="18" t="s">
         <v>135</v>
       </c>
       <c r="B4" s="18" t="s">
@@ -9778,7 +9745,7 @@
         <v>2</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="H4" s="0"/>
       <c r="I4" s="1" t="s">
@@ -9806,8 +9773,8 @@
         <v>0.333</v>
       </c>
       <c r="AA4" s="0"/>
-      <c r="AB4" s="1" t="s">
-        <v>136</v>
+      <c r="AB4" s="13" t="s">
+        <v>46</v>
       </c>
       <c r="AC4" s="19"/>
       <c r="AD4" s="19"/>
@@ -9818,8 +9785,8 @@
         <v>39</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="38" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="23" t="s">
+    <row r="5" customFormat="false" ht="40" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="18" t="s">
         <v>135</v>
       </c>
       <c r="B5" s="18" t="s">
@@ -9888,8 +9855,8 @@
         <v>39</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="38" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="23" t="s">
+    <row r="6" customFormat="false" ht="40" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="18" t="s">
         <v>135</v>
       </c>
       <c r="B6" s="18" t="s">
@@ -9958,8 +9925,8 @@
         <v>39</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="38" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="23" t="s">
+    <row r="7" customFormat="false" ht="40" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="18" t="s">
         <v>135</v>
       </c>
       <c r="B7" s="18" t="s">
@@ -10028,8 +9995,8 @@
         <v>39</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="38" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="23" t="s">
+    <row r="8" customFormat="false" ht="40" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="18" t="s">
         <v>135</v>
       </c>
       <c r="B8" s="18" t="s">
@@ -10046,11 +10013,11 @@
         <v>2</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="H8" s="0"/>
       <c r="I8" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="J8" s="13" t="s">
         <v>45</v>
@@ -10074,8 +10041,8 @@
         <v>0.667</v>
       </c>
       <c r="AA8" s="0"/>
-      <c r="AB8" s="1" t="s">
-        <v>136</v>
+      <c r="AB8" s="13" t="s">
+        <v>46</v>
       </c>
       <c r="AC8" s="19"/>
       <c r="AD8" s="19"/>
@@ -10086,8 +10053,8 @@
         <v>39</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="38" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="23" t="s">
+    <row r="9" customFormat="false" ht="40" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="18" t="s">
         <v>135</v>
       </c>
       <c r="B9" s="18" t="s">
@@ -10109,17 +10076,17 @@
         <v>5</v>
       </c>
       <c r="I9" s="17" t="s">
-        <v>110</v>
-      </c>
-      <c r="J9" s="22" t="s">
-        <v>111</v>
+        <v>108</v>
+      </c>
+      <c r="J9" s="23" t="s">
+        <v>109</v>
       </c>
       <c r="K9" s="2" t="n">
         <v>1</v>
       </c>
       <c r="L9" s="0"/>
       <c r="M9" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="N9" s="1" t="s">
         <v>49</v>
@@ -10150,8 +10117,8 @@
         <v>39</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="38" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="23" t="s">
+    <row r="10" customFormat="false" ht="40" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="18" t="s">
         <v>135</v>
       </c>
       <c r="B10" s="18" t="s">
@@ -10173,17 +10140,17 @@
         <v>5</v>
       </c>
       <c r="I10" s="17" t="s">
-        <v>113</v>
-      </c>
-      <c r="J10" s="22" t="s">
         <v>111</v>
+      </c>
+      <c r="J10" s="23" t="s">
+        <v>109</v>
       </c>
       <c r="K10" s="2" t="n">
         <v>1</v>
       </c>
       <c r="L10" s="0"/>
       <c r="M10" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="N10" s="1" t="s">
         <v>49</v>
@@ -10214,8 +10181,8 @@
         <v>39</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="38" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="23" t="s">
+    <row r="11" customFormat="false" ht="40" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="18" t="s">
         <v>135</v>
       </c>
       <c r="B11" s="18" t="s">
@@ -10237,17 +10204,17 @@
         <v>5</v>
       </c>
       <c r="I11" s="17" t="s">
-        <v>115</v>
-      </c>
-      <c r="J11" s="22" t="s">
-        <v>111</v>
+        <v>113</v>
+      </c>
+      <c r="J11" s="23" t="s">
+        <v>109</v>
       </c>
       <c r="K11" s="2" t="n">
         <v>1</v>
       </c>
       <c r="L11" s="0"/>
       <c r="M11" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="N11" s="1" t="s">
         <v>49</v>
@@ -10278,8 +10245,8 @@
         <v>39</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="38" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="23" t="s">
+    <row r="12" customFormat="false" ht="40" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="18" t="s">
         <v>135</v>
       </c>
       <c r="B12" s="18" t="s">
@@ -10301,17 +10268,17 @@
         <v>5</v>
       </c>
       <c r="I12" s="17" t="s">
-        <v>117</v>
-      </c>
-      <c r="J12" s="22" t="s">
-        <v>111</v>
+        <v>115</v>
+      </c>
+      <c r="J12" s="23" t="s">
+        <v>109</v>
       </c>
       <c r="K12" s="2" t="n">
         <v>1</v>
       </c>
       <c r="L12" s="0"/>
       <c r="M12" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="N12" s="1" t="s">
         <v>49</v>
@@ -10342,8 +10309,8 @@
         <v>39</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="38" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="23" t="s">
+    <row r="13" customFormat="false" ht="40" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A13" s="18" t="s">
         <v>135</v>
       </c>
       <c r="B13" s="18" t="s">
@@ -10365,17 +10332,17 @@
         <v>5</v>
       </c>
       <c r="I13" s="17" t="s">
-        <v>119</v>
-      </c>
-      <c r="J13" s="22" t="s">
-        <v>111</v>
+        <v>117</v>
+      </c>
+      <c r="J13" s="23" t="s">
+        <v>109</v>
       </c>
       <c r="K13" s="2" t="n">
         <v>1</v>
       </c>
       <c r="L13" s="0"/>
       <c r="M13" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="N13" s="1" t="s">
         <v>49</v>
@@ -10406,8 +10373,8 @@
         <v>39</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="38" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="23" t="s">
+    <row r="14" customFormat="false" ht="40" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A14" s="18" t="s">
         <v>135</v>
       </c>
       <c r="B14" s="18" t="s">
@@ -10429,17 +10396,17 @@
         <v>5</v>
       </c>
       <c r="I14" s="17" t="s">
-        <v>121</v>
-      </c>
-      <c r="J14" s="22" t="s">
-        <v>111</v>
+        <v>119</v>
+      </c>
+      <c r="J14" s="23" t="s">
+        <v>109</v>
       </c>
       <c r="K14" s="2" t="n">
         <v>1</v>
       </c>
       <c r="L14" s="0"/>
       <c r="M14" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="N14" s="1" t="s">
         <v>49</v>
@@ -10470,8 +10437,8 @@
         <v>39</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="38" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="23" t="s">
+    <row r="15" customFormat="false" ht="40" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A15" s="18" t="s">
         <v>135</v>
       </c>
       <c r="B15" s="18" t="s">
@@ -10493,17 +10460,17 @@
         <v>5</v>
       </c>
       <c r="I15" s="17" t="s">
-        <v>123</v>
-      </c>
-      <c r="J15" s="22" t="s">
-        <v>111</v>
+        <v>121</v>
+      </c>
+      <c r="J15" s="23" t="s">
+        <v>109</v>
       </c>
       <c r="K15" s="2" t="n">
         <v>1</v>
       </c>
       <c r="L15" s="0"/>
       <c r="M15" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="N15" s="1" t="s">
         <v>49</v>
@@ -10534,8 +10501,8 @@
         <v>39</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="38" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="23" t="s">
+    <row r="16" customFormat="false" ht="40" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A16" s="18" t="s">
         <v>135</v>
       </c>
       <c r="B16" s="18" t="s">
@@ -10557,17 +10524,17 @@
         <v>5</v>
       </c>
       <c r="I16" s="17" t="s">
-        <v>125</v>
-      </c>
-      <c r="J16" s="22" t="s">
-        <v>111</v>
+        <v>123</v>
+      </c>
+      <c r="J16" s="23" t="s">
+        <v>109</v>
       </c>
       <c r="K16" s="2" t="n">
         <v>1</v>
       </c>
       <c r="L16" s="0"/>
       <c r="M16" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="N16" s="1" t="s">
         <v>49</v>
@@ -10598,8 +10565,8 @@
         <v>39</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="38" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="23" t="s">
+    <row r="17" customFormat="false" ht="40" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A17" s="18" t="s">
         <v>135</v>
       </c>
       <c r="B17" s="18" t="s">
@@ -10621,17 +10588,17 @@
         <v>5</v>
       </c>
       <c r="I17" s="17" t="s">
-        <v>127</v>
-      </c>
-      <c r="J17" s="22" t="s">
-        <v>111</v>
+        <v>125</v>
+      </c>
+      <c r="J17" s="23" t="s">
+        <v>109</v>
       </c>
       <c r="K17" s="2" t="n">
         <v>1</v>
       </c>
       <c r="L17" s="0"/>
       <c r="M17" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="N17" s="1" t="s">
         <v>49</v>
@@ -10662,8 +10629,8 @@
         <v>39</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="38" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="23" t="s">
+    <row r="18" customFormat="false" ht="40" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A18" s="18" t="s">
         <v>135</v>
       </c>
       <c r="B18" s="18" t="s">
@@ -10685,17 +10652,17 @@
         <v>5</v>
       </c>
       <c r="I18" s="17" t="s">
-        <v>129</v>
-      </c>
-      <c r="J18" s="22" t="s">
-        <v>111</v>
+        <v>127</v>
+      </c>
+      <c r="J18" s="23" t="s">
+        <v>109</v>
       </c>
       <c r="K18" s="2" t="n">
         <v>1</v>
       </c>
       <c r="L18" s="0"/>
       <c r="M18" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="N18" s="1" t="s">
         <v>49</v>
@@ -10726,8 +10693,8 @@
         <v>39</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="38" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="23" t="s">
+    <row r="19" customFormat="false" ht="40" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A19" s="18" t="s">
         <v>135</v>
       </c>
       <c r="B19" s="18" t="s">
@@ -10749,17 +10716,17 @@
         <v>5</v>
       </c>
       <c r="I19" s="17" t="s">
-        <v>131</v>
-      </c>
-      <c r="J19" s="22" t="s">
-        <v>111</v>
+        <v>129</v>
+      </c>
+      <c r="J19" s="23" t="s">
+        <v>109</v>
       </c>
       <c r="K19" s="2" t="n">
         <v>1</v>
       </c>
       <c r="L19" s="0"/>
       <c r="M19" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="N19" s="1" t="s">
         <v>49</v>
@@ -10790,8 +10757,8 @@
         <v>39</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="38" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="23" t="s">
+    <row r="20" customFormat="false" ht="40" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A20" s="18" t="s">
         <v>135</v>
       </c>
       <c r="B20" s="18" t="s">
@@ -10813,17 +10780,17 @@
         <v>5</v>
       </c>
       <c r="I20" s="17" t="s">
-        <v>133</v>
-      </c>
-      <c r="J20" s="22" t="s">
-        <v>111</v>
+        <v>131</v>
+      </c>
+      <c r="J20" s="23" t="s">
+        <v>109</v>
       </c>
       <c r="K20" s="14" t="n">
         <v>1</v>
       </c>
       <c r="L20" s="13"/>
       <c r="M20" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="N20" s="1" t="s">
         <v>49</v>
@@ -10879,21 +10846,21 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="18.7085020242915"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="17.5668016194332"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="9.99595141700405"/>
-    <col collapsed="false" hidden="false" max="6" min="4" style="2" width="11.4251012145749"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="1" width="18.7085020242915"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="25.995951417004"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="18.7085020242915"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="2" width="18.7085020242915"/>
-    <col collapsed="false" hidden="false" max="13" min="12" style="1" width="18.7085020242915"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="2" width="18.7085020242915"/>
-    <col collapsed="false" hidden="false" max="25" min="15" style="1" width="18.7085020242915"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="2" width="18.7085020242915"/>
-    <col collapsed="false" hidden="false" max="28" min="27" style="1" width="18.7085020242915"/>
-    <col collapsed="false" hidden="false" max="30" min="29" style="2" width="18.7085020242915"/>
-    <col collapsed="false" hidden="false" max="1025" min="31" style="1" width="18.7085020242915"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="19.5668016194332"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="18.2834008097166"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="10.4251012145749"/>
+    <col collapsed="false" hidden="false" max="6" min="4" style="2" width="11.8542510121458"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="1" width="19.5668016194332"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="27.1376518218623"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="19.5668016194332"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="2" width="19.5668016194332"/>
+    <col collapsed="false" hidden="false" max="13" min="12" style="1" width="19.5668016194332"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="2" width="19.5668016194332"/>
+    <col collapsed="false" hidden="false" max="25" min="15" style="1" width="19.5668016194332"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="2" width="19.5668016194332"/>
+    <col collapsed="false" hidden="false" max="28" min="27" style="1" width="19.5668016194332"/>
+    <col collapsed="false" hidden="false" max="30" min="29" style="2" width="19.5668016194332"/>
+    <col collapsed="false" hidden="false" max="1025" min="31" style="1" width="19.5668016194332"/>
   </cols>
   <sheetData>
     <row r="1" s="5" customFormat="true" ht="44" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11000,8 +10967,8 @@
       <c r="AK1" s="24"/>
     </row>
     <row r="2" s="4" customFormat="true" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="23" t="s">
-        <v>137</v>
+      <c r="A2" s="22" t="s">
+        <v>136</v>
       </c>
       <c r="B2" s="11" t="s">
         <v>33</v>
@@ -11050,8 +11017,8 @@
       </c>
     </row>
     <row r="3" s="4" customFormat="true" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="23" t="s">
-        <v>137</v>
+      <c r="A3" s="22" t="s">
+        <v>136</v>
       </c>
       <c r="B3" s="11" t="s">
         <v>33</v>
@@ -11100,8 +11067,8 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="23" t="s">
-        <v>137</v>
+      <c r="A4" s="22" t="s">
+        <v>136</v>
       </c>
       <c r="B4" s="18" t="s">
         <v>42</v>
@@ -11117,7 +11084,7 @@
         <v>2</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="H4" s="0"/>
       <c r="I4" s="1" t="s">
@@ -11148,8 +11115,8 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="23" t="s">
-        <v>137</v>
+      <c r="A5" s="22" t="s">
+        <v>136</v>
       </c>
       <c r="B5" s="18" t="s">
         <v>42</v>
@@ -11208,8 +11175,8 @@
       </c>
     </row>
     <row r="6" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="23" t="s">
-        <v>137</v>
+      <c r="A6" s="22" t="s">
+        <v>136</v>
       </c>
       <c r="B6" s="18" t="s">
         <v>42</v>
@@ -11268,8 +11235,8 @@
       </c>
     </row>
     <row r="7" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="23" t="s">
-        <v>137</v>
+      <c r="A7" s="22" t="s">
+        <v>136</v>
       </c>
       <c r="B7" s="18" t="s">
         <v>42</v>
@@ -11327,8 +11294,8 @@
       </c>
     </row>
     <row r="8" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="23" t="s">
-        <v>137</v>
+      <c r="A8" s="22" t="s">
+        <v>136</v>
       </c>
       <c r="B8" s="18" t="s">
         <v>42</v>
@@ -11344,11 +11311,11 @@
         <v>2</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="H8" s="0"/>
       <c r="I8" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="J8" s="13" t="s">
         <v>45</v>
@@ -11374,8 +11341,8 @@
       </c>
     </row>
     <row r="9" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="23" t="s">
-        <v>137</v>
+      <c r="A9" s="22" t="s">
+        <v>136</v>
       </c>
       <c r="B9" s="18" t="s">
         <v>42</v>
@@ -11397,17 +11364,17 @@
         <v>5</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="K9" s="2" t="n">
         <v>1</v>
       </c>
       <c r="L9" s="0"/>
       <c r="M9" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="N9" s="2" t="s">
         <v>49</v>
@@ -11429,8 +11396,8 @@
       </c>
     </row>
     <row r="10" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="23" t="s">
-        <v>137</v>
+      <c r="A10" s="22" t="s">
+        <v>136</v>
       </c>
       <c r="B10" s="18" t="s">
         <v>42</v>
@@ -11452,17 +11419,17 @@
         <v>5</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="K10" s="2" t="n">
         <v>1</v>
       </c>
       <c r="L10" s="0"/>
       <c r="M10" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="N10" s="2" t="s">
         <v>49</v>
@@ -11484,8 +11451,8 @@
       </c>
     </row>
     <row r="11" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="23" t="s">
-        <v>137</v>
+      <c r="A11" s="22" t="s">
+        <v>136</v>
       </c>
       <c r="B11" s="18" t="s">
         <v>42</v>
@@ -11507,17 +11474,17 @@
         <v>5</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="K11" s="2" t="n">
         <v>1</v>
       </c>
       <c r="L11" s="0"/>
       <c r="M11" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="N11" s="2" t="s">
         <v>49</v>
@@ -11539,8 +11506,8 @@
       </c>
     </row>
     <row r="12" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="23" t="s">
-        <v>137</v>
+      <c r="A12" s="22" t="s">
+        <v>136</v>
       </c>
       <c r="B12" s="18" t="s">
         <v>42</v>
@@ -11562,17 +11529,17 @@
         <v>5</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="K12" s="2" t="n">
         <v>1</v>
       </c>
       <c r="L12" s="0"/>
       <c r="M12" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="N12" s="2" t="s">
         <v>49</v>
@@ -11594,8 +11561,8 @@
       </c>
     </row>
     <row r="13" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="23" t="s">
-        <v>137</v>
+      <c r="A13" s="22" t="s">
+        <v>136</v>
       </c>
       <c r="B13" s="18" t="s">
         <v>42</v>
@@ -11617,17 +11584,17 @@
         <v>5</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="K13" s="2" t="n">
         <v>1</v>
       </c>
       <c r="L13" s="0"/>
       <c r="M13" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="N13" s="2" t="s">
         <v>49</v>
@@ -11649,8 +11616,8 @@
       </c>
     </row>
     <row r="14" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="23" t="s">
-        <v>137</v>
+      <c r="A14" s="22" t="s">
+        <v>136</v>
       </c>
       <c r="B14" s="18" t="s">
         <v>42</v>
@@ -11672,17 +11639,17 @@
         <v>5</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="K14" s="2" t="n">
         <v>1</v>
       </c>
       <c r="L14" s="0"/>
       <c r="M14" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="N14" s="2" t="s">
         <v>49</v>
@@ -11704,8 +11671,8 @@
       </c>
     </row>
     <row r="15" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="23" t="s">
-        <v>137</v>
+      <c r="A15" s="22" t="s">
+        <v>136</v>
       </c>
       <c r="B15" s="18" t="s">
         <v>42</v>
@@ -11727,17 +11694,17 @@
         <v>5</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="K15" s="2" t="n">
         <v>1</v>
       </c>
       <c r="L15" s="0"/>
       <c r="M15" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="N15" s="2" t="s">
         <v>49</v>
@@ -11759,8 +11726,8 @@
       </c>
     </row>
     <row r="16" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="23" t="s">
-        <v>137</v>
+      <c r="A16" s="22" t="s">
+        <v>136</v>
       </c>
       <c r="B16" s="18" t="s">
         <v>42</v>
@@ -11782,17 +11749,17 @@
         <v>5</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="K16" s="2" t="n">
         <v>1</v>
       </c>
       <c r="L16" s="0"/>
       <c r="M16" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="N16" s="2" t="s">
         <v>49</v>
@@ -11814,8 +11781,8 @@
       </c>
     </row>
     <row r="17" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="23" t="s">
-        <v>137</v>
+      <c r="A17" s="22" t="s">
+        <v>136</v>
       </c>
       <c r="B17" s="18" t="s">
         <v>42</v>
@@ -11837,17 +11804,17 @@
         <v>5</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="K17" s="2" t="n">
         <v>1</v>
       </c>
       <c r="L17" s="0"/>
       <c r="M17" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="N17" s="2" t="s">
         <v>49</v>
@@ -11869,8 +11836,8 @@
       </c>
     </row>
     <row r="18" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="23" t="s">
-        <v>137</v>
+      <c r="A18" s="22" t="s">
+        <v>136</v>
       </c>
       <c r="B18" s="18" t="s">
         <v>42</v>
@@ -11892,17 +11859,17 @@
         <v>5</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="K18" s="2" t="n">
         <v>1</v>
       </c>
       <c r="L18" s="0"/>
       <c r="M18" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="N18" s="2" t="s">
         <v>49</v>
@@ -11924,8 +11891,8 @@
       </c>
     </row>
     <row r="19" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="23" t="s">
-        <v>137</v>
+      <c r="A19" s="22" t="s">
+        <v>136</v>
       </c>
       <c r="B19" s="18" t="s">
         <v>42</v>
@@ -11947,17 +11914,17 @@
         <v>5</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="K19" s="2" t="n">
         <v>1</v>
       </c>
       <c r="L19" s="0"/>
       <c r="M19" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="N19" s="2" t="s">
         <v>49</v>
@@ -11979,8 +11946,8 @@
       </c>
     </row>
     <row r="20" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="23" t="s">
-        <v>137</v>
+      <c r="A20" s="22" t="s">
+        <v>136</v>
       </c>
       <c r="B20" s="18" t="s">
         <v>42</v>
@@ -12002,17 +11969,17 @@
         <v>5</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="K20" s="2" t="n">
         <v>1</v>
       </c>
       <c r="L20" s="0"/>
       <c r="M20" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="N20" s="2" t="s">
         <v>49</v>
@@ -12034,8 +12001,8 @@
       </c>
     </row>
     <row r="21" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="23" t="s">
-        <v>137</v>
+      <c r="A21" s="22" t="s">
+        <v>136</v>
       </c>
       <c r="B21" s="18" t="s">
         <v>42</v>
@@ -12051,11 +12018,11 @@
         <v>2</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H21" s="0"/>
       <c r="I21" s="1" t="s">
-        <v>139</v>
+        <v>81</v>
       </c>
       <c r="J21" s="13" t="s">
         <v>45</v>
@@ -12081,8 +12048,8 @@
       </c>
     </row>
     <row r="22" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="23" t="s">
-        <v>137</v>
+      <c r="A22" s="22" t="s">
+        <v>136</v>
       </c>
       <c r="B22" s="18" t="s">
         <v>42</v>
@@ -12103,7 +12070,7 @@
         <v>18</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>140</v>
+        <v>82</v>
       </c>
       <c r="J22" s="1" t="s">
         <v>83</v>
@@ -12140,8 +12107,8 @@
       </c>
     </row>
     <row r="23" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="23" t="s">
-        <v>137</v>
+      <c r="A23" s="22" t="s">
+        <v>136</v>
       </c>
       <c r="B23" s="18" t="s">
         <v>42</v>
@@ -12199,8 +12166,8 @@
       </c>
     </row>
     <row r="24" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="23" t="s">
-        <v>137</v>
+      <c r="A24" s="22" t="s">
+        <v>136</v>
       </c>
       <c r="B24" s="18" t="s">
         <v>42</v>
@@ -12258,8 +12225,8 @@
       </c>
     </row>
     <row r="25" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="23" t="s">
-        <v>137</v>
+      <c r="A25" s="22" t="s">
+        <v>136</v>
       </c>
       <c r="B25" s="18" t="s">
         <v>42</v>
@@ -12317,8 +12284,8 @@
       </c>
     </row>
     <row r="26" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="23" t="s">
-        <v>137</v>
+      <c r="A26" s="22" t="s">
+        <v>136</v>
       </c>
       <c r="B26" s="18" t="s">
         <v>42</v>
@@ -12399,22 +12366,22 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="23.7085020242915"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="17.5668016194332"/>
-    <col collapsed="false" hidden="false" max="6" min="3" style="2" width="23.7085020242915"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="23.7085020242915"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="23.7085020242915"/>
-    <col collapsed="false" hidden="false" max="10" min="9" style="1" width="23.7085020242915"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="2" width="23.7085020242915"/>
-    <col collapsed="false" hidden="false" max="13" min="12" style="1" width="23.7085020242915"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="2" width="23.7085020242915"/>
-    <col collapsed="false" hidden="false" max="25" min="15" style="1" width="23.7085020242915"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="2" width="23.7085020242915"/>
-    <col collapsed="false" hidden="false" max="28" min="27" style="1" width="23.7085020242915"/>
-    <col collapsed="false" hidden="false" max="30" min="29" style="2" width="23.7085020242915"/>
-    <col collapsed="false" hidden="false" max="32" min="31" style="1" width="23.7085020242915"/>
-    <col collapsed="false" hidden="false" max="37" min="33" style="20" width="23.7085020242915"/>
-    <col collapsed="false" hidden="false" max="1025" min="38" style="1" width="23.7085020242915"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="24.7085020242915"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="18.2834008097166"/>
+    <col collapsed="false" hidden="false" max="6" min="3" style="2" width="24.7085020242915"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="24.7085020242915"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="24.7085020242915"/>
+    <col collapsed="false" hidden="false" max="10" min="9" style="1" width="24.7085020242915"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="2" width="24.7085020242915"/>
+    <col collapsed="false" hidden="false" max="13" min="12" style="1" width="24.7085020242915"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="2" width="24.7085020242915"/>
+    <col collapsed="false" hidden="false" max="25" min="15" style="1" width="24.7085020242915"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="2" width="24.7085020242915"/>
+    <col collapsed="false" hidden="false" max="28" min="27" style="1" width="24.7085020242915"/>
+    <col collapsed="false" hidden="false" max="30" min="29" style="2" width="24.7085020242915"/>
+    <col collapsed="false" hidden="false" max="32" min="31" style="1" width="24.7085020242915"/>
+    <col collapsed="false" hidden="false" max="37" min="33" style="20" width="24.7085020242915"/>
+    <col collapsed="false" hidden="false" max="1025" min="38" style="1" width="24.7085020242915"/>
   </cols>
   <sheetData>
     <row r="1" s="5" customFormat="true" ht="72" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12521,8 +12488,8 @@
       <c r="AK1" s="21"/>
     </row>
     <row r="2" s="4" customFormat="true" ht="38" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="23" t="s">
-        <v>141</v>
+      <c r="A2" s="22" t="s">
+        <v>138</v>
       </c>
       <c r="B2" s="11" t="s">
         <v>33</v>
@@ -12571,8 +12538,8 @@
       </c>
     </row>
     <row r="3" s="4" customFormat="true" ht="38" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="23" t="s">
-        <v>141</v>
+      <c r="A3" s="22" t="s">
+        <v>138</v>
       </c>
       <c r="B3" s="11" t="s">
         <v>33</v>
@@ -12621,8 +12588,8 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="39" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="23" t="s">
-        <v>141</v>
+      <c r="A4" s="22" t="s">
+        <v>138</v>
       </c>
       <c r="B4" s="18" t="s">
         <v>42</v>
@@ -12638,7 +12605,7 @@
         <v>2</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="H4" s="0"/>
       <c r="I4" s="1" t="s">
@@ -12681,8 +12648,8 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="39" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="23" t="s">
-        <v>141</v>
+      <c r="A5" s="22" t="s">
+        <v>138</v>
       </c>
       <c r="B5" s="18" t="s">
         <v>42</v>
@@ -12751,8 +12718,8 @@
       </c>
     </row>
     <row r="6" customFormat="false" ht="39" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="23" t="s">
-        <v>141</v>
+      <c r="A6" s="22" t="s">
+        <v>138</v>
       </c>
       <c r="B6" s="18" t="s">
         <v>42</v>
@@ -12821,8 +12788,8 @@
       </c>
     </row>
     <row r="7" customFormat="false" ht="39" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="23" t="s">
-        <v>141</v>
+      <c r="A7" s="22" t="s">
+        <v>138</v>
       </c>
       <c r="B7" s="18" t="s">
         <v>42</v>
@@ -12891,8 +12858,8 @@
       </c>
     </row>
     <row r="8" customFormat="false" ht="39" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="23" t="s">
-        <v>141</v>
+      <c r="A8" s="22" t="s">
+        <v>138</v>
       </c>
       <c r="B8" s="18" t="s">
         <v>42</v>
@@ -12908,11 +12875,11 @@
         <v>2</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="H8" s="0"/>
       <c r="I8" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="J8" s="13" t="s">
         <v>45</v>
@@ -12949,8 +12916,8 @@
       </c>
     </row>
     <row r="9" customFormat="false" ht="39" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="23" t="s">
-        <v>141</v>
+      <c r="A9" s="22" t="s">
+        <v>138</v>
       </c>
       <c r="B9" s="18" t="s">
         <v>42</v>
@@ -12971,17 +12938,17 @@
         <v>5</v>
       </c>
       <c r="I9" s="17" t="s">
-        <v>110</v>
-      </c>
-      <c r="J9" s="22" t="s">
-        <v>111</v>
+        <v>108</v>
+      </c>
+      <c r="J9" s="23" t="s">
+        <v>109</v>
       </c>
       <c r="K9" s="2" t="n">
         <v>1</v>
       </c>
       <c r="L9" s="0"/>
       <c r="M9" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="N9" s="2" t="s">
         <v>49</v>
@@ -13013,8 +12980,8 @@
       </c>
     </row>
     <row r="10" customFormat="false" ht="39" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="23" t="s">
-        <v>141</v>
+      <c r="A10" s="22" t="s">
+        <v>138</v>
       </c>
       <c r="B10" s="18" t="s">
         <v>42</v>
@@ -13035,17 +13002,17 @@
         <v>5</v>
       </c>
       <c r="I10" s="17" t="s">
-        <v>113</v>
-      </c>
-      <c r="J10" s="22" t="s">
         <v>111</v>
+      </c>
+      <c r="J10" s="23" t="s">
+        <v>109</v>
       </c>
       <c r="K10" s="2" t="n">
         <v>1</v>
       </c>
       <c r="L10" s="0"/>
       <c r="M10" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="N10" s="2" t="s">
         <v>49</v>
@@ -13077,8 +13044,8 @@
       </c>
     </row>
     <row r="11" customFormat="false" ht="39" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="23" t="s">
-        <v>141</v>
+      <c r="A11" s="22" t="s">
+        <v>138</v>
       </c>
       <c r="B11" s="18" t="s">
         <v>42</v>
@@ -13099,17 +13066,17 @@
         <v>5</v>
       </c>
       <c r="I11" s="17" t="s">
-        <v>115</v>
-      </c>
-      <c r="J11" s="22" t="s">
-        <v>111</v>
+        <v>113</v>
+      </c>
+      <c r="J11" s="23" t="s">
+        <v>109</v>
       </c>
       <c r="K11" s="2" t="n">
         <v>1</v>
       </c>
       <c r="L11" s="0"/>
       <c r="M11" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="N11" s="2" t="s">
         <v>49</v>
@@ -13141,8 +13108,8 @@
       </c>
     </row>
     <row r="12" customFormat="false" ht="39" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="23" t="s">
-        <v>141</v>
+      <c r="A12" s="22" t="s">
+        <v>138</v>
       </c>
       <c r="B12" s="18" t="s">
         <v>42</v>
@@ -13163,17 +13130,17 @@
         <v>5</v>
       </c>
       <c r="I12" s="17" t="s">
-        <v>117</v>
-      </c>
-      <c r="J12" s="22" t="s">
-        <v>111</v>
+        <v>115</v>
+      </c>
+      <c r="J12" s="23" t="s">
+        <v>109</v>
       </c>
       <c r="K12" s="2" t="n">
         <v>1</v>
       </c>
       <c r="L12" s="0"/>
       <c r="M12" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="N12" s="2" t="s">
         <v>49</v>
@@ -13205,8 +13172,8 @@
       </c>
     </row>
     <row r="13" customFormat="false" ht="39" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="23" t="s">
-        <v>141</v>
+      <c r="A13" s="22" t="s">
+        <v>138</v>
       </c>
       <c r="B13" s="18" t="s">
         <v>42</v>
@@ -13227,17 +13194,17 @@
         <v>5</v>
       </c>
       <c r="I13" s="17" t="s">
-        <v>119</v>
-      </c>
-      <c r="J13" s="22" t="s">
-        <v>111</v>
+        <v>117</v>
+      </c>
+      <c r="J13" s="23" t="s">
+        <v>109</v>
       </c>
       <c r="K13" s="2" t="n">
         <v>1</v>
       </c>
       <c r="L13" s="0"/>
       <c r="M13" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="N13" s="2" t="s">
         <v>49</v>
@@ -13269,8 +13236,8 @@
       </c>
     </row>
     <row r="14" customFormat="false" ht="39" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="23" t="s">
-        <v>141</v>
+      <c r="A14" s="22" t="s">
+        <v>138</v>
       </c>
       <c r="B14" s="18" t="s">
         <v>42</v>
@@ -13291,17 +13258,17 @@
         <v>5</v>
       </c>
       <c r="I14" s="17" t="s">
-        <v>121</v>
-      </c>
-      <c r="J14" s="22" t="s">
-        <v>111</v>
+        <v>119</v>
+      </c>
+      <c r="J14" s="23" t="s">
+        <v>109</v>
       </c>
       <c r="K14" s="2" t="n">
         <v>1</v>
       </c>
       <c r="L14" s="0"/>
       <c r="M14" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="N14" s="2" t="s">
         <v>49</v>
@@ -13333,8 +13300,8 @@
       </c>
     </row>
     <row r="15" customFormat="false" ht="39" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="23" t="s">
-        <v>141</v>
+      <c r="A15" s="22" t="s">
+        <v>138</v>
       </c>
       <c r="B15" s="18" t="s">
         <v>42</v>
@@ -13355,17 +13322,17 @@
         <v>5</v>
       </c>
       <c r="I15" s="17" t="s">
-        <v>123</v>
-      </c>
-      <c r="J15" s="22" t="s">
-        <v>111</v>
+        <v>121</v>
+      </c>
+      <c r="J15" s="23" t="s">
+        <v>109</v>
       </c>
       <c r="K15" s="2" t="n">
         <v>1</v>
       </c>
       <c r="L15" s="0"/>
       <c r="M15" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="N15" s="2" t="s">
         <v>49</v>
@@ -13397,8 +13364,8 @@
       </c>
     </row>
     <row r="16" customFormat="false" ht="39" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="23" t="s">
-        <v>141</v>
+      <c r="A16" s="22" t="s">
+        <v>138</v>
       </c>
       <c r="B16" s="18" t="s">
         <v>42</v>
@@ -13419,17 +13386,17 @@
         <v>5</v>
       </c>
       <c r="I16" s="17" t="s">
-        <v>125</v>
-      </c>
-      <c r="J16" s="22" t="s">
-        <v>111</v>
+        <v>123</v>
+      </c>
+      <c r="J16" s="23" t="s">
+        <v>109</v>
       </c>
       <c r="K16" s="2" t="n">
         <v>1</v>
       </c>
       <c r="L16" s="0"/>
       <c r="M16" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="N16" s="2" t="s">
         <v>49</v>
@@ -13461,8 +13428,8 @@
       </c>
     </row>
     <row r="17" customFormat="false" ht="39" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="23" t="s">
-        <v>141</v>
+      <c r="A17" s="22" t="s">
+        <v>138</v>
       </c>
       <c r="B17" s="18" t="s">
         <v>42</v>
@@ -13483,17 +13450,17 @@
         <v>5</v>
       </c>
       <c r="I17" s="17" t="s">
-        <v>127</v>
-      </c>
-      <c r="J17" s="22" t="s">
-        <v>111</v>
+        <v>125</v>
+      </c>
+      <c r="J17" s="23" t="s">
+        <v>109</v>
       </c>
       <c r="K17" s="2" t="n">
         <v>1</v>
       </c>
       <c r="L17" s="0"/>
       <c r="M17" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="N17" s="2" t="s">
         <v>49</v>
@@ -13525,8 +13492,8 @@
       </c>
     </row>
     <row r="18" customFormat="false" ht="39" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="23" t="s">
-        <v>141</v>
+      <c r="A18" s="22" t="s">
+        <v>138</v>
       </c>
       <c r="B18" s="18" t="s">
         <v>42</v>
@@ -13547,17 +13514,17 @@
         <v>5</v>
       </c>
       <c r="I18" s="17" t="s">
-        <v>129</v>
-      </c>
-      <c r="J18" s="22" t="s">
-        <v>111</v>
+        <v>127</v>
+      </c>
+      <c r="J18" s="23" t="s">
+        <v>109</v>
       </c>
       <c r="K18" s="2" t="n">
         <v>1</v>
       </c>
       <c r="L18" s="0"/>
       <c r="M18" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="N18" s="2" t="s">
         <v>49</v>
@@ -13589,8 +13556,8 @@
       </c>
     </row>
     <row r="19" customFormat="false" ht="39" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="23" t="s">
-        <v>141</v>
+      <c r="A19" s="22" t="s">
+        <v>138</v>
       </c>
       <c r="B19" s="18" t="s">
         <v>42</v>
@@ -13611,17 +13578,17 @@
         <v>5</v>
       </c>
       <c r="I19" s="17" t="s">
-        <v>131</v>
-      </c>
-      <c r="J19" s="22" t="s">
-        <v>111</v>
+        <v>129</v>
+      </c>
+      <c r="J19" s="23" t="s">
+        <v>109</v>
       </c>
       <c r="K19" s="2" t="n">
         <v>1</v>
       </c>
       <c r="L19" s="0"/>
       <c r="M19" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="N19" s="2" t="s">
         <v>49</v>
@@ -13653,8 +13620,8 @@
       </c>
     </row>
     <row r="20" customFormat="false" ht="39" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="23" t="s">
-        <v>141</v>
+      <c r="A20" s="22" t="s">
+        <v>138</v>
       </c>
       <c r="B20" s="18" t="s">
         <v>42</v>
@@ -13675,17 +13642,17 @@
         <v>5</v>
       </c>
       <c r="I20" s="17" t="s">
-        <v>133</v>
-      </c>
-      <c r="J20" s="22" t="s">
-        <v>111</v>
+        <v>131</v>
+      </c>
+      <c r="J20" s="23" t="s">
+        <v>109</v>
       </c>
       <c r="K20" s="14" t="n">
         <v>1</v>
       </c>
       <c r="L20" s="13"/>
       <c r="M20" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="N20" s="2" t="s">
         <v>49</v>
@@ -13741,20 +13708,20 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="18.2834008097166"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="17.5668016194332"/>
-    <col collapsed="false" hidden="false" max="6" min="3" style="2" width="18.2834008097166"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="18.2834008097166"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="18.2834008097166"/>
-    <col collapsed="false" hidden="false" max="10" min="9" style="1" width="18.2834008097166"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="2" width="18.2834008097166"/>
-    <col collapsed="false" hidden="false" max="25" min="12" style="1" width="18.2834008097166"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="2" width="18.2834008097166"/>
-    <col collapsed="false" hidden="false" max="28" min="27" style="1" width="18.2834008097166"/>
-    <col collapsed="false" hidden="false" max="30" min="29" style="2" width="18.2834008097166"/>
-    <col collapsed="false" hidden="false" max="32" min="31" style="1" width="18.2834008097166"/>
-    <col collapsed="false" hidden="false" max="37" min="33" style="20" width="18.2834008097166"/>
-    <col collapsed="false" hidden="false" max="1025" min="38" style="1" width="18.2834008097166"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="19.1376518218624"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="18.2834008097166"/>
+    <col collapsed="false" hidden="false" max="6" min="3" style="2" width="19.1376518218624"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="19.1376518218624"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="19.1376518218624"/>
+    <col collapsed="false" hidden="false" max="10" min="9" style="1" width="19.1376518218624"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="2" width="19.1376518218624"/>
+    <col collapsed="false" hidden="false" max="25" min="12" style="1" width="19.1376518218624"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="2" width="19.1376518218624"/>
+    <col collapsed="false" hidden="false" max="28" min="27" style="1" width="19.1376518218624"/>
+    <col collapsed="false" hidden="false" max="30" min="29" style="2" width="19.1376518218624"/>
+    <col collapsed="false" hidden="false" max="32" min="31" style="1" width="19.1376518218624"/>
+    <col collapsed="false" hidden="false" max="37" min="33" style="20" width="19.1376518218624"/>
+    <col collapsed="false" hidden="false" max="1025" min="38" style="1" width="19.1376518218624"/>
   </cols>
   <sheetData>
     <row r="1" s="5" customFormat="true" ht="70" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13861,8 +13828,8 @@
       <c r="AK1" s="21"/>
     </row>
     <row r="2" s="4" customFormat="true" ht="38" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="23" t="s">
-        <v>142</v>
+      <c r="A2" s="22" t="s">
+        <v>139</v>
       </c>
       <c r="B2" s="11" t="s">
         <v>33</v>
@@ -13911,8 +13878,8 @@
       </c>
     </row>
     <row r="3" s="4" customFormat="true" ht="38" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="23" t="s">
-        <v>142</v>
+      <c r="A3" s="22" t="s">
+        <v>139</v>
       </c>
       <c r="B3" s="11" t="s">
         <v>33</v>
@@ -13961,8 +13928,8 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="37" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="23" t="s">
-        <v>142</v>
+      <c r="A4" s="22" t="s">
+        <v>139</v>
       </c>
       <c r="B4" s="18" t="s">
         <v>42</v>
@@ -13978,7 +13945,7 @@
         <v>2</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="H4" s="0"/>
       <c r="I4" s="1" t="s">
@@ -14019,8 +13986,8 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="37" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="23" t="s">
-        <v>142</v>
+      <c r="A5" s="22" t="s">
+        <v>139</v>
       </c>
       <c r="B5" s="18" t="s">
         <v>42</v>
@@ -14089,8 +14056,8 @@
       </c>
     </row>
     <row r="6" customFormat="false" ht="37" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="23" t="s">
-        <v>142</v>
+      <c r="A6" s="22" t="s">
+        <v>139</v>
       </c>
       <c r="B6" s="18" t="s">
         <v>42</v>
@@ -14159,8 +14126,8 @@
       </c>
     </row>
     <row r="7" customFormat="false" ht="37" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="23" t="s">
-        <v>142</v>
+      <c r="A7" s="22" t="s">
+        <v>139</v>
       </c>
       <c r="B7" s="18" t="s">
         <v>42</v>
@@ -14229,8 +14196,8 @@
       </c>
     </row>
     <row r="8" customFormat="false" ht="37" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="23" t="s">
-        <v>142</v>
+      <c r="A8" s="22" t="s">
+        <v>139</v>
       </c>
       <c r="B8" s="18" t="s">
         <v>42</v>
@@ -14246,11 +14213,11 @@
         <v>2</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="H8" s="0"/>
       <c r="I8" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="J8" s="13" t="s">
         <v>45</v>
@@ -14287,8 +14254,8 @@
       </c>
     </row>
     <row r="9" customFormat="false" ht="37" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="23" t="s">
-        <v>142</v>
+      <c r="A9" s="22" t="s">
+        <v>139</v>
       </c>
       <c r="B9" s="18" t="s">
         <v>42</v>
@@ -14309,17 +14276,17 @@
         <v>5</v>
       </c>
       <c r="I9" s="17" t="s">
-        <v>110</v>
-      </c>
-      <c r="J9" s="22" t="s">
-        <v>111</v>
+        <v>108</v>
+      </c>
+      <c r="J9" s="23" t="s">
+        <v>109</v>
       </c>
       <c r="K9" s="2" t="n">
         <v>1</v>
       </c>
       <c r="L9" s="0"/>
       <c r="M9" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="N9" s="1" t="s">
         <v>49</v>
@@ -14351,8 +14318,8 @@
       </c>
     </row>
     <row r="10" customFormat="false" ht="37" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="23" t="s">
-        <v>142</v>
+      <c r="A10" s="22" t="s">
+        <v>139</v>
       </c>
       <c r="B10" s="18" t="s">
         <v>42</v>
@@ -14373,17 +14340,17 @@
         <v>5</v>
       </c>
       <c r="I10" s="17" t="s">
-        <v>113</v>
-      </c>
-      <c r="J10" s="22" t="s">
         <v>111</v>
+      </c>
+      <c r="J10" s="23" t="s">
+        <v>109</v>
       </c>
       <c r="K10" s="2" t="n">
         <v>1</v>
       </c>
       <c r="L10" s="0"/>
       <c r="M10" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="N10" s="1" t="s">
         <v>49</v>
@@ -14415,8 +14382,8 @@
       </c>
     </row>
     <row r="11" customFormat="false" ht="37" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="23" t="s">
-        <v>142</v>
+      <c r="A11" s="22" t="s">
+        <v>139</v>
       </c>
       <c r="B11" s="18" t="s">
         <v>42</v>
@@ -14437,17 +14404,17 @@
         <v>5</v>
       </c>
       <c r="I11" s="17" t="s">
-        <v>115</v>
-      </c>
-      <c r="J11" s="22" t="s">
-        <v>111</v>
+        <v>113</v>
+      </c>
+      <c r="J11" s="23" t="s">
+        <v>109</v>
       </c>
       <c r="K11" s="2" t="n">
         <v>1</v>
       </c>
       <c r="L11" s="0"/>
       <c r="M11" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="N11" s="1" t="s">
         <v>49</v>
@@ -14479,8 +14446,8 @@
       </c>
     </row>
     <row r="12" customFormat="false" ht="37" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="23" t="s">
-        <v>142</v>
+      <c r="A12" s="22" t="s">
+        <v>139</v>
       </c>
       <c r="B12" s="18" t="s">
         <v>42</v>
@@ -14501,17 +14468,17 @@
         <v>5</v>
       </c>
       <c r="I12" s="17" t="s">
-        <v>117</v>
-      </c>
-      <c r="J12" s="22" t="s">
-        <v>111</v>
+        <v>115</v>
+      </c>
+      <c r="J12" s="23" t="s">
+        <v>109</v>
       </c>
       <c r="K12" s="2" t="n">
         <v>1</v>
       </c>
       <c r="L12" s="0"/>
       <c r="M12" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="N12" s="1" t="s">
         <v>49</v>
@@ -14543,8 +14510,8 @@
       </c>
     </row>
     <row r="13" customFormat="false" ht="37" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="23" t="s">
-        <v>142</v>
+      <c r="A13" s="22" t="s">
+        <v>139</v>
       </c>
       <c r="B13" s="18" t="s">
         <v>42</v>
@@ -14565,17 +14532,17 @@
         <v>5</v>
       </c>
       <c r="I13" s="17" t="s">
-        <v>119</v>
-      </c>
-      <c r="J13" s="22" t="s">
-        <v>111</v>
+        <v>117</v>
+      </c>
+      <c r="J13" s="23" t="s">
+        <v>109</v>
       </c>
       <c r="K13" s="2" t="n">
         <v>1</v>
       </c>
       <c r="L13" s="0"/>
       <c r="M13" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="N13" s="1" t="s">
         <v>49</v>
@@ -14607,8 +14574,8 @@
       </c>
     </row>
     <row r="14" customFormat="false" ht="37" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="23" t="s">
-        <v>142</v>
+      <c r="A14" s="22" t="s">
+        <v>139</v>
       </c>
       <c r="B14" s="18" t="s">
         <v>42</v>
@@ -14629,17 +14596,17 @@
         <v>5</v>
       </c>
       <c r="I14" s="17" t="s">
-        <v>121</v>
-      </c>
-      <c r="J14" s="22" t="s">
-        <v>111</v>
+        <v>119</v>
+      </c>
+      <c r="J14" s="23" t="s">
+        <v>109</v>
       </c>
       <c r="K14" s="2" t="n">
         <v>1</v>
       </c>
       <c r="L14" s="0"/>
       <c r="M14" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="N14" s="1" t="s">
         <v>49</v>
@@ -14671,8 +14638,8 @@
       </c>
     </row>
     <row r="15" customFormat="false" ht="37" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="23" t="s">
-        <v>142</v>
+      <c r="A15" s="22" t="s">
+        <v>139</v>
       </c>
       <c r="B15" s="18" t="s">
         <v>42</v>
@@ -14693,17 +14660,17 @@
         <v>5</v>
       </c>
       <c r="I15" s="17" t="s">
-        <v>123</v>
-      </c>
-      <c r="J15" s="22" t="s">
-        <v>111</v>
+        <v>121</v>
+      </c>
+      <c r="J15" s="23" t="s">
+        <v>109</v>
       </c>
       <c r="K15" s="2" t="n">
         <v>1</v>
       </c>
       <c r="L15" s="0"/>
       <c r="M15" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="N15" s="1" t="s">
         <v>49</v>
@@ -14735,8 +14702,8 @@
       </c>
     </row>
     <row r="16" customFormat="false" ht="37" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="23" t="s">
-        <v>142</v>
+      <c r="A16" s="22" t="s">
+        <v>139</v>
       </c>
       <c r="B16" s="18" t="s">
         <v>42</v>
@@ -14757,17 +14724,17 @@
         <v>5</v>
       </c>
       <c r="I16" s="17" t="s">
-        <v>125</v>
-      </c>
-      <c r="J16" s="22" t="s">
-        <v>111</v>
+        <v>123</v>
+      </c>
+      <c r="J16" s="23" t="s">
+        <v>109</v>
       </c>
       <c r="K16" s="2" t="n">
         <v>1</v>
       </c>
       <c r="L16" s="0"/>
       <c r="M16" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="N16" s="1" t="s">
         <v>49</v>
@@ -14799,8 +14766,8 @@
       </c>
     </row>
     <row r="17" customFormat="false" ht="37" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="23" t="s">
-        <v>142</v>
+      <c r="A17" s="22" t="s">
+        <v>139</v>
       </c>
       <c r="B17" s="18" t="s">
         <v>42</v>
@@ -14821,17 +14788,17 @@
         <v>5</v>
       </c>
       <c r="I17" s="17" t="s">
-        <v>127</v>
-      </c>
-      <c r="J17" s="22" t="s">
-        <v>111</v>
+        <v>125</v>
+      </c>
+      <c r="J17" s="23" t="s">
+        <v>109</v>
       </c>
       <c r="K17" s="2" t="n">
         <v>1</v>
       </c>
       <c r="L17" s="0"/>
       <c r="M17" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="N17" s="1" t="s">
         <v>49</v>
@@ -14863,8 +14830,8 @@
       </c>
     </row>
     <row r="18" customFormat="false" ht="37" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="23" t="s">
-        <v>142</v>
+      <c r="A18" s="22" t="s">
+        <v>139</v>
       </c>
       <c r="B18" s="18" t="s">
         <v>42</v>
@@ -14885,17 +14852,17 @@
         <v>5</v>
       </c>
       <c r="I18" s="17" t="s">
-        <v>129</v>
-      </c>
-      <c r="J18" s="22" t="s">
-        <v>111</v>
+        <v>127</v>
+      </c>
+      <c r="J18" s="23" t="s">
+        <v>109</v>
       </c>
       <c r="K18" s="2" t="n">
         <v>1</v>
       </c>
       <c r="L18" s="0"/>
       <c r="M18" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="N18" s="1" t="s">
         <v>49</v>
@@ -14927,8 +14894,8 @@
       </c>
     </row>
     <row r="19" customFormat="false" ht="37" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="23" t="s">
-        <v>142</v>
+      <c r="A19" s="22" t="s">
+        <v>139</v>
       </c>
       <c r="B19" s="18" t="s">
         <v>42</v>
@@ -14949,17 +14916,17 @@
         <v>5</v>
       </c>
       <c r="I19" s="17" t="s">
-        <v>131</v>
-      </c>
-      <c r="J19" s="22" t="s">
-        <v>111</v>
+        <v>129</v>
+      </c>
+      <c r="J19" s="23" t="s">
+        <v>109</v>
       </c>
       <c r="K19" s="2" t="n">
         <v>1</v>
       </c>
       <c r="L19" s="0"/>
       <c r="M19" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="N19" s="1" t="s">
         <v>49</v>
@@ -14991,8 +14958,8 @@
       </c>
     </row>
     <row r="20" customFormat="false" ht="37" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="23" t="s">
-        <v>142</v>
+      <c r="A20" s="22" t="s">
+        <v>139</v>
       </c>
       <c r="B20" s="18" t="s">
         <v>42</v>
@@ -15013,17 +14980,17 @@
         <v>5</v>
       </c>
       <c r="I20" s="17" t="s">
-        <v>133</v>
-      </c>
-      <c r="J20" s="22" t="s">
-        <v>111</v>
+        <v>131</v>
+      </c>
+      <c r="J20" s="23" t="s">
+        <v>109</v>
       </c>
       <c r="K20" s="14" t="n">
         <v>1</v>
       </c>
       <c r="L20" s="13"/>
       <c r="M20" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="N20" s="1" t="s">
         <v>49</v>

--- a/Projects/CCRU_SAND/Data/Contract Execution 2018.xlsx
+++ b/Projects/CCRU_SAND/Data/Contract Execution 2018.xlsx
@@ -10,15 +10,14 @@
   <sheets>
     <sheet name="Pos 2018 - MT - Hypermarket" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="Pos 2018 - MT - Supermarket" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="Pos 2018 - QSR" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="Pos 2018 - MT - Convenience Small" sheetId="3" state="visible" r:id="rId4"/>
     <sheet name="Pos 2018 - MT - Convenience Big" sheetId="4" state="visible" r:id="rId5"/>
-    <sheet name="Pos 2018 - MT - Convenience Small" sheetId="5" state="visible" r:id="rId6"/>
+    <sheet name="Pos 2018 - QSR" sheetId="5" state="visible" r:id="rId6"/>
     <sheet name="Pos 2018 - Canteen" sheetId="6" state="visible" r:id="rId7"/>
     <sheet name="Pos 2018 - Petroleum" sheetId="7" state="visible" r:id="rId8"/>
     <sheet name="Pos 2018 - HoReCa - Bar Tavern Night Clubs" sheetId="8" state="visible" r:id="rId9"/>
     <sheet name="Pos 2018 - HoReCa - Coffee Tea Shops" sheetId="9" state="visible" r:id="rId10"/>
-    <sheet name="Pos 2018 - HoReCa - Restaurant Cafe" sheetId="10" state="visible" r:id="rId11"/>
-    <sheet name="Alcomarket" sheetId="11" state="hidden" r:id="rId12"/>
+    <sheet name="Pos 2018 - FT" sheetId="10" state="visible" r:id="rId11"/>
   </sheets>
   <definedNames>
     <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0" vbProcedure="false">'Pos 2018 - MT - Hypermarket'!$A$1:$AH$24</definedName>
@@ -55,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2396" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2209" uniqueCount="140">
   <si>
     <t xml:space="preserve">Channel</t>
   </si>
@@ -366,6 +365,12 @@
     <t xml:space="preserve">SM</t>
   </si>
   <si>
+    <t xml:space="preserve">CS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CB</t>
+  </si>
+  <si>
     <t xml:space="preserve">QSR</t>
   </si>
   <si>
@@ -456,12 +461,6 @@
     <t xml:space="preserve">KPI: Drink Out: Evening out</t>
   </si>
   <si>
-    <t xml:space="preserve">CB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CS</t>
-  </si>
-  <si>
     <t xml:space="preserve">CNT</t>
   </si>
   <si>
@@ -475,21 +474,6 @@
   </si>
   <si>
     <t xml:space="preserve">HRC_CTS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HRC_RC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KPI name Rus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KPI weighted Score</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KPI from POS 2016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Will be added on the 16th of December</t>
   </si>
 </sst>
 </file>
@@ -501,7 +485,7 @@
     <numFmt numFmtId="165" formatCode="0.000"/>
     <numFmt numFmtId="166" formatCode="0"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -538,14 +522,6 @@
       <family val="2"/>
       <charset val="204"/>
     </font>
-    <font>
-      <b val="true"/>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -555,19 +531,12 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
       <diagonal/>
     </border>
   </borders>
@@ -596,7 +565,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="26">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -701,18 +670,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
@@ -779,21 +736,21 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="1" style="1" width="20.8542510121457"/>
-    <col collapsed="false" hidden="false" max="6" min="3" style="2" width="20.8542510121457"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="20.8542510121457"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="20.8542510121457"/>
-    <col collapsed="false" hidden="false" max="10" min="9" style="1" width="20.8542510121457"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="2" width="20.8542510121457"/>
-    <col collapsed="false" hidden="false" max="13" min="12" style="1" width="20.8542510121457"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="2" width="20.8542510121457"/>
-    <col collapsed="false" hidden="false" max="25" min="15" style="1" width="20.8542510121457"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="3" width="20.8542510121457"/>
-    <col collapsed="false" hidden="false" max="28" min="27" style="1" width="20.8542510121457"/>
-    <col collapsed="false" hidden="false" max="30" min="29" style="2" width="20.8542510121457"/>
-    <col collapsed="false" hidden="false" max="32" min="31" style="1" width="20.8542510121457"/>
-    <col collapsed="false" hidden="false" max="37" min="33" style="4" width="20.8542510121457"/>
-    <col collapsed="false" hidden="false" max="1025" min="38" style="1" width="20.8542510121457"/>
+    <col collapsed="false" hidden="false" max="2" min="1" style="1" width="21.7085020242915"/>
+    <col collapsed="false" hidden="false" max="6" min="3" style="2" width="21.7085020242915"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="21.7085020242915"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="21.7085020242915"/>
+    <col collapsed="false" hidden="false" max="10" min="9" style="1" width="21.7085020242915"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="2" width="21.7085020242915"/>
+    <col collapsed="false" hidden="false" max="13" min="12" style="1" width="21.7085020242915"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="2" width="21.7085020242915"/>
+    <col collapsed="false" hidden="false" max="25" min="15" style="1" width="21.7085020242915"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="3" width="21.7085020242915"/>
+    <col collapsed="false" hidden="false" max="28" min="27" style="1" width="21.7085020242915"/>
+    <col collapsed="false" hidden="false" max="30" min="29" style="2" width="21.7085020242915"/>
+    <col collapsed="false" hidden="false" max="32" min="31" style="1" width="21.7085020242915"/>
+    <col collapsed="false" hidden="false" max="37" min="33" style="4" width="21.7085020242915"/>
+    <col collapsed="false" hidden="false" max="1025" min="38" style="1" width="21.7085020242915"/>
   </cols>
   <sheetData>
     <row r="1" s="5" customFormat="true" ht="67" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2258,25 +2215,25 @@
   <dimension ref="A1:AF65536"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H17" activeCellId="0" sqref="H17"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="17.5668016194332"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="18.2834008097166"/>
-    <col collapsed="false" hidden="false" max="6" min="3" style="2" width="17.5668016194332"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="17.5668016194332"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="17.5668016194332"/>
-    <col collapsed="false" hidden="false" max="10" min="9" style="1" width="17.5668016194332"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="2" width="17.5668016194332"/>
-    <col collapsed="false" hidden="false" max="25" min="12" style="1" width="17.5668016194332"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="2" width="17.5668016194332"/>
-    <col collapsed="false" hidden="false" max="28" min="27" style="1" width="17.5668016194332"/>
-    <col collapsed="false" hidden="false" max="30" min="29" style="2" width="17.5668016194332"/>
-    <col collapsed="false" hidden="false" max="32" min="31" style="1" width="17.5668016194332"/>
-    <col collapsed="false" hidden="false" max="37" min="33" style="25" width="17.5668016194332"/>
-    <col collapsed="false" hidden="false" max="1025" min="38" style="1" width="17.5668016194332"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="18.2834008097166"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="19.1376518218624"/>
+    <col collapsed="false" hidden="false" max="6" min="3" style="2" width="18.2834008097166"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="18.2834008097166"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="18.2834008097166"/>
+    <col collapsed="false" hidden="false" max="10" min="9" style="1" width="18.2834008097166"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="2" width="18.2834008097166"/>
+    <col collapsed="false" hidden="false" max="25" min="12" style="1" width="18.2834008097166"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="2" width="18.2834008097166"/>
+    <col collapsed="false" hidden="false" max="28" min="27" style="1" width="18.2834008097166"/>
+    <col collapsed="false" hidden="false" max="30" min="29" style="2" width="18.2834008097166"/>
+    <col collapsed="false" hidden="false" max="32" min="31" style="1" width="18.2834008097166"/>
+    <col collapsed="false" hidden="false" max="37" min="33" style="25" width="18.2834008097166"/>
+    <col collapsed="false" hidden="false" max="1025" min="38" style="1" width="18.2834008097166"/>
   </cols>
   <sheetData>
     <row r="1" s="5" customFormat="true" ht="64" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2377,1277 +2334,29 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" s="4" customFormat="true" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="22" t="s">
-        <v>140</v>
-      </c>
-      <c r="B2" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="C2" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" s="12" t="n">
-        <v>2</v>
-      </c>
-      <c r="G2" s="11"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="J2" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="K2" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="O2" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="Z2" s="12" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="AB2" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="AC2" s="12"/>
-      <c r="AD2" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE2" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="AF2" s="13" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="3" s="4" customFormat="true" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="22" t="s">
-        <v>140</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="C3" s="12" t="n">
-        <v>2</v>
-      </c>
-      <c r="D3" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="E3" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" s="12" t="n">
-        <v>2</v>
-      </c>
-      <c r="G3" s="11"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="J3" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="K3" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="O3" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="Z3" s="12" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="AB3" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="AC3" s="12"/>
-      <c r="AD3" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE3" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="AF3" s="13" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="22" t="s">
-        <v>140</v>
-      </c>
-      <c r="B4" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="C4" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" s="0"/>
-      <c r="F4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="H4" s="0"/>
-      <c r="I4" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="J4" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="K4" s="0"/>
-      <c r="L4" s="0"/>
-      <c r="M4" s="0"/>
-      <c r="N4" s="0"/>
-      <c r="O4" s="0"/>
-      <c r="P4" s="0"/>
-      <c r="Q4" s="0"/>
-      <c r="R4" s="0"/>
-      <c r="S4" s="0"/>
-      <c r="T4" s="0"/>
-      <c r="U4" s="0"/>
-      <c r="V4" s="0"/>
-      <c r="W4" s="0"/>
-      <c r="X4" s="0"/>
-      <c r="Y4" s="0"/>
-      <c r="Z4" s="2" t="n">
-        <v>0.333</v>
-      </c>
-      <c r="AA4" s="0"/>
-      <c r="AB4" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="AC4" s="19"/>
-      <c r="AD4" s="19"/>
-      <c r="AE4" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="AF4" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="22" t="s">
-        <v>140</v>
-      </c>
-      <c r="B5" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="C5" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="F5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="G5" s="0"/>
-      <c r="H5" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="K5" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="L5" s="0"/>
-      <c r="M5" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="N5" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="O5" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="P5" s="0"/>
-      <c r="Q5" s="0"/>
-      <c r="R5" s="0"/>
-      <c r="S5" s="0"/>
-      <c r="T5" s="0"/>
-      <c r="U5" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="V5" s="0"/>
-      <c r="W5" s="0"/>
-      <c r="X5" s="0"/>
-      <c r="Y5" s="0"/>
-      <c r="Z5" s="19"/>
-      <c r="AA5" s="0"/>
-      <c r="AB5" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="AC5" s="19"/>
-      <c r="AD5" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE5" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="AF5" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="22" t="s">
-        <v>140</v>
-      </c>
-      <c r="B6" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="C6" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="D6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E6" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="F6" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="G6" s="0"/>
-      <c r="H6" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="K6" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="L6" s="0"/>
-      <c r="M6" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="N6" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="O6" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="P6" s="0"/>
-      <c r="Q6" s="0"/>
-      <c r="R6" s="0"/>
-      <c r="S6" s="0"/>
-      <c r="T6" s="0"/>
-      <c r="U6" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="V6" s="0"/>
-      <c r="W6" s="0"/>
-      <c r="X6" s="0"/>
-      <c r="Y6" s="0"/>
-      <c r="Z6" s="19"/>
-      <c r="AA6" s="0"/>
-      <c r="AB6" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="AC6" s="19"/>
-      <c r="AD6" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE6" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="AF6" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="22" t="s">
-        <v>140</v>
-      </c>
-      <c r="B7" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="C7" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="D7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E7" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="F7" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="G7" s="0"/>
-      <c r="H7" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="K7" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="L7" s="0"/>
-      <c r="M7" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="N7" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="O7" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="P7" s="0"/>
-      <c r="Q7" s="0"/>
-      <c r="R7" s="0"/>
-      <c r="S7" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="T7" s="0"/>
-      <c r="U7" s="0"/>
-      <c r="V7" s="0"/>
-      <c r="W7" s="0"/>
-      <c r="X7" s="0"/>
-      <c r="Y7" s="0"/>
-      <c r="Z7" s="19"/>
-      <c r="AA7" s="0"/>
-      <c r="AB7" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="AC7" s="19"/>
-      <c r="AD7" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE7" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="AF7" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="22" t="s">
-        <v>140</v>
-      </c>
-      <c r="B8" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="C8" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="D8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E8" s="0"/>
-      <c r="F8" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="H8" s="0"/>
-      <c r="I8" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="J8" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="K8" s="0"/>
-      <c r="L8" s="0"/>
-      <c r="M8" s="0"/>
-      <c r="N8" s="0"/>
-      <c r="O8" s="0"/>
-      <c r="P8" s="0"/>
-      <c r="Q8" s="0"/>
-      <c r="R8" s="0"/>
-      <c r="S8" s="0"/>
-      <c r="T8" s="0"/>
-      <c r="U8" s="0"/>
-      <c r="V8" s="0"/>
-      <c r="W8" s="0"/>
-      <c r="X8" s="0"/>
-      <c r="Y8" s="0"/>
-      <c r="Z8" s="2" t="n">
-        <v>0.667</v>
-      </c>
-      <c r="AA8" s="0"/>
-      <c r="AB8" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="AC8" s="19"/>
-      <c r="AD8" s="19"/>
-      <c r="AE8" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="AF8" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="22" t="s">
-        <v>140</v>
-      </c>
-      <c r="B9" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="C9" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="D9" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="E9" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="F9" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="H9" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="I9" s="17" t="s">
-        <v>108</v>
-      </c>
-      <c r="J9" s="23" t="s">
-        <v>109</v>
-      </c>
-      <c r="K9" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="L9" s="0"/>
-      <c r="M9" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="N9" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="O9" s="0"/>
-      <c r="P9" s="0"/>
-      <c r="Q9" s="0"/>
-      <c r="R9" s="0"/>
-      <c r="S9" s="0"/>
-      <c r="T9" s="0"/>
-      <c r="U9" s="0"/>
-      <c r="V9" s="0"/>
-      <c r="W9" s="0"/>
-      <c r="X9" s="0"/>
-      <c r="Y9" s="0"/>
-      <c r="AA9" s="0"/>
-      <c r="AB9" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="AC9" s="19"/>
-      <c r="AD9" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE9" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="AF9" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="22" t="s">
-        <v>140</v>
-      </c>
-      <c r="B10" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="C10" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="D10" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="E10" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="F10" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="H10" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="I10" s="17" t="s">
-        <v>111</v>
-      </c>
-      <c r="J10" s="23" t="s">
-        <v>109</v>
-      </c>
-      <c r="K10" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="L10" s="0"/>
-      <c r="M10" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="N10" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="O10" s="0"/>
-      <c r="P10" s="0"/>
-      <c r="Q10" s="0"/>
-      <c r="R10" s="0"/>
-      <c r="S10" s="0"/>
-      <c r="T10" s="0"/>
-      <c r="U10" s="0"/>
-      <c r="V10" s="0"/>
-      <c r="W10" s="0"/>
-      <c r="X10" s="0"/>
-      <c r="Y10" s="0"/>
-      <c r="AA10" s="0"/>
-      <c r="AB10" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="AC10" s="19"/>
-      <c r="AD10" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE10" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="AF10" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="22" t="s">
-        <v>140</v>
-      </c>
-      <c r="B11" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="C11" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="D11" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="E11" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="F11" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="H11" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="I11" s="17" t="s">
-        <v>113</v>
-      </c>
-      <c r="J11" s="23" t="s">
-        <v>109</v>
-      </c>
-      <c r="K11" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="L11" s="0"/>
-      <c r="M11" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="N11" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="O11" s="0"/>
-      <c r="P11" s="0"/>
-      <c r="Q11" s="0"/>
-      <c r="R11" s="0"/>
-      <c r="S11" s="0"/>
-      <c r="T11" s="0"/>
-      <c r="U11" s="0"/>
-      <c r="V11" s="0"/>
-      <c r="W11" s="0"/>
-      <c r="X11" s="0"/>
-      <c r="Y11" s="0"/>
-      <c r="AA11" s="0"/>
-      <c r="AB11" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="AC11" s="19"/>
-      <c r="AD11" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE11" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="AF11" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="22" t="s">
-        <v>140</v>
-      </c>
-      <c r="B12" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="C12" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="D12" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="E12" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="F12" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="H12" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="I12" s="17" t="s">
-        <v>115</v>
-      </c>
-      <c r="J12" s="23" t="s">
-        <v>109</v>
-      </c>
-      <c r="K12" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="L12" s="0"/>
-      <c r="M12" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="N12" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="O12" s="0"/>
-      <c r="P12" s="0"/>
-      <c r="Q12" s="0"/>
-      <c r="R12" s="0"/>
-      <c r="S12" s="0"/>
-      <c r="T12" s="0"/>
-      <c r="U12" s="0"/>
-      <c r="V12" s="0"/>
-      <c r="W12" s="0"/>
-      <c r="X12" s="0"/>
-      <c r="Y12" s="0"/>
-      <c r="AA12" s="0"/>
-      <c r="AB12" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="AC12" s="19"/>
-      <c r="AD12" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE12" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="AF12" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="22" t="s">
-        <v>140</v>
-      </c>
-      <c r="B13" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="C13" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="D13" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="E13" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="F13" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="H13" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="I13" s="17" t="s">
-        <v>117</v>
-      </c>
-      <c r="J13" s="23" t="s">
-        <v>109</v>
-      </c>
-      <c r="K13" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="L13" s="0"/>
-      <c r="M13" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="N13" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="O13" s="0"/>
-      <c r="P13" s="0"/>
-      <c r="Q13" s="0"/>
-      <c r="R13" s="0"/>
-      <c r="S13" s="0"/>
-      <c r="T13" s="0"/>
-      <c r="U13" s="0"/>
-      <c r="V13" s="0"/>
-      <c r="W13" s="0"/>
-      <c r="X13" s="0"/>
-      <c r="Y13" s="0"/>
-      <c r="AA13" s="0"/>
-      <c r="AB13" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="AC13" s="19"/>
-      <c r="AD13" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE13" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="AF13" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="22" t="s">
-        <v>140</v>
-      </c>
-      <c r="B14" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="C14" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="D14" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="E14" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="F14" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="H14" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="I14" s="17" t="s">
-        <v>119</v>
-      </c>
-      <c r="J14" s="23" t="s">
-        <v>109</v>
-      </c>
-      <c r="K14" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="L14" s="0"/>
-      <c r="M14" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="N14" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="O14" s="0"/>
-      <c r="P14" s="0"/>
-      <c r="Q14" s="0"/>
-      <c r="R14" s="0"/>
-      <c r="S14" s="0"/>
-      <c r="T14" s="0"/>
-      <c r="U14" s="0"/>
-      <c r="V14" s="0"/>
-      <c r="W14" s="0"/>
-      <c r="X14" s="0"/>
-      <c r="Y14" s="0"/>
-      <c r="AA14" s="0"/>
-      <c r="AB14" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="AC14" s="19"/>
-      <c r="AD14" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE14" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="AF14" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="22" t="s">
-        <v>140</v>
-      </c>
-      <c r="B15" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="C15" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="D15" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="E15" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="F15" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="H15" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="I15" s="17" t="s">
-        <v>121</v>
-      </c>
-      <c r="J15" s="23" t="s">
-        <v>109</v>
-      </c>
-      <c r="K15" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="L15" s="0"/>
-      <c r="M15" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="N15" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="O15" s="0"/>
-      <c r="P15" s="0"/>
-      <c r="Q15" s="0"/>
-      <c r="R15" s="0"/>
-      <c r="S15" s="0"/>
-      <c r="T15" s="0"/>
-      <c r="U15" s="0"/>
-      <c r="V15" s="0"/>
-      <c r="W15" s="0"/>
-      <c r="X15" s="0"/>
-      <c r="Y15" s="0"/>
-      <c r="AA15" s="0"/>
-      <c r="AB15" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="AC15" s="19"/>
-      <c r="AD15" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE15" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="AF15" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="22" t="s">
-        <v>140</v>
-      </c>
-      <c r="B16" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="C16" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="D16" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="E16" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="F16" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="H16" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="I16" s="17" t="s">
-        <v>123</v>
-      </c>
-      <c r="J16" s="23" t="s">
-        <v>109</v>
-      </c>
-      <c r="K16" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="L16" s="0"/>
-      <c r="M16" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="N16" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="O16" s="0"/>
-      <c r="P16" s="0"/>
-      <c r="Q16" s="0"/>
-      <c r="R16" s="0"/>
-      <c r="S16" s="0"/>
-      <c r="T16" s="0"/>
-      <c r="U16" s="0"/>
-      <c r="V16" s="0"/>
-      <c r="W16" s="0"/>
-      <c r="X16" s="0"/>
-      <c r="Y16" s="0"/>
-      <c r="AA16" s="0"/>
-      <c r="AB16" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="AC16" s="19"/>
-      <c r="AD16" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE16" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="AF16" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="22" t="s">
-        <v>140</v>
-      </c>
-      <c r="B17" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="C17" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="D17" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="E17" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="F17" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="H17" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="I17" s="17" t="s">
-        <v>125</v>
-      </c>
-      <c r="J17" s="23" t="s">
-        <v>109</v>
-      </c>
-      <c r="K17" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="L17" s="0"/>
-      <c r="M17" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="N17" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="O17" s="0"/>
-      <c r="P17" s="0"/>
-      <c r="Q17" s="0"/>
-      <c r="R17" s="0"/>
-      <c r="S17" s="0"/>
-      <c r="T17" s="0"/>
-      <c r="U17" s="0"/>
-      <c r="V17" s="0"/>
-      <c r="W17" s="0"/>
-      <c r="X17" s="0"/>
-      <c r="Y17" s="0"/>
-      <c r="AA17" s="0"/>
-      <c r="AB17" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="AC17" s="19"/>
-      <c r="AD17" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE17" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="AF17" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="22" t="s">
-        <v>140</v>
-      </c>
-      <c r="B18" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="C18" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="D18" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="E18" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="F18" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="H18" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="I18" s="17" t="s">
-        <v>127</v>
-      </c>
-      <c r="J18" s="23" t="s">
-        <v>109</v>
-      </c>
-      <c r="K18" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="L18" s="0"/>
-      <c r="M18" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="N18" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="O18" s="0"/>
-      <c r="P18" s="0"/>
-      <c r="Q18" s="0"/>
-      <c r="R18" s="0"/>
-      <c r="S18" s="0"/>
-      <c r="T18" s="0"/>
-      <c r="U18" s="0"/>
-      <c r="V18" s="0"/>
-      <c r="W18" s="0"/>
-      <c r="X18" s="0"/>
-      <c r="Y18" s="0"/>
-      <c r="AA18" s="0"/>
-      <c r="AB18" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="AC18" s="19"/>
-      <c r="AD18" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE18" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="AF18" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="22" t="s">
-        <v>140</v>
-      </c>
-      <c r="B19" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="C19" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="D19" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="E19" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="F19" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="H19" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="I19" s="17" t="s">
-        <v>129</v>
-      </c>
-      <c r="J19" s="23" t="s">
-        <v>109</v>
-      </c>
-      <c r="K19" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="L19" s="0"/>
-      <c r="M19" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="N19" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="O19" s="0"/>
-      <c r="P19" s="0"/>
-      <c r="Q19" s="0"/>
-      <c r="R19" s="0"/>
-      <c r="S19" s="0"/>
-      <c r="T19" s="0"/>
-      <c r="U19" s="0"/>
-      <c r="V19" s="0"/>
-      <c r="W19" s="0"/>
-      <c r="X19" s="0"/>
-      <c r="Y19" s="0"/>
-      <c r="AA19" s="0"/>
-      <c r="AB19" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="AC19" s="19"/>
-      <c r="AD19" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE19" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="AF19" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="22" t="s">
-        <v>140</v>
-      </c>
-      <c r="B20" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="C20" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="D20" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="E20" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="F20" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="H20" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="I20" s="17" t="s">
-        <v>131</v>
-      </c>
-      <c r="J20" s="23" t="s">
-        <v>109</v>
-      </c>
-      <c r="K20" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="L20" s="13"/>
-      <c r="M20" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="N20" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="O20" s="13"/>
-      <c r="P20" s="13"/>
-      <c r="Q20" s="13"/>
-      <c r="R20" s="13"/>
-      <c r="S20" s="13"/>
-      <c r="T20" s="13"/>
-      <c r="U20" s="13"/>
-      <c r="V20" s="13"/>
-      <c r="W20" s="13"/>
-      <c r="X20" s="13"/>
-      <c r="Y20" s="13"/>
-      <c r="AA20" s="13"/>
-      <c r="AB20" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="AC20" s="14"/>
-      <c r="AD20" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE20" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="AF20" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
+    <row r="2" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="3" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="4" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="5" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="6" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="7" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="8" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="9" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="10" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="11" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="12" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="13" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="14" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="15" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="16" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="17" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="18" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="19" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="20" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:M4"/>
-  <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="13.4251012145749"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="C1" s="26" t="s">
-        <v>141</v>
-      </c>
-      <c r="D1" s="27" t="s">
-        <v>9</v>
-      </c>
-      <c r="E1" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="F1" s="27" t="s">
-        <v>11</v>
-      </c>
-      <c r="G1" s="27" t="s">
-        <v>26</v>
-      </c>
-      <c r="H1" s="27" t="s">
-        <v>30</v>
-      </c>
-      <c r="I1" s="27" t="s">
-        <v>31</v>
-      </c>
-      <c r="J1" s="27" t="s">
-        <v>25</v>
-      </c>
-      <c r="K1" s="27" t="s">
-        <v>142</v>
-      </c>
-      <c r="L1" s="27" t="s">
-        <v>3</v>
-      </c>
-      <c r="M1" s="27" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="28" t="s">
-        <v>144</v>
-      </c>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="1.14375" bottom="1.14375" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
@@ -3669,21 +2378,21 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="1" style="1" width="18.2834008097166"/>
-    <col collapsed="false" hidden="false" max="6" min="3" style="2" width="18.2834008097166"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="18.2834008097166"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="18.2834008097166"/>
-    <col collapsed="false" hidden="false" max="10" min="9" style="1" width="18.2834008097166"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="2" width="18.2834008097166"/>
-    <col collapsed="false" hidden="false" max="13" min="12" style="1" width="18.2834008097166"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="2" width="18.2834008097166"/>
-    <col collapsed="false" hidden="false" max="25" min="15" style="1" width="18.2834008097166"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="2" width="18.2834008097166"/>
-    <col collapsed="false" hidden="false" max="28" min="27" style="1" width="18.2834008097166"/>
-    <col collapsed="false" hidden="false" max="30" min="29" style="2" width="18.2834008097166"/>
-    <col collapsed="false" hidden="false" max="32" min="31" style="1" width="18.2834008097166"/>
-    <col collapsed="false" hidden="false" max="37" min="33" style="0" width="18.2834008097166"/>
-    <col collapsed="false" hidden="false" max="1025" min="38" style="1" width="18.2834008097166"/>
+    <col collapsed="false" hidden="false" max="2" min="1" style="1" width="19.1376518218624"/>
+    <col collapsed="false" hidden="false" max="6" min="3" style="2" width="19.1376518218624"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="19.1376518218624"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="19.1376518218624"/>
+    <col collapsed="false" hidden="false" max="10" min="9" style="1" width="19.1376518218624"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="2" width="19.1376518218624"/>
+    <col collapsed="false" hidden="false" max="13" min="12" style="1" width="19.1376518218624"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="2" width="19.1376518218624"/>
+    <col collapsed="false" hidden="false" max="25" min="15" style="1" width="19.1376518218624"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="2" width="19.1376518218624"/>
+    <col collapsed="false" hidden="false" max="28" min="27" style="1" width="19.1376518218624"/>
+    <col collapsed="false" hidden="false" max="30" min="29" style="2" width="19.1376518218624"/>
+    <col collapsed="false" hidden="false" max="32" min="31" style="1" width="19.1376518218624"/>
+    <col collapsed="false" hidden="false" max="37" min="33" style="0" width="19.1376518218624"/>
+    <col collapsed="false" hidden="false" max="1025" min="38" style="1" width="19.1376518218624"/>
   </cols>
   <sheetData>
     <row r="1" s="5" customFormat="true" ht="56" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5150,31 +3859,29 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AK65536"/>
+  <dimension ref="A1:AJ65536"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+      <selection pane="topLeft" activeCell="I22" activeCellId="0" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="19.1376518218624"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="18.2834008097166"/>
-    <col collapsed="false" hidden="false" max="6" min="3" style="2" width="19.1376518218624"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="19.1376518218624"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="19.1376518218624"/>
-    <col collapsed="false" hidden="false" max="10" min="9" style="1" width="19.1376518218624"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="2" width="19.1376518218624"/>
-    <col collapsed="false" hidden="false" max="25" min="12" style="1" width="19.1376518218624"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="2" width="19.1376518218624"/>
-    <col collapsed="false" hidden="false" max="28" min="27" style="1" width="19.1376518218624"/>
-    <col collapsed="false" hidden="false" max="30" min="29" style="2" width="19.1376518218624"/>
-    <col collapsed="false" hidden="false" max="32" min="31" style="1" width="19.1376518218624"/>
-    <col collapsed="false" hidden="false" max="37" min="33" style="20" width="19.1376518218624"/>
-    <col collapsed="false" hidden="false" max="1025" min="38" style="1" width="19.1376518218624"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="21.2793522267206"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="19.1376518218624"/>
+    <col collapsed="false" hidden="false" max="6" min="3" style="2" width="21.2793522267206"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="21.2793522267206"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="21.2793522267206"/>
+    <col collapsed="false" hidden="false" max="10" min="9" style="1" width="21.2793522267206"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="2" width="21.2793522267206"/>
+    <col collapsed="false" hidden="false" max="25" min="12" style="1" width="21.2793522267206"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="2" width="21.2793522267206"/>
+    <col collapsed="false" hidden="false" max="28" min="27" style="1" width="21.2793522267206"/>
+    <col collapsed="false" hidden="false" max="30" min="29" style="2" width="21.2793522267206"/>
+    <col collapsed="false" hidden="false" max="1025" min="31" style="1" width="21.2793522267206"/>
   </cols>
   <sheetData>
-    <row r="1" s="5" customFormat="true" ht="64" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" s="5" customFormat="true" ht="59" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -5202,83 +3909,81 @@
       <c r="I1" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="J1" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="K1" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="L1" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="M1" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="N1" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="5" t="s">
+      <c r="O1" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="5" t="s">
+      <c r="P1" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="5" t="s">
+      <c r="Q1" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="5" t="s">
+      <c r="R1" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="5" t="s">
+      <c r="S1" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="5" t="s">
+      <c r="T1" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="5" t="s">
+      <c r="U1" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="5" t="s">
+      <c r="V1" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="5" t="s">
+      <c r="W1" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="5" t="s">
+      <c r="X1" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="5" t="s">
+      <c r="Y1" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="7" t="s">
+      <c r="Z1" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="5" t="s">
+      <c r="AA1" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="5" t="s">
+      <c r="AB1" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="7" t="s">
+      <c r="AC1" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="7" t="s">
+      <c r="AD1" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="5" t="s">
+      <c r="AE1" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="5" t="s">
+      <c r="AF1" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="21"/>
-      <c r="AH1" s="21"/>
-      <c r="AI1" s="21"/>
-      <c r="AJ1" s="21"/>
-      <c r="AK1" s="21"/>
+      <c r="AG1" s="8"/>
+      <c r="AH1" s="8"/>
+      <c r="AJ1" s="8"/>
     </row>
     <row r="2" s="4" customFormat="true" ht="39" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="18" t="s">
         <v>103</v>
       </c>
       <c r="B2" s="11" t="s">
@@ -5311,7 +4016,7 @@
         <v>36</v>
       </c>
       <c r="Z2" s="12" t="n">
-        <v>0.4</v>
+        <v>0.35</v>
       </c>
       <c r="AB2" s="11" t="s">
         <v>37</v>
@@ -5328,7 +4033,7 @@
       </c>
     </row>
     <row r="3" s="4" customFormat="true" ht="39" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="18" t="s">
         <v>103</v>
       </c>
       <c r="B3" s="11" t="s">
@@ -5361,7 +4066,7 @@
         <v>36</v>
       </c>
       <c r="Z3" s="12" t="n">
-        <v>0.6</v>
+        <v>0.65</v>
       </c>
       <c r="AB3" s="11" t="s">
         <v>37</v>
@@ -5377,8 +4082,8 @@
         <v>39</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="38" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="22" t="s">
+    <row r="4" customFormat="false" ht="37" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="18" t="s">
         <v>103</v>
       </c>
       <c r="B4" s="18" t="s">
@@ -5387,56 +4092,58 @@
       <c r="C4" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="D4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" s="0"/>
+      <c r="D4" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" s="14"/>
       <c r="F4" s="2" t="n">
         <v>2</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>104</v>
+        <v>43</v>
       </c>
       <c r="H4" s="0"/>
-      <c r="I4" s="1" t="s">
-        <v>68</v>
+      <c r="I4" s="13" t="s">
+        <v>44</v>
       </c>
       <c r="J4" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="K4" s="0"/>
-      <c r="L4" s="0"/>
-      <c r="M4" s="0"/>
-      <c r="N4" s="0"/>
-      <c r="O4" s="0"/>
-      <c r="P4" s="0"/>
-      <c r="Q4" s="0"/>
-      <c r="R4" s="0"/>
-      <c r="S4" s="0"/>
-      <c r="T4" s="0"/>
-      <c r="U4" s="0"/>
-      <c r="V4" s="0"/>
-      <c r="W4" s="0"/>
-      <c r="X4" s="0"/>
-      <c r="Y4" s="0"/>
-      <c r="Z4" s="2" t="n">
-        <v>0.333</v>
-      </c>
-      <c r="AA4" s="0"/>
-      <c r="AB4" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="AC4" s="19"/>
-      <c r="AD4" s="19"/>
-      <c r="AE4" s="1" t="s">
+      <c r="K4" s="14"/>
+      <c r="L4" s="13"/>
+      <c r="M4" s="16"/>
+      <c r="N4" s="13"/>
+      <c r="O4" s="13"/>
+      <c r="P4" s="13"/>
+      <c r="Q4" s="13"/>
+      <c r="R4" s="13"/>
+      <c r="S4" s="13"/>
+      <c r="T4" s="13"/>
+      <c r="U4" s="13"/>
+      <c r="V4" s="13"/>
+      <c r="W4" s="13"/>
+      <c r="X4" s="13"/>
+      <c r="Y4" s="13"/>
+      <c r="Z4" s="3" t="n">
+        <v>0.355</v>
+      </c>
+      <c r="AA4" s="13"/>
+      <c r="AB4" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="AC4" s="14"/>
+      <c r="AD4" s="14"/>
+      <c r="AE4" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="AF4" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="38" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="22" t="s">
+      <c r="AF4" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="AG4" s="13"/>
+      <c r="AH4" s="13"/>
+    </row>
+    <row r="5" customFormat="false" ht="37" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="18" t="s">
         <v>103</v>
       </c>
       <c r="B5" s="18" t="s">
@@ -5445,10 +4152,10 @@
       <c r="C5" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="D5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" s="2" t="n">
+      <c r="D5" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" s="14" t="n">
         <v>1</v>
       </c>
       <c r="F5" s="2" t="n">
@@ -5459,17 +4166,17 @@
         <v>1</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>69</v>
+        <v>47</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>70</v>
+        <v>48</v>
       </c>
       <c r="K5" s="2" t="n">
         <v>1</v>
       </c>
       <c r="L5" s="0"/>
       <c r="M5" s="1" t="s">
-        <v>71</v>
+        <v>47</v>
       </c>
       <c r="N5" s="1" t="s">
         <v>49</v>
@@ -5477,36 +4184,29 @@
       <c r="O5" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="P5" s="0"/>
-      <c r="Q5" s="0"/>
-      <c r="R5" s="0"/>
       <c r="S5" s="0"/>
-      <c r="T5" s="0"/>
       <c r="U5" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="V5" s="0"/>
+        <v>47</v>
+      </c>
       <c r="W5" s="0"/>
-      <c r="X5" s="0"/>
-      <c r="Y5" s="0"/>
-      <c r="Z5" s="19"/>
-      <c r="AA5" s="0"/>
-      <c r="AB5" s="1" t="s">
+      <c r="Z5" s="3"/>
+      <c r="AB5" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="AC5" s="19"/>
       <c r="AD5" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="AE5" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="AF5" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="38" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="22" t="s">
+      <c r="AE5" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="AF5" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="AG5" s="13"/>
+      <c r="AH5" s="13"/>
+    </row>
+    <row r="6" customFormat="false" ht="37" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="18" t="s">
         <v>103</v>
       </c>
       <c r="B6" s="18" t="s">
@@ -5515,10 +4215,10 @@
       <c r="C6" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="D6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E6" s="2" t="n">
+      <c r="D6" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" s="14" t="n">
         <v>1</v>
       </c>
       <c r="F6" s="2" t="n">
@@ -5529,54 +4229,47 @@
         <v>1</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>72</v>
+        <v>51</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>73</v>
+        <v>48</v>
       </c>
       <c r="K6" s="2" t="n">
         <v>1</v>
       </c>
       <c r="L6" s="0"/>
       <c r="M6" s="1" t="s">
-        <v>74</v>
+        <v>51</v>
       </c>
       <c r="N6" s="1" t="s">
         <v>49</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="P6" s="0"/>
-      <c r="Q6" s="0"/>
-      <c r="R6" s="0"/>
+        <v>50</v>
+      </c>
       <c r="S6" s="0"/>
-      <c r="T6" s="0"/>
       <c r="U6" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="V6" s="0"/>
+        <v>51</v>
+      </c>
       <c r="W6" s="0"/>
-      <c r="X6" s="0"/>
-      <c r="Y6" s="0"/>
-      <c r="Z6" s="19"/>
-      <c r="AA6" s="0"/>
-      <c r="AB6" s="1" t="s">
+      <c r="Z6" s="3"/>
+      <c r="AB6" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="AC6" s="19"/>
       <c r="AD6" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="AE6" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="AF6" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="38" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="22" t="s">
+      <c r="AE6" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="AF6" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="AG6" s="13"/>
+      <c r="AH6" s="13"/>
+    </row>
+    <row r="7" customFormat="false" ht="37" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="18" t="s">
         <v>103</v>
       </c>
       <c r="B7" s="18" t="s">
@@ -5585,10 +4278,10 @@
       <c r="C7" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="D7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E7" s="2" t="n">
+      <c r="D7" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" s="14" t="n">
         <v>1</v>
       </c>
       <c r="F7" s="2" t="n">
@@ -5599,7 +4292,7 @@
         <v>1</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>76</v>
+        <v>52</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>48</v>
@@ -5609,44 +4302,37 @@
       </c>
       <c r="L7" s="0"/>
       <c r="M7" s="1" t="s">
-        <v>77</v>
+        <v>52</v>
       </c>
       <c r="N7" s="1" t="s">
         <v>49</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="P7" s="0"/>
-      <c r="Q7" s="0"/>
-      <c r="R7" s="0"/>
-      <c r="S7" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="T7" s="0"/>
-      <c r="U7" s="0"/>
-      <c r="V7" s="0"/>
+        <v>50</v>
+      </c>
+      <c r="S7" s="0"/>
+      <c r="U7" s="1" t="s">
+        <v>52</v>
+      </c>
       <c r="W7" s="0"/>
-      <c r="X7" s="0"/>
-      <c r="Y7" s="0"/>
-      <c r="Z7" s="19"/>
-      <c r="AA7" s="0"/>
-      <c r="AB7" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="AC7" s="19"/>
+      <c r="Z7" s="3"/>
+      <c r="AB7" s="13" t="s">
+        <v>37</v>
+      </c>
       <c r="AD7" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="AE7" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="AF7" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="38" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="22" t="s">
+      <c r="AE7" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="AF7" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="AG7" s="13"/>
+      <c r="AH7" s="13"/>
+    </row>
+    <row r="8" customFormat="false" ht="37" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="18" t="s">
         <v>103</v>
       </c>
       <c r="B8" s="18" t="s">
@@ -5655,56 +4341,61 @@
       <c r="C8" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="D8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E8" s="0"/>
+      <c r="D8" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" s="14" t="n">
+        <v>1</v>
+      </c>
       <c r="F8" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="H8" s="0"/>
+        <v>3</v>
+      </c>
+      <c r="G8" s="0"/>
+      <c r="H8" s="2" t="n">
+        <v>1</v>
+      </c>
       <c r="I8" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="J8" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="K8" s="0"/>
+        <v>53</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="K8" s="2" t="n">
+        <v>1</v>
+      </c>
       <c r="L8" s="0"/>
-      <c r="M8" s="0"/>
-      <c r="N8" s="0"/>
-      <c r="O8" s="0"/>
-      <c r="P8" s="0"/>
-      <c r="Q8" s="0"/>
-      <c r="R8" s="0"/>
+      <c r="M8" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="O8" s="1" t="s">
+        <v>50</v>
+      </c>
       <c r="S8" s="0"/>
-      <c r="T8" s="0"/>
-      <c r="U8" s="0"/>
-      <c r="V8" s="0"/>
+      <c r="U8" s="1" t="s">
+        <v>54</v>
+      </c>
       <c r="W8" s="0"/>
-      <c r="X8" s="0"/>
-      <c r="Y8" s="0"/>
-      <c r="Z8" s="2" t="n">
-        <v>0.667</v>
-      </c>
-      <c r="AA8" s="0"/>
-      <c r="AB8" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="AC8" s="19"/>
-      <c r="AD8" s="19"/>
-      <c r="AE8" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="AF8" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="38" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="22" t="s">
+      <c r="Z8" s="3"/>
+      <c r="AB8" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="AD8" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE8" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="AF8" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="AG8" s="13"/>
+      <c r="AH8" s="13"/>
+    </row>
+    <row r="9" customFormat="false" ht="37" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="18" t="s">
         <v>103</v>
       </c>
       <c r="B9" s="18" t="s">
@@ -5722,53 +4413,52 @@
       <c r="F9" s="2" t="n">
         <v>3</v>
       </c>
+      <c r="G9" s="0"/>
       <c r="H9" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="I9" s="17" t="s">
-        <v>108</v>
-      </c>
-      <c r="J9" s="23" t="s">
-        <v>109</v>
+        <v>1</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="K9" s="2" t="n">
         <v>1</v>
       </c>
       <c r="L9" s="0"/>
       <c r="M9" s="1" t="s">
-        <v>110</v>
+        <v>55</v>
       </c>
       <c r="N9" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="O9" s="0"/>
-      <c r="P9" s="0"/>
-      <c r="Q9" s="0"/>
-      <c r="R9" s="0"/>
+      <c r="O9" s="1" t="s">
+        <v>50</v>
+      </c>
       <c r="S9" s="0"/>
-      <c r="T9" s="0"/>
-      <c r="U9" s="0"/>
-      <c r="V9" s="0"/>
+      <c r="U9" s="1" t="s">
+        <v>55</v>
+      </c>
       <c r="W9" s="0"/>
-      <c r="X9" s="0"/>
-      <c r="Y9" s="0"/>
-      <c r="AA9" s="0"/>
+      <c r="Z9" s="3"/>
       <c r="AB9" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="AC9" s="19"/>
+        <v>37</v>
+      </c>
       <c r="AD9" s="2" t="n">
         <v>1</v>
       </c>
       <c r="AE9" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="AF9" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="38" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="22" t="s">
+      <c r="AF9" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="AG9" s="13"/>
+      <c r="AH9" s="13"/>
+    </row>
+    <row r="10" customFormat="false" ht="37" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="18" t="s">
         <v>103</v>
       </c>
       <c r="B10" s="18" t="s">
@@ -5786,53 +4476,52 @@
       <c r="F10" s="2" t="n">
         <v>3</v>
       </c>
+      <c r="G10" s="0"/>
       <c r="H10" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="I10" s="17" t="s">
-        <v>111</v>
-      </c>
-      <c r="J10" s="23" t="s">
-        <v>109</v>
+        <v>1</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="K10" s="2" t="n">
         <v>1</v>
       </c>
       <c r="L10" s="0"/>
       <c r="M10" s="1" t="s">
-        <v>112</v>
+        <v>57</v>
       </c>
       <c r="N10" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="O10" s="0"/>
-      <c r="P10" s="0"/>
-      <c r="Q10" s="0"/>
-      <c r="R10" s="0"/>
+      <c r="O10" s="1" t="s">
+        <v>58</v>
+      </c>
       <c r="S10" s="0"/>
-      <c r="T10" s="0"/>
       <c r="U10" s="0"/>
-      <c r="V10" s="0"/>
-      <c r="W10" s="0"/>
-      <c r="X10" s="0"/>
-      <c r="Y10" s="0"/>
-      <c r="AA10" s="0"/>
+      <c r="W10" s="1" t="n">
+        <v>701</v>
+      </c>
+      <c r="Z10" s="3"/>
       <c r="AB10" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="AC10" s="19"/>
+        <v>37</v>
+      </c>
       <c r="AD10" s="2" t="n">
         <v>1</v>
       </c>
       <c r="AE10" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="AF10" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="38" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="22" t="s">
+      <c r="AF10" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="AG10" s="13"/>
+      <c r="AH10" s="13"/>
+    </row>
+    <row r="11" customFormat="false" ht="37" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="18" t="s">
         <v>103</v>
       </c>
       <c r="B11" s="18" t="s">
@@ -5850,53 +4539,52 @@
       <c r="F11" s="2" t="n">
         <v>3</v>
       </c>
+      <c r="G11" s="0"/>
       <c r="H11" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="I11" s="17" t="s">
-        <v>113</v>
-      </c>
-      <c r="J11" s="23" t="s">
-        <v>109</v>
+        <v>1</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="K11" s="2" t="n">
         <v>1</v>
       </c>
       <c r="L11" s="0"/>
       <c r="M11" s="1" t="s">
-        <v>114</v>
+        <v>60</v>
       </c>
       <c r="N11" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="O11" s="0"/>
-      <c r="P11" s="0"/>
-      <c r="Q11" s="0"/>
-      <c r="R11" s="0"/>
+      <c r="O11" s="1" t="s">
+        <v>58</v>
+      </c>
       <c r="S11" s="0"/>
-      <c r="T11" s="0"/>
       <c r="U11" s="0"/>
-      <c r="V11" s="0"/>
-      <c r="W11" s="0"/>
-      <c r="X11" s="0"/>
-      <c r="Y11" s="0"/>
-      <c r="AA11" s="0"/>
+      <c r="W11" s="1" t="n">
+        <v>703</v>
+      </c>
+      <c r="Z11" s="3"/>
       <c r="AB11" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="AC11" s="19"/>
+        <v>37</v>
+      </c>
       <c r="AD11" s="2" t="n">
         <v>1</v>
       </c>
       <c r="AE11" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="AF11" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="38" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="22" t="s">
+      <c r="AF11" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="AG11" s="13"/>
+      <c r="AH11" s="13"/>
+    </row>
+    <row r="12" customFormat="false" ht="37" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="18" t="s">
         <v>103</v>
       </c>
       <c r="B12" s="18" t="s">
@@ -5914,53 +4602,52 @@
       <c r="F12" s="2" t="n">
         <v>3</v>
       </c>
+      <c r="G12" s="0"/>
       <c r="H12" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="I12" s="17" t="s">
-        <v>115</v>
-      </c>
-      <c r="J12" s="23" t="s">
-        <v>109</v>
+        <v>1</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="K12" s="2" t="n">
         <v>1</v>
       </c>
       <c r="L12" s="0"/>
       <c r="M12" s="1" t="s">
-        <v>116</v>
+        <v>62</v>
       </c>
       <c r="N12" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="O12" s="0"/>
-      <c r="P12" s="0"/>
-      <c r="Q12" s="0"/>
-      <c r="R12" s="0"/>
+      <c r="O12" s="1" t="s">
+        <v>58</v>
+      </c>
       <c r="S12" s="0"/>
-      <c r="T12" s="0"/>
       <c r="U12" s="0"/>
-      <c r="V12" s="0"/>
-      <c r="W12" s="0"/>
-      <c r="X12" s="0"/>
-      <c r="Y12" s="0"/>
-      <c r="AA12" s="0"/>
+      <c r="W12" s="1" t="n">
+        <v>704</v>
+      </c>
+      <c r="Z12" s="3"/>
       <c r="AB12" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="AC12" s="19"/>
+        <v>37</v>
+      </c>
       <c r="AD12" s="2" t="n">
         <v>1</v>
       </c>
       <c r="AE12" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="AF12" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="38" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="22" t="s">
+      <c r="AF12" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="AG12" s="13"/>
+      <c r="AH12" s="13"/>
+    </row>
+    <row r="13" customFormat="false" ht="37" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A13" s="18" t="s">
         <v>103</v>
       </c>
       <c r="B13" s="18" t="s">
@@ -5978,53 +4665,52 @@
       <c r="F13" s="2" t="n">
         <v>3</v>
       </c>
+      <c r="G13" s="0"/>
       <c r="H13" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="I13" s="17" t="s">
-        <v>117</v>
-      </c>
-      <c r="J13" s="23" t="s">
-        <v>109</v>
+        <v>1</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="K13" s="2" t="n">
         <v>1</v>
       </c>
       <c r="L13" s="0"/>
       <c r="M13" s="1" t="s">
-        <v>118</v>
+        <v>64</v>
       </c>
       <c r="N13" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="O13" s="0"/>
-      <c r="P13" s="0"/>
-      <c r="Q13" s="0"/>
-      <c r="R13" s="0"/>
+      <c r="O13" s="1" t="s">
+        <v>58</v>
+      </c>
       <c r="S13" s="0"/>
-      <c r="T13" s="0"/>
       <c r="U13" s="0"/>
-      <c r="V13" s="0"/>
-      <c r="W13" s="0"/>
-      <c r="X13" s="0"/>
-      <c r="Y13" s="0"/>
-      <c r="AA13" s="0"/>
+      <c r="W13" s="1" t="n">
+        <v>705</v>
+      </c>
+      <c r="Z13" s="3"/>
       <c r="AB13" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="AC13" s="19"/>
+        <v>37</v>
+      </c>
       <c r="AD13" s="2" t="n">
         <v>1</v>
       </c>
       <c r="AE13" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="AF13" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="38" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="22" t="s">
+      <c r="AF13" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="AG13" s="13"/>
+      <c r="AH13" s="13"/>
+    </row>
+    <row r="14" customFormat="false" ht="37" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A14" s="18" t="s">
         <v>103</v>
       </c>
       <c r="B14" s="18" t="s">
@@ -6042,53 +4728,52 @@
       <c r="F14" s="2" t="n">
         <v>3</v>
       </c>
+      <c r="G14" s="0"/>
       <c r="H14" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="I14" s="17" t="s">
-        <v>119</v>
-      </c>
-      <c r="J14" s="23" t="s">
-        <v>109</v>
+        <v>1</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="K14" s="2" t="n">
         <v>1</v>
       </c>
       <c r="L14" s="0"/>
       <c r="M14" s="1" t="s">
-        <v>120</v>
+        <v>66</v>
       </c>
       <c r="N14" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="O14" s="0"/>
-      <c r="P14" s="0"/>
-      <c r="Q14" s="0"/>
-      <c r="R14" s="0"/>
+      <c r="O14" s="1" t="s">
+        <v>58</v>
+      </c>
       <c r="S14" s="0"/>
-      <c r="T14" s="0"/>
       <c r="U14" s="0"/>
-      <c r="V14" s="0"/>
-      <c r="W14" s="0"/>
-      <c r="X14" s="0"/>
-      <c r="Y14" s="0"/>
-      <c r="AA14" s="0"/>
+      <c r="W14" s="1" t="n">
+        <v>702</v>
+      </c>
+      <c r="Z14" s="3"/>
       <c r="AB14" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="AC14" s="19"/>
+        <v>37</v>
+      </c>
       <c r="AD14" s="2" t="n">
         <v>1</v>
       </c>
       <c r="AE14" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="AF14" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="38" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="22" t="s">
+      <c r="AF14" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="AG14" s="13"/>
+      <c r="AH14" s="13"/>
+    </row>
+    <row r="15" customFormat="false" ht="37" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A15" s="18" t="s">
         <v>103</v>
       </c>
       <c r="B15" s="18" t="s">
@@ -6100,59 +4785,45 @@
       <c r="D15" s="14" t="n">
         <v>0</v>
       </c>
-      <c r="E15" s="14" t="n">
-        <v>1</v>
-      </c>
+      <c r="E15" s="14"/>
       <c r="F15" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="H15" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="I15" s="17" t="s">
-        <v>121</v>
-      </c>
-      <c r="J15" s="23" t="s">
-        <v>109</v>
-      </c>
-      <c r="K15" s="2" t="n">
-        <v>1</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="H15" s="0"/>
+      <c r="I15" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="J15" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="K15" s="0"/>
       <c r="L15" s="0"/>
-      <c r="M15" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="N15" s="1" t="s">
-        <v>49</v>
-      </c>
+      <c r="M15" s="0"/>
+      <c r="N15" s="0"/>
       <c r="O15" s="0"/>
-      <c r="P15" s="0"/>
-      <c r="Q15" s="0"/>
-      <c r="R15" s="0"/>
       <c r="S15" s="0"/>
-      <c r="T15" s="0"/>
       <c r="U15" s="0"/>
-      <c r="V15" s="0"/>
-      <c r="W15" s="0"/>
-      <c r="X15" s="0"/>
-      <c r="Y15" s="0"/>
-      <c r="AA15" s="0"/>
+      <c r="Z15" s="3" t="n">
+        <v>0.355</v>
+      </c>
       <c r="AB15" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="AC15" s="19"/>
-      <c r="AD15" s="2" t="n">
-        <v>1</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="AD15" s="19"/>
       <c r="AE15" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="AF15" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="38" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF15" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="AG15" s="13"/>
+      <c r="AH15" s="13"/>
+    </row>
+    <row r="16" customFormat="false" ht="37" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A16" s="18" t="s">
         <v>103</v>
       </c>
       <c r="B16" s="18" t="s">
@@ -6170,53 +4841,51 @@
       <c r="F16" s="2" t="n">
         <v>3</v>
       </c>
+      <c r="G16" s="0"/>
       <c r="H16" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="I16" s="17" t="s">
-        <v>123</v>
-      </c>
-      <c r="J16" s="23" t="s">
-        <v>109</v>
+        <v>12</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>70</v>
       </c>
       <c r="K16" s="2" t="n">
         <v>1</v>
       </c>
       <c r="L16" s="0"/>
       <c r="M16" s="1" t="s">
-        <v>124</v>
+        <v>71</v>
       </c>
       <c r="N16" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="O16" s="0"/>
-      <c r="P16" s="0"/>
-      <c r="Q16" s="0"/>
-      <c r="R16" s="0"/>
+      <c r="O16" s="1" t="s">
+        <v>50</v>
+      </c>
       <c r="S16" s="0"/>
-      <c r="T16" s="0"/>
-      <c r="U16" s="0"/>
-      <c r="V16" s="0"/>
-      <c r="W16" s="0"/>
-      <c r="X16" s="0"/>
-      <c r="Y16" s="0"/>
-      <c r="AA16" s="0"/>
+      <c r="U16" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="Z16" s="3"/>
       <c r="AB16" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="AC16" s="19"/>
+        <v>37</v>
+      </c>
       <c r="AD16" s="2" t="n">
         <v>1</v>
       </c>
       <c r="AE16" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="AF16" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="38" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="22" t="s">
+      <c r="AF16" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="AG16" s="13"/>
+      <c r="AH16" s="13"/>
+    </row>
+    <row r="17" customFormat="false" ht="37" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A17" s="18" t="s">
         <v>103</v>
       </c>
       <c r="B17" s="18" t="s">
@@ -6234,53 +4903,51 @@
       <c r="F17" s="2" t="n">
         <v>3</v>
       </c>
+      <c r="G17" s="0"/>
       <c r="H17" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="I17" s="17" t="s">
-        <v>125</v>
-      </c>
-      <c r="J17" s="23" t="s">
-        <v>109</v>
+        <v>12</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>73</v>
       </c>
       <c r="K17" s="2" t="n">
         <v>1</v>
       </c>
       <c r="L17" s="0"/>
       <c r="M17" s="1" t="s">
-        <v>126</v>
+        <v>74</v>
       </c>
       <c r="N17" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="O17" s="0"/>
-      <c r="P17" s="0"/>
-      <c r="Q17" s="0"/>
-      <c r="R17" s="0"/>
+      <c r="O17" s="1" t="s">
+        <v>75</v>
+      </c>
       <c r="S17" s="0"/>
-      <c r="T17" s="0"/>
-      <c r="U17" s="0"/>
-      <c r="V17" s="0"/>
-      <c r="W17" s="0"/>
-      <c r="X17" s="0"/>
-      <c r="Y17" s="0"/>
-      <c r="AA17" s="0"/>
+      <c r="U17" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="Z17" s="3"/>
       <c r="AB17" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="AC17" s="19"/>
+        <v>37</v>
+      </c>
       <c r="AD17" s="2" t="n">
         <v>1</v>
       </c>
       <c r="AE17" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="AF17" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="38" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="22" t="s">
+      <c r="AF17" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="AG17" s="13"/>
+      <c r="AH17" s="13"/>
+    </row>
+    <row r="18" customFormat="false" ht="37" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A18" s="18" t="s">
         <v>103</v>
       </c>
       <c r="B18" s="18" t="s">
@@ -6298,53 +4965,50 @@
       <c r="F18" s="2" t="n">
         <v>3</v>
       </c>
+      <c r="G18" s="0"/>
       <c r="H18" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="I18" s="17" t="s">
-        <v>127</v>
-      </c>
-      <c r="J18" s="23" t="s">
-        <v>109</v>
+        <v>12</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="K18" s="2" t="n">
         <v>1</v>
       </c>
       <c r="L18" s="0"/>
       <c r="M18" s="1" t="s">
-        <v>128</v>
+        <v>77</v>
       </c>
       <c r="N18" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="O18" s="0"/>
-      <c r="P18" s="0"/>
-      <c r="Q18" s="0"/>
-      <c r="R18" s="0"/>
-      <c r="S18" s="0"/>
-      <c r="T18" s="0"/>
-      <c r="U18" s="0"/>
-      <c r="V18" s="0"/>
-      <c r="W18" s="0"/>
-      <c r="X18" s="0"/>
-      <c r="Y18" s="0"/>
-      <c r="AA18" s="0"/>
+      <c r="O18" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="S18" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="Z18" s="3"/>
       <c r="AB18" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="AC18" s="19"/>
       <c r="AD18" s="2" t="n">
         <v>1</v>
       </c>
       <c r="AE18" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="AF18" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="38" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="22" t="s">
+      <c r="AF18" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="AG18" s="13"/>
+      <c r="AH18" s="13"/>
+    </row>
+    <row r="19" customFormat="false" ht="37" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A19" s="18" t="s">
         <v>103</v>
       </c>
       <c r="B19" s="18" t="s">
@@ -6356,59 +5020,44 @@
       <c r="D19" s="14" t="n">
         <v>0</v>
       </c>
-      <c r="E19" s="14" t="n">
-        <v>1</v>
-      </c>
+      <c r="E19" s="14"/>
       <c r="F19" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="H19" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="I19" s="17" t="s">
-        <v>129</v>
-      </c>
-      <c r="J19" s="23" t="s">
-        <v>109</v>
-      </c>
-      <c r="K19" s="2" t="n">
-        <v>1</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="H19" s="0"/>
+      <c r="I19" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="J19" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="K19" s="0"/>
       <c r="L19" s="0"/>
-      <c r="M19" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="N19" s="1" t="s">
-        <v>49</v>
-      </c>
+      <c r="M19" s="0"/>
+      <c r="N19" s="0"/>
       <c r="O19" s="0"/>
-      <c r="P19" s="0"/>
-      <c r="Q19" s="0"/>
-      <c r="R19" s="0"/>
       <c r="S19" s="0"/>
-      <c r="T19" s="0"/>
-      <c r="U19" s="0"/>
-      <c r="V19" s="0"/>
-      <c r="W19" s="0"/>
-      <c r="X19" s="0"/>
-      <c r="Y19" s="0"/>
-      <c r="AA19" s="0"/>
+      <c r="Z19" s="3" t="n">
+        <v>0.29</v>
+      </c>
       <c r="AB19" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="AC19" s="19"/>
-      <c r="AD19" s="2" t="n">
-        <v>1</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="AD19" s="19"/>
       <c r="AE19" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="AF19" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="38" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF19" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="AG19" s="13"/>
+      <c r="AH19" s="13"/>
+    </row>
+    <row r="20" customFormat="false" ht="37" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A20" s="18" t="s">
         <v>103</v>
       </c>
       <c r="B20" s="18" t="s">
@@ -6427,49 +5076,295 @@
         <v>3</v>
       </c>
       <c r="H20" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="I20" s="17" t="s">
-        <v>131</v>
-      </c>
-      <c r="J20" s="23" t="s">
-        <v>109</v>
-      </c>
-      <c r="K20" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="L20" s="13"/>
+        <v>16</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="J20" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="K20" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" s="1" t="s">
+        <v>84</v>
+      </c>
       <c r="M20" s="1" t="s">
-        <v>132</v>
+        <v>85</v>
       </c>
       <c r="N20" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="O20" s="13"/>
-      <c r="P20" s="13"/>
-      <c r="Q20" s="13"/>
-      <c r="R20" s="13"/>
-      <c r="S20" s="13"/>
-      <c r="T20" s="13"/>
-      <c r="U20" s="13"/>
-      <c r="V20" s="13"/>
-      <c r="W20" s="13"/>
-      <c r="X20" s="13"/>
-      <c r="Y20" s="13"/>
-      <c r="AA20" s="13"/>
+      <c r="O20" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="S20" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="Z20" s="3"/>
       <c r="AB20" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="AC20" s="14"/>
+        <v>37</v>
+      </c>
       <c r="AD20" s="2" t="n">
         <v>1</v>
       </c>
       <c r="AE20" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="AF20" s="1" t="s">
-        <v>39</v>
-      </c>
+      <c r="AF20" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="AG20" s="13"/>
+      <c r="AH20" s="13"/>
+    </row>
+    <row r="21" customFormat="false" ht="37" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A21" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="B21" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="C21" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="D21" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E21" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="F21" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="H21" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="J21" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="K21" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="M21" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="N21" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="O21" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="S21" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="Z21" s="3"/>
+      <c r="AB21" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="AD21" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE21" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="AF21" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="AG21" s="13"/>
+      <c r="AH21" s="13"/>
+    </row>
+    <row r="22" customFormat="false" ht="37" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A22" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="B22" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="C22" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="D22" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="F22" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="H22" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="J22" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="K22" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="M22" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="N22" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="O22" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="S22" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="Z22" s="3"/>
+      <c r="AB22" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="AD22" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE22" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="AF22" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="AG22" s="13"/>
+      <c r="AH22" s="13"/>
+    </row>
+    <row r="23" customFormat="false" ht="37" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A23" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="B23" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="C23" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="D23" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="F23" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="H23" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="J23" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="K23" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="M23" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="N23" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="O23" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="S23" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="Z23" s="3"/>
+      <c r="AB23" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="AD23" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE23" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="AF23" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="AG23" s="13"/>
+      <c r="AH23" s="13"/>
+    </row>
+    <row r="24" customFormat="false" ht="37" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A24" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="B24" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="C24" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="D24" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E24" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="F24" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="H24" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="J24" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="K24" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="M24" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="N24" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="O24" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="S24" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="Z24" s="3"/>
+      <c r="AB24" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="AD24" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE24" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="AF24" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="AG24" s="13"/>
+      <c r="AH24" s="13"/>
     </row>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
@@ -6496,22 +5391,22 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="19.2834008097166"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="18.2834008097166"/>
-    <col collapsed="false" hidden="false" max="6" min="3" style="2" width="19.2834008097166"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="22.7085020242915"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="19.2834008097166"/>
-    <col collapsed="false" hidden="false" max="10" min="9" style="1" width="19.2834008097166"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="2" width="19.2834008097166"/>
-    <col collapsed="false" hidden="false" max="13" min="12" style="1" width="19.2834008097166"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="2" width="19.2834008097166"/>
-    <col collapsed="false" hidden="false" max="25" min="15" style="1" width="19.2834008097166"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="2" width="19.2834008097166"/>
-    <col collapsed="false" hidden="false" max="28" min="27" style="1" width="19.2834008097166"/>
-    <col collapsed="false" hidden="false" max="30" min="29" style="2" width="19.2834008097166"/>
-    <col collapsed="false" hidden="false" max="32" min="31" style="1" width="19.2834008097166"/>
-    <col collapsed="false" hidden="false" max="37" min="33" style="0" width="9.71255060728745"/>
-    <col collapsed="false" hidden="false" max="1025" min="38" style="1" width="19.2834008097166"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="20.1376518218623"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="19.1376518218624"/>
+    <col collapsed="false" hidden="false" max="6" min="3" style="2" width="20.1376518218623"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="23.7085020242915"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="20.1376518218623"/>
+    <col collapsed="false" hidden="false" max="10" min="9" style="1" width="20.1376518218623"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="2" width="20.1376518218623"/>
+    <col collapsed="false" hidden="false" max="13" min="12" style="1" width="20.1376518218623"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="2" width="20.1376518218623"/>
+    <col collapsed="false" hidden="false" max="25" min="15" style="1" width="20.1376518218623"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="2" width="20.1376518218623"/>
+    <col collapsed="false" hidden="false" max="28" min="27" style="1" width="20.1376518218623"/>
+    <col collapsed="false" hidden="false" max="30" min="29" style="2" width="20.1376518218623"/>
+    <col collapsed="false" hidden="false" max="32" min="31" style="1" width="20.1376518218623"/>
+    <col collapsed="false" hidden="false" max="37" min="33" style="0" width="10.1417004048583"/>
+    <col collapsed="false" hidden="false" max="1025" min="38" style="1" width="20.1376518218623"/>
   </cols>
   <sheetData>
     <row r="1" s="5" customFormat="true" ht="65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6619,7 +5514,7 @@
     </row>
     <row r="2" s="4" customFormat="true" ht="39" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="18" t="s">
-        <v>133</v>
+        <v>104</v>
       </c>
       <c r="B2" s="11" t="s">
         <v>33</v>
@@ -6669,7 +5564,7 @@
     </row>
     <row r="3" s="4" customFormat="true" ht="39" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="18" t="s">
-        <v>133</v>
+        <v>104</v>
       </c>
       <c r="B3" s="11" t="s">
         <v>33</v>
@@ -6719,7 +5614,7 @@
     </row>
     <row r="4" customFormat="false" ht="40" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="18" t="s">
-        <v>133</v>
+        <v>104</v>
       </c>
       <c r="B4" s="18" t="s">
         <v>42</v>
@@ -6777,7 +5672,7 @@
     </row>
     <row r="5" customFormat="false" ht="40" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="18" t="s">
-        <v>133</v>
+        <v>104</v>
       </c>
       <c r="B5" s="18" t="s">
         <v>42</v>
@@ -6838,7 +5733,7 @@
     </row>
     <row r="6" customFormat="false" ht="40" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="18" t="s">
-        <v>133</v>
+        <v>104</v>
       </c>
       <c r="B6" s="18" t="s">
         <v>42</v>
@@ -6899,7 +5794,7 @@
     </row>
     <row r="7" customFormat="false" ht="40" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="18" t="s">
-        <v>133</v>
+        <v>104</v>
       </c>
       <c r="B7" s="18" t="s">
         <v>42</v>
@@ -6960,7 +5855,7 @@
     </row>
     <row r="8" customFormat="false" ht="40" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="18" t="s">
-        <v>133</v>
+        <v>104</v>
       </c>
       <c r="B8" s="18" t="s">
         <v>42</v>
@@ -7021,7 +5916,7 @@
     </row>
     <row r="9" customFormat="false" ht="40" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="18" t="s">
-        <v>133</v>
+        <v>104</v>
       </c>
       <c r="B9" s="18" t="s">
         <v>42</v>
@@ -7082,7 +5977,7 @@
     </row>
     <row r="10" customFormat="false" ht="40" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="18" t="s">
-        <v>133</v>
+        <v>104</v>
       </c>
       <c r="B10" s="18" t="s">
         <v>42</v>
@@ -7143,7 +6038,7 @@
     </row>
     <row r="11" customFormat="false" ht="40" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="18" t="s">
-        <v>133</v>
+        <v>104</v>
       </c>
       <c r="B11" s="18" t="s">
         <v>42</v>
@@ -7204,7 +6099,7 @@
     </row>
     <row r="12" customFormat="false" ht="40" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="18" t="s">
-        <v>133</v>
+        <v>104</v>
       </c>
       <c r="B12" s="18" t="s">
         <v>42</v>
@@ -7265,7 +6160,7 @@
     </row>
     <row r="13" customFormat="false" ht="40" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="18" t="s">
-        <v>133</v>
+        <v>104</v>
       </c>
       <c r="B13" s="18" t="s">
         <v>42</v>
@@ -7326,7 +6221,7 @@
     </row>
     <row r="14" customFormat="false" ht="40" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="18" t="s">
-        <v>133</v>
+        <v>104</v>
       </c>
       <c r="B14" s="18" t="s">
         <v>42</v>
@@ -7387,7 +6282,7 @@
     </row>
     <row r="15" customFormat="false" ht="40" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="18" t="s">
-        <v>133</v>
+        <v>104</v>
       </c>
       <c r="B15" s="18" t="s">
         <v>42</v>
@@ -7435,7 +6330,7 @@
     </row>
     <row r="16" customFormat="false" ht="40" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="18" t="s">
-        <v>133</v>
+        <v>104</v>
       </c>
       <c r="B16" s="18" t="s">
         <v>42</v>
@@ -7495,7 +6390,7 @@
     </row>
     <row r="17" customFormat="false" ht="40" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="18" t="s">
-        <v>133</v>
+        <v>104</v>
       </c>
       <c r="B17" s="18" t="s">
         <v>42</v>
@@ -7555,7 +6450,7 @@
     </row>
     <row r="18" customFormat="false" ht="40" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="18" t="s">
-        <v>133</v>
+        <v>104</v>
       </c>
       <c r="B18" s="18" t="s">
         <v>42</v>
@@ -7614,7 +6509,7 @@
     </row>
     <row r="19" customFormat="false" ht="40" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="18" t="s">
-        <v>133</v>
+        <v>104</v>
       </c>
       <c r="B19" s="18" t="s">
         <v>42</v>
@@ -7661,7 +6556,7 @@
     </row>
     <row r="20" customFormat="false" ht="40" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="18" t="s">
-        <v>133</v>
+        <v>104</v>
       </c>
       <c r="B20" s="18" t="s">
         <v>42</v>
@@ -7721,7 +6616,7 @@
     </row>
     <row r="21" customFormat="false" ht="40" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="18" t="s">
-        <v>133</v>
+        <v>104</v>
       </c>
       <c r="B21" s="18" t="s">
         <v>42</v>
@@ -7781,7 +6676,7 @@
     </row>
     <row r="22" customFormat="false" ht="40" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="18" t="s">
-        <v>133</v>
+        <v>104</v>
       </c>
       <c r="B22" s="18" t="s">
         <v>42</v>
@@ -7841,7 +6736,7 @@
     </row>
     <row r="23" customFormat="false" ht="40" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="18" t="s">
-        <v>133</v>
+        <v>104</v>
       </c>
       <c r="B23" s="18" t="s">
         <v>42</v>
@@ -7901,7 +6796,7 @@
     </row>
     <row r="24" customFormat="false" ht="40" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="18" t="s">
-        <v>133</v>
+        <v>104</v>
       </c>
       <c r="B24" s="18" t="s">
         <v>42</v>
@@ -7976,29 +6871,31 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AJ65536"/>
+  <dimension ref="A1:AK65536"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I22" activeCellId="0" sqref="I22"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="M1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="20.4251012145749"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="18.2834008097166"/>
-    <col collapsed="false" hidden="false" max="6" min="3" style="2" width="20.4251012145749"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="20.4251012145749"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="20.4251012145749"/>
-    <col collapsed="false" hidden="false" max="10" min="9" style="1" width="20.4251012145749"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="2" width="20.4251012145749"/>
-    <col collapsed="false" hidden="false" max="25" min="12" style="1" width="20.4251012145749"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="2" width="20.4251012145749"/>
-    <col collapsed="false" hidden="false" max="28" min="27" style="1" width="20.4251012145749"/>
-    <col collapsed="false" hidden="false" max="30" min="29" style="2" width="20.4251012145749"/>
-    <col collapsed="false" hidden="false" max="1025" min="31" style="1" width="20.4251012145749"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="19.995951417004"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="19.1376518218624"/>
+    <col collapsed="false" hidden="false" max="6" min="3" style="2" width="19.995951417004"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="19.995951417004"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="19.995951417004"/>
+    <col collapsed="false" hidden="false" max="10" min="9" style="1" width="19.995951417004"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="2" width="19.995951417004"/>
+    <col collapsed="false" hidden="false" max="25" min="12" style="1" width="19.995951417004"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="2" width="19.995951417004"/>
+    <col collapsed="false" hidden="false" max="28" min="27" style="1" width="19.995951417004"/>
+    <col collapsed="false" hidden="false" max="30" min="29" style="2" width="19.995951417004"/>
+    <col collapsed="false" hidden="false" max="32" min="31" style="1" width="19.995951417004"/>
+    <col collapsed="false" hidden="false" max="37" min="33" style="20" width="19.995951417004"/>
+    <col collapsed="false" hidden="false" max="1025" min="38" style="1" width="19.995951417004"/>
   </cols>
   <sheetData>
-    <row r="1" s="5" customFormat="true" ht="59" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" s="5" customFormat="true" ht="64" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -8026,82 +6923,84 @@
       <c r="I1" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="J1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="K1" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="8" t="s">
+      <c r="L1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="9" t="s">
+      <c r="M1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="8" t="s">
+      <c r="N1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="8" t="s">
+      <c r="O1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="8" t="s">
+      <c r="P1" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="8" t="s">
+      <c r="Q1" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="8" t="s">
+      <c r="R1" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="8" t="s">
+      <c r="S1" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="8" t="s">
+      <c r="T1" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="8" t="s">
+      <c r="U1" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="8" t="s">
+      <c r="V1" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="8" t="s">
+      <c r="W1" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="8" t="s">
+      <c r="X1" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="8" t="s">
+      <c r="Y1" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="10" t="s">
+      <c r="Z1" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="8" t="s">
+      <c r="AA1" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="8" t="s">
+      <c r="AB1" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="6" t="s">
+      <c r="AC1" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="6" t="s">
+      <c r="AD1" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="8" t="s">
+      <c r="AE1" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="8" t="s">
+      <c r="AF1" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="8"/>
-      <c r="AH1" s="8"/>
-      <c r="AJ1" s="8"/>
+      <c r="AG1" s="21"/>
+      <c r="AH1" s="21"/>
+      <c r="AI1" s="21"/>
+      <c r="AJ1" s="21"/>
+      <c r="AK1" s="21"/>
     </row>
     <row r="2" s="4" customFormat="true" ht="39" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="18" t="s">
-        <v>134</v>
+      <c r="A2" s="22" t="s">
+        <v>105</v>
       </c>
       <c r="B2" s="11" t="s">
         <v>33</v>
@@ -8133,7 +7032,7 @@
         <v>36</v>
       </c>
       <c r="Z2" s="12" t="n">
-        <v>0.35</v>
+        <v>0.4</v>
       </c>
       <c r="AB2" s="11" t="s">
         <v>37</v>
@@ -8150,8 +7049,8 @@
       </c>
     </row>
     <row r="3" s="4" customFormat="true" ht="39" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="18" t="s">
-        <v>134</v>
+      <c r="A3" s="22" t="s">
+        <v>105</v>
       </c>
       <c r="B3" s="11" t="s">
         <v>33</v>
@@ -8183,7 +7082,7 @@
         <v>36</v>
       </c>
       <c r="Z3" s="12" t="n">
-        <v>0.65</v>
+        <v>0.6</v>
       </c>
       <c r="AB3" s="11" t="s">
         <v>37</v>
@@ -8199,9 +7098,9 @@
         <v>39</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="37" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="18" t="s">
-        <v>134</v>
+    <row r="4" customFormat="false" ht="38" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="22" t="s">
+        <v>105</v>
       </c>
       <c r="B4" s="18" t="s">
         <v>42</v>
@@ -8209,59 +7108,57 @@
       <c r="C4" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="D4" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" s="14"/>
+      <c r="D4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" s="0"/>
       <c r="F4" s="2" t="n">
         <v>2</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>43</v>
+        <v>106</v>
       </c>
       <c r="H4" s="0"/>
-      <c r="I4" s="13" t="s">
-        <v>44</v>
+      <c r="I4" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="J4" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="K4" s="14"/>
-      <c r="L4" s="13"/>
-      <c r="M4" s="16"/>
-      <c r="N4" s="13"/>
-      <c r="O4" s="13"/>
-      <c r="P4" s="13"/>
-      <c r="Q4" s="13"/>
-      <c r="R4" s="13"/>
-      <c r="S4" s="13"/>
-      <c r="T4" s="13"/>
-      <c r="U4" s="13"/>
-      <c r="V4" s="13"/>
-      <c r="W4" s="13"/>
-      <c r="X4" s="13"/>
-      <c r="Y4" s="13"/>
-      <c r="Z4" s="3" t="n">
-        <v>0.355</v>
-      </c>
-      <c r="AA4" s="13"/>
-      <c r="AB4" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="AC4" s="14"/>
-      <c r="AD4" s="14"/>
-      <c r="AE4" s="13" t="s">
+      <c r="K4" s="0"/>
+      <c r="L4" s="0"/>
+      <c r="M4" s="0"/>
+      <c r="N4" s="0"/>
+      <c r="O4" s="0"/>
+      <c r="P4" s="0"/>
+      <c r="Q4" s="0"/>
+      <c r="R4" s="0"/>
+      <c r="S4" s="0"/>
+      <c r="T4" s="0"/>
+      <c r="U4" s="0"/>
+      <c r="V4" s="0"/>
+      <c r="W4" s="0"/>
+      <c r="X4" s="0"/>
+      <c r="Y4" s="0"/>
+      <c r="Z4" s="2" t="n">
+        <v>0.333</v>
+      </c>
+      <c r="AA4" s="0"/>
+      <c r="AB4" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="AC4" s="19"/>
+      <c r="AD4" s="19"/>
+      <c r="AE4" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="AF4" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="AG4" s="13"/>
-      <c r="AH4" s="13"/>
-    </row>
-    <row r="5" customFormat="false" ht="37" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="18" t="s">
-        <v>134</v>
+      <c r="AF4" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="38" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="22" t="s">
+        <v>105</v>
       </c>
       <c r="B5" s="18" t="s">
         <v>42</v>
@@ -8269,10 +7166,10 @@
       <c r="C5" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="D5" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" s="14" t="n">
+      <c r="D5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" s="2" t="n">
         <v>1</v>
       </c>
       <c r="F5" s="2" t="n">
@@ -8283,17 +7180,17 @@
         <v>1</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>47</v>
+        <v>69</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>48</v>
+        <v>70</v>
       </c>
       <c r="K5" s="2" t="n">
         <v>1</v>
       </c>
       <c r="L5" s="0"/>
       <c r="M5" s="1" t="s">
-        <v>47</v>
+        <v>71</v>
       </c>
       <c r="N5" s="1" t="s">
         <v>49</v>
@@ -8301,30 +7198,37 @@
       <c r="O5" s="1" t="s">
         <v>50</v>
       </c>
+      <c r="P5" s="0"/>
+      <c r="Q5" s="0"/>
+      <c r="R5" s="0"/>
       <c r="S5" s="0"/>
+      <c r="T5" s="0"/>
       <c r="U5" s="1" t="s">
-        <v>47</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="V5" s="0"/>
       <c r="W5" s="0"/>
-      <c r="Z5" s="3"/>
-      <c r="AB5" s="13" t="s">
+      <c r="X5" s="0"/>
+      <c r="Y5" s="0"/>
+      <c r="Z5" s="19"/>
+      <c r="AA5" s="0"/>
+      <c r="AB5" s="1" t="s">
         <v>37</v>
       </c>
+      <c r="AC5" s="19"/>
       <c r="AD5" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="AE5" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="AF5" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="AG5" s="13"/>
-      <c r="AH5" s="13"/>
-    </row>
-    <row r="6" customFormat="false" ht="37" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="18" t="s">
-        <v>134</v>
+      <c r="AE5" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AF5" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="38" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="22" t="s">
+        <v>105</v>
       </c>
       <c r="B6" s="18" t="s">
         <v>42</v>
@@ -8332,10 +7236,10 @@
       <c r="C6" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="D6" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="E6" s="14" t="n">
+      <c r="D6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" s="2" t="n">
         <v>1</v>
       </c>
       <c r="F6" s="2" t="n">
@@ -8346,48 +7250,55 @@
         <v>1</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>51</v>
+        <v>72</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>48</v>
+        <v>73</v>
       </c>
       <c r="K6" s="2" t="n">
         <v>1</v>
       </c>
       <c r="L6" s="0"/>
       <c r="M6" s="1" t="s">
-        <v>51</v>
+        <v>74</v>
       </c>
       <c r="N6" s="1" t="s">
         <v>49</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>50</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="P6" s="0"/>
+      <c r="Q6" s="0"/>
+      <c r="R6" s="0"/>
       <c r="S6" s="0"/>
+      <c r="T6" s="0"/>
       <c r="U6" s="1" t="s">
-        <v>51</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="V6" s="0"/>
       <c r="W6" s="0"/>
-      <c r="Z6" s="3"/>
-      <c r="AB6" s="13" t="s">
+      <c r="X6" s="0"/>
+      <c r="Y6" s="0"/>
+      <c r="Z6" s="19"/>
+      <c r="AA6" s="0"/>
+      <c r="AB6" s="1" t="s">
         <v>37</v>
       </c>
+      <c r="AC6" s="19"/>
       <c r="AD6" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="AE6" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="AF6" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="AG6" s="13"/>
-      <c r="AH6" s="13"/>
-    </row>
-    <row r="7" customFormat="false" ht="37" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="18" t="s">
-        <v>134</v>
+      <c r="AE6" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AF6" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="38" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="22" t="s">
+        <v>105</v>
       </c>
       <c r="B7" s="18" t="s">
         <v>42</v>
@@ -8395,10 +7306,10 @@
       <c r="C7" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="D7" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="E7" s="14" t="n">
+      <c r="D7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" s="2" t="n">
         <v>1</v>
       </c>
       <c r="F7" s="2" t="n">
@@ -8409,7 +7320,7 @@
         <v>1</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>52</v>
+        <v>76</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>48</v>
@@ -8419,38 +7330,45 @@
       </c>
       <c r="L7" s="0"/>
       <c r="M7" s="1" t="s">
-        <v>52</v>
+        <v>77</v>
       </c>
       <c r="N7" s="1" t="s">
         <v>49</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="S7" s="0"/>
-      <c r="U7" s="1" t="s">
-        <v>52</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="P7" s="0"/>
+      <c r="Q7" s="0"/>
+      <c r="R7" s="0"/>
+      <c r="S7" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="T7" s="0"/>
+      <c r="U7" s="0"/>
+      <c r="V7" s="0"/>
       <c r="W7" s="0"/>
-      <c r="Z7" s="3"/>
-      <c r="AB7" s="13" t="s">
-        <v>37</v>
-      </c>
+      <c r="X7" s="0"/>
+      <c r="Y7" s="0"/>
+      <c r="Z7" s="19"/>
+      <c r="AA7" s="0"/>
+      <c r="AB7" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="AC7" s="19"/>
       <c r="AD7" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="AE7" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="AF7" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="AG7" s="13"/>
-      <c r="AH7" s="13"/>
-    </row>
-    <row r="8" customFormat="false" ht="37" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="18" t="s">
-        <v>134</v>
+      <c r="AE7" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AF7" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="38" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="22" t="s">
+        <v>105</v>
       </c>
       <c r="B8" s="18" t="s">
         <v>42</v>
@@ -8458,62 +7376,57 @@
       <c r="C8" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="D8" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="E8" s="14" t="n">
-        <v>1</v>
-      </c>
+      <c r="D8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" s="0"/>
       <c r="F8" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="G8" s="0"/>
-      <c r="H8" s="2" t="n">
-        <v>1</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="H8" s="0"/>
       <c r="I8" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="K8" s="2" t="n">
-        <v>1</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="J8" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="K8" s="0"/>
       <c r="L8" s="0"/>
-      <c r="M8" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="N8" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="O8" s="1" t="s">
-        <v>50</v>
-      </c>
+      <c r="M8" s="0"/>
+      <c r="N8" s="0"/>
+      <c r="O8" s="0"/>
+      <c r="P8" s="0"/>
+      <c r="Q8" s="0"/>
+      <c r="R8" s="0"/>
       <c r="S8" s="0"/>
-      <c r="U8" s="1" t="s">
-        <v>54</v>
-      </c>
+      <c r="T8" s="0"/>
+      <c r="U8" s="0"/>
+      <c r="V8" s="0"/>
       <c r="W8" s="0"/>
-      <c r="Z8" s="3"/>
-      <c r="AB8" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="AD8" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE8" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="AF8" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="AG8" s="13"/>
-      <c r="AH8" s="13"/>
-    </row>
-    <row r="9" customFormat="false" ht="37" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="18" t="s">
-        <v>134</v>
+      <c r="X8" s="0"/>
+      <c r="Y8" s="0"/>
+      <c r="Z8" s="2" t="n">
+        <v>0.667</v>
+      </c>
+      <c r="AA8" s="0"/>
+      <c r="AB8" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="AC8" s="19"/>
+      <c r="AD8" s="19"/>
+      <c r="AE8" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF8" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="38" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="22" t="s">
+        <v>105</v>
       </c>
       <c r="B9" s="18" t="s">
         <v>42</v>
@@ -8530,53 +7443,54 @@
       <c r="F9" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="G9" s="0"/>
       <c r="H9" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>48</v>
+        <v>5</v>
+      </c>
+      <c r="I9" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="J9" s="23" t="s">
+        <v>111</v>
       </c>
       <c r="K9" s="2" t="n">
         <v>1</v>
       </c>
       <c r="L9" s="0"/>
       <c r="M9" s="1" t="s">
-        <v>55</v>
+        <v>112</v>
       </c>
       <c r="N9" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="O9" s="1" t="s">
-        <v>50</v>
-      </c>
+      <c r="O9" s="0"/>
+      <c r="P9" s="0"/>
+      <c r="Q9" s="0"/>
+      <c r="R9" s="0"/>
       <c r="S9" s="0"/>
-      <c r="U9" s="1" t="s">
-        <v>55</v>
-      </c>
+      <c r="T9" s="0"/>
+      <c r="U9" s="0"/>
+      <c r="V9" s="0"/>
       <c r="W9" s="0"/>
-      <c r="Z9" s="3"/>
+      <c r="X9" s="0"/>
+      <c r="Y9" s="0"/>
+      <c r="AA9" s="0"/>
       <c r="AB9" s="13" t="s">
-        <v>37</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="AC9" s="19"/>
       <c r="AD9" s="2" t="n">
         <v>1</v>
       </c>
       <c r="AE9" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="AF9" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="AG9" s="13"/>
-      <c r="AH9" s="13"/>
-    </row>
-    <row r="10" customFormat="false" ht="37" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="18" t="s">
-        <v>134</v>
+      <c r="AF9" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="38" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="22" t="s">
+        <v>105</v>
       </c>
       <c r="B10" s="18" t="s">
         <v>42</v>
@@ -8593,53 +7507,54 @@
       <c r="F10" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="G10" s="0"/>
       <c r="H10" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>48</v>
+        <v>5</v>
+      </c>
+      <c r="I10" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="J10" s="23" t="s">
+        <v>111</v>
       </c>
       <c r="K10" s="2" t="n">
         <v>1</v>
       </c>
       <c r="L10" s="0"/>
       <c r="M10" s="1" t="s">
-        <v>57</v>
+        <v>114</v>
       </c>
       <c r="N10" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="O10" s="1" t="s">
-        <v>58</v>
-      </c>
+      <c r="O10" s="0"/>
+      <c r="P10" s="0"/>
+      <c r="Q10" s="0"/>
+      <c r="R10" s="0"/>
       <c r="S10" s="0"/>
+      <c r="T10" s="0"/>
       <c r="U10" s="0"/>
-      <c r="W10" s="1" t="n">
-        <v>701</v>
-      </c>
-      <c r="Z10" s="3"/>
+      <c r="V10" s="0"/>
+      <c r="W10" s="0"/>
+      <c r="X10" s="0"/>
+      <c r="Y10" s="0"/>
+      <c r="AA10" s="0"/>
       <c r="AB10" s="13" t="s">
-        <v>37</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="AC10" s="19"/>
       <c r="AD10" s="2" t="n">
         <v>1</v>
       </c>
       <c r="AE10" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="AF10" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="AG10" s="13"/>
-      <c r="AH10" s="13"/>
-    </row>
-    <row r="11" customFormat="false" ht="37" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="18" t="s">
-        <v>134</v>
+      <c r="AF10" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="38" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="22" t="s">
+        <v>105</v>
       </c>
       <c r="B11" s="18" t="s">
         <v>42</v>
@@ -8656,53 +7571,54 @@
       <c r="F11" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="G11" s="0"/>
       <c r="H11" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>48</v>
+        <v>5</v>
+      </c>
+      <c r="I11" s="17" t="s">
+        <v>115</v>
+      </c>
+      <c r="J11" s="23" t="s">
+        <v>111</v>
       </c>
       <c r="K11" s="2" t="n">
         <v>1</v>
       </c>
       <c r="L11" s="0"/>
       <c r="M11" s="1" t="s">
-        <v>60</v>
+        <v>116</v>
       </c>
       <c r="N11" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="O11" s="1" t="s">
-        <v>58</v>
-      </c>
+      <c r="O11" s="0"/>
+      <c r="P11" s="0"/>
+      <c r="Q11" s="0"/>
+      <c r="R11" s="0"/>
       <c r="S11" s="0"/>
+      <c r="T11" s="0"/>
       <c r="U11" s="0"/>
-      <c r="W11" s="1" t="n">
-        <v>703</v>
-      </c>
-      <c r="Z11" s="3"/>
+      <c r="V11" s="0"/>
+      <c r="W11" s="0"/>
+      <c r="X11" s="0"/>
+      <c r="Y11" s="0"/>
+      <c r="AA11" s="0"/>
       <c r="AB11" s="13" t="s">
-        <v>37</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="AC11" s="19"/>
       <c r="AD11" s="2" t="n">
         <v>1</v>
       </c>
       <c r="AE11" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="AF11" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="AG11" s="13"/>
-      <c r="AH11" s="13"/>
-    </row>
-    <row r="12" customFormat="false" ht="37" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="18" t="s">
-        <v>134</v>
+      <c r="AF11" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="38" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="22" t="s">
+        <v>105</v>
       </c>
       <c r="B12" s="18" t="s">
         <v>42</v>
@@ -8719,53 +7635,54 @@
       <c r="F12" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="G12" s="0"/>
       <c r="H12" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>48</v>
+        <v>5</v>
+      </c>
+      <c r="I12" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="J12" s="23" t="s">
+        <v>111</v>
       </c>
       <c r="K12" s="2" t="n">
         <v>1</v>
       </c>
       <c r="L12" s="0"/>
       <c r="M12" s="1" t="s">
-        <v>62</v>
+        <v>118</v>
       </c>
       <c r="N12" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="O12" s="1" t="s">
-        <v>58</v>
-      </c>
+      <c r="O12" s="0"/>
+      <c r="P12" s="0"/>
+      <c r="Q12" s="0"/>
+      <c r="R12" s="0"/>
       <c r="S12" s="0"/>
+      <c r="T12" s="0"/>
       <c r="U12" s="0"/>
-      <c r="W12" s="1" t="n">
-        <v>704</v>
-      </c>
-      <c r="Z12" s="3"/>
+      <c r="V12" s="0"/>
+      <c r="W12" s="0"/>
+      <c r="X12" s="0"/>
+      <c r="Y12" s="0"/>
+      <c r="AA12" s="0"/>
       <c r="AB12" s="13" t="s">
-        <v>37</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="AC12" s="19"/>
       <c r="AD12" s="2" t="n">
         <v>1</v>
       </c>
       <c r="AE12" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="AF12" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="AG12" s="13"/>
-      <c r="AH12" s="13"/>
-    </row>
-    <row r="13" customFormat="false" ht="37" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="18" t="s">
-        <v>134</v>
+      <c r="AF12" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="38" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A13" s="22" t="s">
+        <v>105</v>
       </c>
       <c r="B13" s="18" t="s">
         <v>42</v>
@@ -8782,53 +7699,54 @@
       <c r="F13" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="G13" s="0"/>
       <c r="H13" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>48</v>
+        <v>5</v>
+      </c>
+      <c r="I13" s="17" t="s">
+        <v>119</v>
+      </c>
+      <c r="J13" s="23" t="s">
+        <v>111</v>
       </c>
       <c r="K13" s="2" t="n">
         <v>1</v>
       </c>
       <c r="L13" s="0"/>
       <c r="M13" s="1" t="s">
-        <v>64</v>
+        <v>120</v>
       </c>
       <c r="N13" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="O13" s="1" t="s">
-        <v>58</v>
-      </c>
+      <c r="O13" s="0"/>
+      <c r="P13" s="0"/>
+      <c r="Q13" s="0"/>
+      <c r="R13" s="0"/>
       <c r="S13" s="0"/>
+      <c r="T13" s="0"/>
       <c r="U13" s="0"/>
-      <c r="W13" s="1" t="n">
-        <v>705</v>
-      </c>
-      <c r="Z13" s="3"/>
+      <c r="V13" s="0"/>
+      <c r="W13" s="0"/>
+      <c r="X13" s="0"/>
+      <c r="Y13" s="0"/>
+      <c r="AA13" s="0"/>
       <c r="AB13" s="13" t="s">
-        <v>37</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="AC13" s="19"/>
       <c r="AD13" s="2" t="n">
         <v>1</v>
       </c>
       <c r="AE13" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="AF13" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="AG13" s="13"/>
-      <c r="AH13" s="13"/>
-    </row>
-    <row r="14" customFormat="false" ht="37" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="18" t="s">
-        <v>134</v>
+      <c r="AF13" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="38" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A14" s="22" t="s">
+        <v>105</v>
       </c>
       <c r="B14" s="18" t="s">
         <v>42</v>
@@ -8845,53 +7763,54 @@
       <c r="F14" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="G14" s="0"/>
       <c r="H14" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>48</v>
+        <v>5</v>
+      </c>
+      <c r="I14" s="17" t="s">
+        <v>121</v>
+      </c>
+      <c r="J14" s="23" t="s">
+        <v>111</v>
       </c>
       <c r="K14" s="2" t="n">
         <v>1</v>
       </c>
       <c r="L14" s="0"/>
       <c r="M14" s="1" t="s">
-        <v>66</v>
+        <v>122</v>
       </c>
       <c r="N14" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="O14" s="1" t="s">
-        <v>58</v>
-      </c>
+      <c r="O14" s="0"/>
+      <c r="P14" s="0"/>
+      <c r="Q14" s="0"/>
+      <c r="R14" s="0"/>
       <c r="S14" s="0"/>
+      <c r="T14" s="0"/>
       <c r="U14" s="0"/>
-      <c r="W14" s="1" t="n">
-        <v>702</v>
-      </c>
-      <c r="Z14" s="3"/>
+      <c r="V14" s="0"/>
+      <c r="W14" s="0"/>
+      <c r="X14" s="0"/>
+      <c r="Y14" s="0"/>
+      <c r="AA14" s="0"/>
       <c r="AB14" s="13" t="s">
-        <v>37</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="AC14" s="19"/>
       <c r="AD14" s="2" t="n">
         <v>1</v>
       </c>
       <c r="AE14" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="AF14" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="AG14" s="13"/>
-      <c r="AH14" s="13"/>
-    </row>
-    <row r="15" customFormat="false" ht="37" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="18" t="s">
-        <v>134</v>
+      <c r="AF14" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="38" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A15" s="22" t="s">
+        <v>105</v>
       </c>
       <c r="B15" s="18" t="s">
         <v>42</v>
@@ -8902,46 +7821,60 @@
       <c r="D15" s="14" t="n">
         <v>0</v>
       </c>
-      <c r="E15" s="14"/>
+      <c r="E15" s="14" t="n">
+        <v>1</v>
+      </c>
       <c r="F15" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="H15" s="0"/>
-      <c r="I15" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="J15" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="K15" s="0"/>
+        <v>3</v>
+      </c>
+      <c r="H15" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="I15" s="17" t="s">
+        <v>123</v>
+      </c>
+      <c r="J15" s="23" t="s">
+        <v>111</v>
+      </c>
+      <c r="K15" s="2" t="n">
+        <v>1</v>
+      </c>
       <c r="L15" s="0"/>
-      <c r="M15" s="0"/>
-      <c r="N15" s="0"/>
+      <c r="M15" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="N15" s="1" t="s">
+        <v>49</v>
+      </c>
       <c r="O15" s="0"/>
+      <c r="P15" s="0"/>
+      <c r="Q15" s="0"/>
+      <c r="R15" s="0"/>
       <c r="S15" s="0"/>
+      <c r="T15" s="0"/>
       <c r="U15" s="0"/>
-      <c r="Z15" s="3" t="n">
-        <v>0.355</v>
-      </c>
+      <c r="V15" s="0"/>
+      <c r="W15" s="0"/>
+      <c r="X15" s="0"/>
+      <c r="Y15" s="0"/>
+      <c r="AA15" s="0"/>
       <c r="AB15" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="AD15" s="19"/>
+        <v>79</v>
+      </c>
+      <c r="AC15" s="19"/>
+      <c r="AD15" s="2" t="n">
+        <v>1</v>
+      </c>
       <c r="AE15" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="AF15" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="AG15" s="13"/>
-      <c r="AH15" s="13"/>
-    </row>
-    <row r="16" customFormat="false" ht="37" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="18" t="s">
-        <v>134</v>
+        <v>38</v>
+      </c>
+      <c r="AF15" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="38" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A16" s="22" t="s">
+        <v>105</v>
       </c>
       <c r="B16" s="18" t="s">
         <v>42</v>
@@ -8958,52 +7891,54 @@
       <c r="F16" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="G16" s="0"/>
       <c r="H16" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="I16" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="J16" s="1" t="s">
-        <v>70</v>
+        <v>5</v>
+      </c>
+      <c r="I16" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="J16" s="23" t="s">
+        <v>111</v>
       </c>
       <c r="K16" s="2" t="n">
         <v>1</v>
       </c>
       <c r="L16" s="0"/>
       <c r="M16" s="1" t="s">
-        <v>71</v>
+        <v>126</v>
       </c>
       <c r="N16" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="O16" s="1" t="s">
-        <v>50</v>
-      </c>
+      <c r="O16" s="0"/>
+      <c r="P16" s="0"/>
+      <c r="Q16" s="0"/>
+      <c r="R16" s="0"/>
       <c r="S16" s="0"/>
-      <c r="U16" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="Z16" s="3"/>
+      <c r="T16" s="0"/>
+      <c r="U16" s="0"/>
+      <c r="V16" s="0"/>
+      <c r="W16" s="0"/>
+      <c r="X16" s="0"/>
+      <c r="Y16" s="0"/>
+      <c r="AA16" s="0"/>
       <c r="AB16" s="13" t="s">
-        <v>37</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="AC16" s="19"/>
       <c r="AD16" s="2" t="n">
         <v>1</v>
       </c>
       <c r="AE16" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="AF16" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="AG16" s="13"/>
-      <c r="AH16" s="13"/>
-    </row>
-    <row r="17" customFormat="false" ht="37" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="18" t="s">
-        <v>134</v>
+      <c r="AF16" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="38" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A17" s="22" t="s">
+        <v>105</v>
       </c>
       <c r="B17" s="18" t="s">
         <v>42</v>
@@ -9020,52 +7955,54 @@
       <c r="F17" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="G17" s="0"/>
       <c r="H17" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="I17" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="J17" s="1" t="s">
-        <v>73</v>
+        <v>5</v>
+      </c>
+      <c r="I17" s="17" t="s">
+        <v>127</v>
+      </c>
+      <c r="J17" s="23" t="s">
+        <v>111</v>
       </c>
       <c r="K17" s="2" t="n">
         <v>1</v>
       </c>
       <c r="L17" s="0"/>
       <c r="M17" s="1" t="s">
-        <v>74</v>
+        <v>128</v>
       </c>
       <c r="N17" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="O17" s="1" t="s">
-        <v>75</v>
-      </c>
+      <c r="O17" s="0"/>
+      <c r="P17" s="0"/>
+      <c r="Q17" s="0"/>
+      <c r="R17" s="0"/>
       <c r="S17" s="0"/>
-      <c r="U17" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="Z17" s="3"/>
+      <c r="T17" s="0"/>
+      <c r="U17" s="0"/>
+      <c r="V17" s="0"/>
+      <c r="W17" s="0"/>
+      <c r="X17" s="0"/>
+      <c r="Y17" s="0"/>
+      <c r="AA17" s="0"/>
       <c r="AB17" s="13" t="s">
-        <v>37</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="AC17" s="19"/>
       <c r="AD17" s="2" t="n">
         <v>1</v>
       </c>
       <c r="AE17" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="AF17" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="AG17" s="13"/>
-      <c r="AH17" s="13"/>
-    </row>
-    <row r="18" customFormat="false" ht="37" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="18" t="s">
-        <v>134</v>
+      <c r="AF17" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="38" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A18" s="22" t="s">
+        <v>105</v>
       </c>
       <c r="B18" s="18" t="s">
         <v>42</v>
@@ -9082,51 +8019,54 @@
       <c r="F18" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="G18" s="0"/>
       <c r="H18" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="I18" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="J18" s="1" t="s">
-        <v>48</v>
+        <v>5</v>
+      </c>
+      <c r="I18" s="17" t="s">
+        <v>129</v>
+      </c>
+      <c r="J18" s="23" t="s">
+        <v>111</v>
       </c>
       <c r="K18" s="2" t="n">
         <v>1</v>
       </c>
       <c r="L18" s="0"/>
       <c r="M18" s="1" t="s">
-        <v>77</v>
+        <v>130</v>
       </c>
       <c r="N18" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="O18" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="S18" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="Z18" s="3"/>
+      <c r="O18" s="0"/>
+      <c r="P18" s="0"/>
+      <c r="Q18" s="0"/>
+      <c r="R18" s="0"/>
+      <c r="S18" s="0"/>
+      <c r="T18" s="0"/>
+      <c r="U18" s="0"/>
+      <c r="V18" s="0"/>
+      <c r="W18" s="0"/>
+      <c r="X18" s="0"/>
+      <c r="Y18" s="0"/>
+      <c r="AA18" s="0"/>
       <c r="AB18" s="13" t="s">
         <v>79</v>
       </c>
+      <c r="AC18" s="19"/>
       <c r="AD18" s="2" t="n">
         <v>1</v>
       </c>
       <c r="AE18" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="AF18" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="AG18" s="13"/>
-      <c r="AH18" s="13"/>
-    </row>
-    <row r="19" customFormat="false" ht="37" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="18" t="s">
-        <v>134</v>
+      <c r="AF18" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="38" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A19" s="22" t="s">
+        <v>105</v>
       </c>
       <c r="B19" s="18" t="s">
         <v>42</v>
@@ -9137,45 +8077,60 @@
       <c r="D19" s="14" t="n">
         <v>0</v>
       </c>
-      <c r="E19" s="14"/>
+      <c r="E19" s="14" t="n">
+        <v>1</v>
+      </c>
       <c r="F19" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="H19" s="0"/>
-      <c r="I19" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="J19" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="K19" s="0"/>
+        <v>3</v>
+      </c>
+      <c r="H19" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="I19" s="17" t="s">
+        <v>131</v>
+      </c>
+      <c r="J19" s="23" t="s">
+        <v>111</v>
+      </c>
+      <c r="K19" s="2" t="n">
+        <v>1</v>
+      </c>
       <c r="L19" s="0"/>
-      <c r="M19" s="0"/>
-      <c r="N19" s="0"/>
+      <c r="M19" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="N19" s="1" t="s">
+        <v>49</v>
+      </c>
       <c r="O19" s="0"/>
+      <c r="P19" s="0"/>
+      <c r="Q19" s="0"/>
+      <c r="R19" s="0"/>
       <c r="S19" s="0"/>
-      <c r="Z19" s="3" t="n">
-        <v>0.29</v>
-      </c>
+      <c r="T19" s="0"/>
+      <c r="U19" s="0"/>
+      <c r="V19" s="0"/>
+      <c r="W19" s="0"/>
+      <c r="X19" s="0"/>
+      <c r="Y19" s="0"/>
+      <c r="AA19" s="0"/>
       <c r="AB19" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="AD19" s="19"/>
+        <v>79</v>
+      </c>
+      <c r="AC19" s="19"/>
+      <c r="AD19" s="2" t="n">
+        <v>1</v>
+      </c>
       <c r="AE19" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="AF19" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="AG19" s="13"/>
-      <c r="AH19" s="13"/>
-    </row>
-    <row r="20" customFormat="false" ht="37" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="18" t="s">
-        <v>134</v>
+        <v>38</v>
+      </c>
+      <c r="AF19" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="38" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A20" s="22" t="s">
+        <v>105</v>
       </c>
       <c r="B20" s="18" t="s">
         <v>42</v>
@@ -9193,295 +8148,49 @@
         <v>3</v>
       </c>
       <c r="H20" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="I20" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="J20" s="17" t="s">
-        <v>83</v>
-      </c>
-      <c r="K20" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="L20" s="1" t="s">
-        <v>84</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="I20" s="17" t="s">
+        <v>133</v>
+      </c>
+      <c r="J20" s="23" t="s">
+        <v>111</v>
+      </c>
+      <c r="K20" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" s="13"/>
       <c r="M20" s="1" t="s">
-        <v>85</v>
+        <v>134</v>
       </c>
       <c r="N20" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="O20" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="S20" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="Z20" s="3"/>
+      <c r="O20" s="13"/>
+      <c r="P20" s="13"/>
+      <c r="Q20" s="13"/>
+      <c r="R20" s="13"/>
+      <c r="S20" s="13"/>
+      <c r="T20" s="13"/>
+      <c r="U20" s="13"/>
+      <c r="V20" s="13"/>
+      <c r="W20" s="13"/>
+      <c r="X20" s="13"/>
+      <c r="Y20" s="13"/>
+      <c r="AA20" s="13"/>
       <c r="AB20" s="13" t="s">
-        <v>37</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="AC20" s="14"/>
       <c r="AD20" s="2" t="n">
         <v>1</v>
       </c>
       <c r="AE20" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="AF20" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="AG20" s="13"/>
-      <c r="AH20" s="13"/>
-    </row>
-    <row r="21" customFormat="false" ht="37" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="18" t="s">
-        <v>134</v>
-      </c>
-      <c r="B21" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="C21" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="D21" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="E21" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="F21" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="H21" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="I21" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="J21" s="17" t="s">
-        <v>83</v>
-      </c>
-      <c r="K21" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="L21" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="M21" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="N21" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="O21" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="S21" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="Z21" s="3"/>
-      <c r="AB21" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="AD21" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE21" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="AF21" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="AG21" s="13"/>
-      <c r="AH21" s="13"/>
-    </row>
-    <row r="22" customFormat="false" ht="37" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="18" t="s">
-        <v>134</v>
-      </c>
-      <c r="B22" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="C22" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="D22" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="E22" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="F22" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="H22" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="I22" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="J22" s="17" t="s">
-        <v>83</v>
-      </c>
-      <c r="K22" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="L22" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="M22" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="N22" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="O22" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="S22" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="Z22" s="3"/>
-      <c r="AB22" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="AD22" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE22" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="AF22" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="AG22" s="13"/>
-      <c r="AH22" s="13"/>
-    </row>
-    <row r="23" customFormat="false" ht="37" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="18" t="s">
-        <v>134</v>
-      </c>
-      <c r="B23" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="C23" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="D23" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="E23" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="F23" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="H23" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="I23" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="J23" s="17" t="s">
-        <v>83</v>
-      </c>
-      <c r="K23" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="L23" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="M23" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="N23" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="O23" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="S23" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="Z23" s="3"/>
-      <c r="AB23" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="AD23" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE23" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="AF23" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="AG23" s="13"/>
-      <c r="AH23" s="13"/>
-    </row>
-    <row r="24" customFormat="false" ht="37" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="18" t="s">
-        <v>134</v>
-      </c>
-      <c r="B24" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="C24" s="2" t="n">
-        <v>21</v>
-      </c>
-      <c r="D24" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="E24" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="F24" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="H24" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="I24" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="J24" s="17" t="s">
-        <v>83</v>
-      </c>
-      <c r="K24" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="L24" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="M24" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="N24" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="O24" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="S24" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="Z24" s="3"/>
-      <c r="AB24" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="AD24" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE24" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="AF24" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="AG24" s="13"/>
-      <c r="AH24" s="13"/>
+      <c r="AF20" s="1" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
@@ -9508,20 +8217,20 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="21.5668016194332"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="18.2834008097166"/>
-    <col collapsed="false" hidden="false" max="6" min="3" style="2" width="21.5668016194332"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="21.5668016194332"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="21.5668016194332"/>
-    <col collapsed="false" hidden="false" max="10" min="9" style="1" width="21.5668016194332"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="2" width="21.5668016194332"/>
-    <col collapsed="false" hidden="false" max="25" min="12" style="1" width="21.5668016194332"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="2" width="21.5668016194332"/>
-    <col collapsed="false" hidden="false" max="28" min="27" style="1" width="21.5668016194332"/>
-    <col collapsed="false" hidden="false" max="30" min="29" style="2" width="21.5668016194332"/>
-    <col collapsed="false" hidden="false" max="32" min="31" style="1" width="21.5668016194332"/>
-    <col collapsed="false" hidden="false" max="37" min="33" style="20" width="21.5668016194332"/>
-    <col collapsed="false" hidden="false" max="1025" min="38" style="1" width="21.5668016194332"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="22.5668016194332"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="19.1376518218624"/>
+    <col collapsed="false" hidden="false" max="6" min="3" style="2" width="22.5668016194332"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="22.5668016194332"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="22.5668016194332"/>
+    <col collapsed="false" hidden="false" max="10" min="9" style="1" width="22.5668016194332"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="2" width="22.5668016194332"/>
+    <col collapsed="false" hidden="false" max="25" min="12" style="1" width="22.5668016194332"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="2" width="22.5668016194332"/>
+    <col collapsed="false" hidden="false" max="28" min="27" style="1" width="22.5668016194332"/>
+    <col collapsed="false" hidden="false" max="30" min="29" style="2" width="22.5668016194332"/>
+    <col collapsed="false" hidden="false" max="32" min="31" style="1" width="22.5668016194332"/>
+    <col collapsed="false" hidden="false" max="37" min="33" style="20" width="22.5668016194332"/>
+    <col collapsed="false" hidden="false" max="1025" min="38" style="1" width="22.5668016194332"/>
   </cols>
   <sheetData>
     <row r="1" s="5" customFormat="true" ht="80" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9745,7 +8454,7 @@
         <v>2</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="H4" s="0"/>
       <c r="I4" s="1" t="s">
@@ -10013,11 +8722,11 @@
         <v>2</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="H8" s="0"/>
       <c r="I8" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="J8" s="13" t="s">
         <v>45</v>
@@ -10076,17 +8785,17 @@
         <v>5</v>
       </c>
       <c r="I9" s="17" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="J9" s="23" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="K9" s="2" t="n">
         <v>1</v>
       </c>
       <c r="L9" s="0"/>
       <c r="M9" s="1" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="N9" s="1" t="s">
         <v>49</v>
@@ -10140,17 +8849,17 @@
         <v>5</v>
       </c>
       <c r="I10" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="J10" s="23" t="s">
         <v>111</v>
-      </c>
-      <c r="J10" s="23" t="s">
-        <v>109</v>
       </c>
       <c r="K10" s="2" t="n">
         <v>1</v>
       </c>
       <c r="L10" s="0"/>
       <c r="M10" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="N10" s="1" t="s">
         <v>49</v>
@@ -10204,17 +8913,17 @@
         <v>5</v>
       </c>
       <c r="I11" s="17" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="J11" s="23" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="K11" s="2" t="n">
         <v>1</v>
       </c>
       <c r="L11" s="0"/>
       <c r="M11" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="N11" s="1" t="s">
         <v>49</v>
@@ -10268,17 +8977,17 @@
         <v>5</v>
       </c>
       <c r="I12" s="17" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="J12" s="23" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="K12" s="2" t="n">
         <v>1</v>
       </c>
       <c r="L12" s="0"/>
       <c r="M12" s="1" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="N12" s="1" t="s">
         <v>49</v>
@@ -10332,17 +9041,17 @@
         <v>5</v>
       </c>
       <c r="I13" s="17" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="J13" s="23" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="K13" s="2" t="n">
         <v>1</v>
       </c>
       <c r="L13" s="0"/>
       <c r="M13" s="1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="N13" s="1" t="s">
         <v>49</v>
@@ -10396,17 +9105,17 @@
         <v>5</v>
       </c>
       <c r="I14" s="17" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="J14" s="23" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="K14" s="2" t="n">
         <v>1</v>
       </c>
       <c r="L14" s="0"/>
       <c r="M14" s="1" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="N14" s="1" t="s">
         <v>49</v>
@@ -10460,17 +9169,17 @@
         <v>5</v>
       </c>
       <c r="I15" s="17" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="J15" s="23" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="K15" s="2" t="n">
         <v>1</v>
       </c>
       <c r="L15" s="0"/>
       <c r="M15" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="N15" s="1" t="s">
         <v>49</v>
@@ -10524,17 +9233,17 @@
         <v>5</v>
       </c>
       <c r="I16" s="17" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="J16" s="23" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="K16" s="2" t="n">
         <v>1</v>
       </c>
       <c r="L16" s="0"/>
       <c r="M16" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="N16" s="1" t="s">
         <v>49</v>
@@ -10588,17 +9297,17 @@
         <v>5</v>
       </c>
       <c r="I17" s="17" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="J17" s="23" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="K17" s="2" t="n">
         <v>1</v>
       </c>
       <c r="L17" s="0"/>
       <c r="M17" s="1" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="N17" s="1" t="s">
         <v>49</v>
@@ -10652,17 +9361,17 @@
         <v>5</v>
       </c>
       <c r="I18" s="17" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="J18" s="23" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="K18" s="2" t="n">
         <v>1</v>
       </c>
       <c r="L18" s="0"/>
       <c r="M18" s="1" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="N18" s="1" t="s">
         <v>49</v>
@@ -10716,17 +9425,17 @@
         <v>5</v>
       </c>
       <c r="I19" s="17" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="J19" s="23" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="K19" s="2" t="n">
         <v>1</v>
       </c>
       <c r="L19" s="0"/>
       <c r="M19" s="1" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="N19" s="1" t="s">
         <v>49</v>
@@ -10780,17 +9489,17 @@
         <v>5</v>
       </c>
       <c r="I20" s="17" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="J20" s="23" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="K20" s="14" t="n">
         <v>1</v>
       </c>
       <c r="L20" s="13"/>
       <c r="M20" s="1" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="N20" s="1" t="s">
         <v>49</v>
@@ -10846,21 +9555,21 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="19.5668016194332"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="18.2834008097166"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="10.4251012145749"/>
-    <col collapsed="false" hidden="false" max="6" min="4" style="2" width="11.8542510121458"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="1" width="19.5668016194332"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="27.1376518218623"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="19.5668016194332"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="2" width="19.5668016194332"/>
-    <col collapsed="false" hidden="false" max="13" min="12" style="1" width="19.5668016194332"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="2" width="19.5668016194332"/>
-    <col collapsed="false" hidden="false" max="25" min="15" style="1" width="19.5668016194332"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="2" width="19.5668016194332"/>
-    <col collapsed="false" hidden="false" max="28" min="27" style="1" width="19.5668016194332"/>
-    <col collapsed="false" hidden="false" max="30" min="29" style="2" width="19.5668016194332"/>
-    <col collapsed="false" hidden="false" max="1025" min="31" style="1" width="19.5668016194332"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="20.4251012145749"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="19.1376518218624"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="10.8542510121457"/>
+    <col collapsed="false" hidden="false" max="6" min="4" style="2" width="12.2834008097166"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="1" width="20.4251012145749"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="28.2793522267206"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="20.4251012145749"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="2" width="20.4251012145749"/>
+    <col collapsed="false" hidden="false" max="13" min="12" style="1" width="20.4251012145749"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="2" width="20.4251012145749"/>
+    <col collapsed="false" hidden="false" max="25" min="15" style="1" width="20.4251012145749"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="2" width="20.4251012145749"/>
+    <col collapsed="false" hidden="false" max="28" min="27" style="1" width="20.4251012145749"/>
+    <col collapsed="false" hidden="false" max="30" min="29" style="2" width="20.4251012145749"/>
+    <col collapsed="false" hidden="false" max="1025" min="31" style="1" width="20.4251012145749"/>
   </cols>
   <sheetData>
     <row r="1" s="5" customFormat="true" ht="44" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11084,7 +9793,7 @@
         <v>2</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="H4" s="0"/>
       <c r="I4" s="1" t="s">
@@ -11311,11 +10020,11 @@
         <v>2</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="H8" s="0"/>
       <c r="I8" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="J8" s="13" t="s">
         <v>45</v>
@@ -11364,17 +10073,17 @@
         <v>5</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="K9" s="2" t="n">
         <v>1</v>
       </c>
       <c r="L9" s="0"/>
       <c r="M9" s="1" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="N9" s="2" t="s">
         <v>49</v>
@@ -11419,17 +10128,17 @@
         <v>5</v>
       </c>
       <c r="I10" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="J10" s="1" t="s">
         <v>111</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>109</v>
       </c>
       <c r="K10" s="2" t="n">
         <v>1</v>
       </c>
       <c r="L10" s="0"/>
       <c r="M10" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="N10" s="2" t="s">
         <v>49</v>
@@ -11474,17 +10183,17 @@
         <v>5</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="K11" s="2" t="n">
         <v>1</v>
       </c>
       <c r="L11" s="0"/>
       <c r="M11" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="N11" s="2" t="s">
         <v>49</v>
@@ -11529,17 +10238,17 @@
         <v>5</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="K12" s="2" t="n">
         <v>1</v>
       </c>
       <c r="L12" s="0"/>
       <c r="M12" s="1" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="N12" s="2" t="s">
         <v>49</v>
@@ -11584,17 +10293,17 @@
         <v>5</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="K13" s="2" t="n">
         <v>1</v>
       </c>
       <c r="L13" s="0"/>
       <c r="M13" s="1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="N13" s="2" t="s">
         <v>49</v>
@@ -11639,17 +10348,17 @@
         <v>5</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="K14" s="2" t="n">
         <v>1</v>
       </c>
       <c r="L14" s="0"/>
       <c r="M14" s="1" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="N14" s="2" t="s">
         <v>49</v>
@@ -11694,17 +10403,17 @@
         <v>5</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="K15" s="2" t="n">
         <v>1</v>
       </c>
       <c r="L15" s="0"/>
       <c r="M15" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="N15" s="2" t="s">
         <v>49</v>
@@ -11749,17 +10458,17 @@
         <v>5</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="K16" s="2" t="n">
         <v>1</v>
       </c>
       <c r="L16" s="0"/>
       <c r="M16" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="N16" s="2" t="s">
         <v>49</v>
@@ -11804,17 +10513,17 @@
         <v>5</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="K17" s="2" t="n">
         <v>1</v>
       </c>
       <c r="L17" s="0"/>
       <c r="M17" s="1" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="N17" s="2" t="s">
         <v>49</v>
@@ -11859,17 +10568,17 @@
         <v>5</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="K18" s="2" t="n">
         <v>1</v>
       </c>
       <c r="L18" s="0"/>
       <c r="M18" s="1" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="N18" s="2" t="s">
         <v>49</v>
@@ -11914,17 +10623,17 @@
         <v>5</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="K19" s="2" t="n">
         <v>1</v>
       </c>
       <c r="L19" s="0"/>
       <c r="M19" s="1" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="N19" s="2" t="s">
         <v>49</v>
@@ -11969,17 +10678,17 @@
         <v>5</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="K20" s="2" t="n">
         <v>1</v>
       </c>
       <c r="L20" s="0"/>
       <c r="M20" s="1" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="N20" s="2" t="s">
         <v>49</v>
@@ -12366,22 +11075,22 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="24.7085020242915"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="18.2834008097166"/>
-    <col collapsed="false" hidden="false" max="6" min="3" style="2" width="24.7085020242915"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="24.7085020242915"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="24.7085020242915"/>
-    <col collapsed="false" hidden="false" max="10" min="9" style="1" width="24.7085020242915"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="2" width="24.7085020242915"/>
-    <col collapsed="false" hidden="false" max="13" min="12" style="1" width="24.7085020242915"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="2" width="24.7085020242915"/>
-    <col collapsed="false" hidden="false" max="25" min="15" style="1" width="24.7085020242915"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="2" width="24.7085020242915"/>
-    <col collapsed="false" hidden="false" max="28" min="27" style="1" width="24.7085020242915"/>
-    <col collapsed="false" hidden="false" max="30" min="29" style="2" width="24.7085020242915"/>
-    <col collapsed="false" hidden="false" max="32" min="31" style="1" width="24.7085020242915"/>
-    <col collapsed="false" hidden="false" max="37" min="33" style="20" width="24.7085020242915"/>
-    <col collapsed="false" hidden="false" max="1025" min="38" style="1" width="24.7085020242915"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="25.8502024291498"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="19.1376518218624"/>
+    <col collapsed="false" hidden="false" max="6" min="3" style="2" width="25.8502024291498"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="25.8502024291498"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="25.8502024291498"/>
+    <col collapsed="false" hidden="false" max="10" min="9" style="1" width="25.8502024291498"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="2" width="25.8502024291498"/>
+    <col collapsed="false" hidden="false" max="13" min="12" style="1" width="25.8502024291498"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="2" width="25.8502024291498"/>
+    <col collapsed="false" hidden="false" max="25" min="15" style="1" width="25.8502024291498"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="2" width="25.8502024291498"/>
+    <col collapsed="false" hidden="false" max="28" min="27" style="1" width="25.8502024291498"/>
+    <col collapsed="false" hidden="false" max="30" min="29" style="2" width="25.8502024291498"/>
+    <col collapsed="false" hidden="false" max="32" min="31" style="1" width="25.8502024291498"/>
+    <col collapsed="false" hidden="false" max="37" min="33" style="20" width="25.8502024291498"/>
+    <col collapsed="false" hidden="false" max="1025" min="38" style="1" width="25.8502024291498"/>
   </cols>
   <sheetData>
     <row r="1" s="5" customFormat="true" ht="72" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12605,7 +11314,7 @@
         <v>2</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="H4" s="0"/>
       <c r="I4" s="1" t="s">
@@ -12875,11 +11584,11 @@
         <v>2</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="H8" s="0"/>
       <c r="I8" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="J8" s="13" t="s">
         <v>45</v>
@@ -12938,17 +11647,17 @@
         <v>5</v>
       </c>
       <c r="I9" s="17" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="J9" s="23" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="K9" s="2" t="n">
         <v>1</v>
       </c>
       <c r="L9" s="0"/>
       <c r="M9" s="1" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="N9" s="2" t="s">
         <v>49</v>
@@ -13002,17 +11711,17 @@
         <v>5</v>
       </c>
       <c r="I10" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="J10" s="23" t="s">
         <v>111</v>
-      </c>
-      <c r="J10" s="23" t="s">
-        <v>109</v>
       </c>
       <c r="K10" s="2" t="n">
         <v>1</v>
       </c>
       <c r="L10" s="0"/>
       <c r="M10" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="N10" s="2" t="s">
         <v>49</v>
@@ -13066,17 +11775,17 @@
         <v>5</v>
       </c>
       <c r="I11" s="17" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="J11" s="23" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="K11" s="2" t="n">
         <v>1</v>
       </c>
       <c r="L11" s="0"/>
       <c r="M11" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="N11" s="2" t="s">
         <v>49</v>
@@ -13130,17 +11839,17 @@
         <v>5</v>
       </c>
       <c r="I12" s="17" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="J12" s="23" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="K12" s="2" t="n">
         <v>1</v>
       </c>
       <c r="L12" s="0"/>
       <c r="M12" s="1" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="N12" s="2" t="s">
         <v>49</v>
@@ -13194,17 +11903,17 @@
         <v>5</v>
       </c>
       <c r="I13" s="17" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="J13" s="23" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="K13" s="2" t="n">
         <v>1</v>
       </c>
       <c r="L13" s="0"/>
       <c r="M13" s="1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="N13" s="2" t="s">
         <v>49</v>
@@ -13258,17 +11967,17 @@
         <v>5</v>
       </c>
       <c r="I14" s="17" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="J14" s="23" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="K14" s="2" t="n">
         <v>1</v>
       </c>
       <c r="L14" s="0"/>
       <c r="M14" s="1" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="N14" s="2" t="s">
         <v>49</v>
@@ -13322,17 +12031,17 @@
         <v>5</v>
       </c>
       <c r="I15" s="17" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="J15" s="23" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="K15" s="2" t="n">
         <v>1</v>
       </c>
       <c r="L15" s="0"/>
       <c r="M15" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="N15" s="2" t="s">
         <v>49</v>
@@ -13386,17 +12095,17 @@
         <v>5</v>
       </c>
       <c r="I16" s="17" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="J16" s="23" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="K16" s="2" t="n">
         <v>1</v>
       </c>
       <c r="L16" s="0"/>
       <c r="M16" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="N16" s="2" t="s">
         <v>49</v>
@@ -13450,17 +12159,17 @@
         <v>5</v>
       </c>
       <c r="I17" s="17" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="J17" s="23" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="K17" s="2" t="n">
         <v>1</v>
       </c>
       <c r="L17" s="0"/>
       <c r="M17" s="1" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="N17" s="2" t="s">
         <v>49</v>
@@ -13514,17 +12223,17 @@
         <v>5</v>
       </c>
       <c r="I18" s="17" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="J18" s="23" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="K18" s="2" t="n">
         <v>1</v>
       </c>
       <c r="L18" s="0"/>
       <c r="M18" s="1" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="N18" s="2" t="s">
         <v>49</v>
@@ -13578,17 +12287,17 @@
         <v>5</v>
       </c>
       <c r="I19" s="17" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="J19" s="23" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="K19" s="2" t="n">
         <v>1</v>
       </c>
       <c r="L19" s="0"/>
       <c r="M19" s="1" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="N19" s="2" t="s">
         <v>49</v>
@@ -13642,17 +12351,17 @@
         <v>5</v>
       </c>
       <c r="I20" s="17" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="J20" s="23" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="K20" s="14" t="n">
         <v>1</v>
       </c>
       <c r="L20" s="13"/>
       <c r="M20" s="1" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="N20" s="2" t="s">
         <v>49</v>
@@ -13708,20 +12417,20 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="19.1376518218624"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="18.2834008097166"/>
-    <col collapsed="false" hidden="false" max="6" min="3" style="2" width="19.1376518218624"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="19.1376518218624"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="19.1376518218624"/>
-    <col collapsed="false" hidden="false" max="10" min="9" style="1" width="19.1376518218624"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="2" width="19.1376518218624"/>
-    <col collapsed="false" hidden="false" max="25" min="12" style="1" width="19.1376518218624"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="2" width="19.1376518218624"/>
-    <col collapsed="false" hidden="false" max="28" min="27" style="1" width="19.1376518218624"/>
-    <col collapsed="false" hidden="false" max="30" min="29" style="2" width="19.1376518218624"/>
-    <col collapsed="false" hidden="false" max="32" min="31" style="1" width="19.1376518218624"/>
-    <col collapsed="false" hidden="false" max="37" min="33" style="20" width="19.1376518218624"/>
-    <col collapsed="false" hidden="false" max="1025" min="38" style="1" width="19.1376518218624"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="19.995951417004"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="19.1376518218624"/>
+    <col collapsed="false" hidden="false" max="6" min="3" style="2" width="19.995951417004"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="19.995951417004"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="19.995951417004"/>
+    <col collapsed="false" hidden="false" max="10" min="9" style="1" width="19.995951417004"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="2" width="19.995951417004"/>
+    <col collapsed="false" hidden="false" max="25" min="12" style="1" width="19.995951417004"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="2" width="19.995951417004"/>
+    <col collapsed="false" hidden="false" max="28" min="27" style="1" width="19.995951417004"/>
+    <col collapsed="false" hidden="false" max="30" min="29" style="2" width="19.995951417004"/>
+    <col collapsed="false" hidden="false" max="32" min="31" style="1" width="19.995951417004"/>
+    <col collapsed="false" hidden="false" max="37" min="33" style="20" width="19.995951417004"/>
+    <col collapsed="false" hidden="false" max="1025" min="38" style="1" width="19.995951417004"/>
   </cols>
   <sheetData>
     <row r="1" s="5" customFormat="true" ht="70" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13945,7 +12654,7 @@
         <v>2</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="H4" s="0"/>
       <c r="I4" s="1" t="s">
@@ -14213,11 +12922,11 @@
         <v>2</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="H8" s="0"/>
       <c r="I8" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="J8" s="13" t="s">
         <v>45</v>
@@ -14276,17 +12985,17 @@
         <v>5</v>
       </c>
       <c r="I9" s="17" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="J9" s="23" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="K9" s="2" t="n">
         <v>1</v>
       </c>
       <c r="L9" s="0"/>
       <c r="M9" s="1" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="N9" s="1" t="s">
         <v>49</v>
@@ -14340,17 +13049,17 @@
         <v>5</v>
       </c>
       <c r="I10" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="J10" s="23" t="s">
         <v>111</v>
-      </c>
-      <c r="J10" s="23" t="s">
-        <v>109</v>
       </c>
       <c r="K10" s="2" t="n">
         <v>1</v>
       </c>
       <c r="L10" s="0"/>
       <c r="M10" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="N10" s="1" t="s">
         <v>49</v>
@@ -14404,17 +13113,17 @@
         <v>5</v>
       </c>
       <c r="I11" s="17" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="J11" s="23" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="K11" s="2" t="n">
         <v>1</v>
       </c>
       <c r="L11" s="0"/>
       <c r="M11" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="N11" s="1" t="s">
         <v>49</v>
@@ -14468,17 +13177,17 @@
         <v>5</v>
       </c>
       <c r="I12" s="17" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="J12" s="23" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="K12" s="2" t="n">
         <v>1</v>
       </c>
       <c r="L12" s="0"/>
       <c r="M12" s="1" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="N12" s="1" t="s">
         <v>49</v>
@@ -14532,17 +13241,17 @@
         <v>5</v>
       </c>
       <c r="I13" s="17" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="J13" s="23" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="K13" s="2" t="n">
         <v>1</v>
       </c>
       <c r="L13" s="0"/>
       <c r="M13" s="1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="N13" s="1" t="s">
         <v>49</v>
@@ -14596,17 +13305,17 @@
         <v>5</v>
       </c>
       <c r="I14" s="17" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="J14" s="23" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="K14" s="2" t="n">
         <v>1</v>
       </c>
       <c r="L14" s="0"/>
       <c r="M14" s="1" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="N14" s="1" t="s">
         <v>49</v>
@@ -14660,17 +13369,17 @@
         <v>5</v>
       </c>
       <c r="I15" s="17" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="J15" s="23" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="K15" s="2" t="n">
         <v>1</v>
       </c>
       <c r="L15" s="0"/>
       <c r="M15" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="N15" s="1" t="s">
         <v>49</v>
@@ -14724,17 +13433,17 @@
         <v>5</v>
       </c>
       <c r="I16" s="17" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="J16" s="23" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="K16" s="2" t="n">
         <v>1</v>
       </c>
       <c r="L16" s="0"/>
       <c r="M16" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="N16" s="1" t="s">
         <v>49</v>
@@ -14788,17 +13497,17 @@
         <v>5</v>
       </c>
       <c r="I17" s="17" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="J17" s="23" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="K17" s="2" t="n">
         <v>1</v>
       </c>
       <c r="L17" s="0"/>
       <c r="M17" s="1" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="N17" s="1" t="s">
         <v>49</v>
@@ -14852,17 +13561,17 @@
         <v>5</v>
       </c>
       <c r="I18" s="17" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="J18" s="23" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="K18" s="2" t="n">
         <v>1</v>
       </c>
       <c r="L18" s="0"/>
       <c r="M18" s="1" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="N18" s="1" t="s">
         <v>49</v>
@@ -14916,17 +13625,17 @@
         <v>5</v>
       </c>
       <c r="I19" s="17" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="J19" s="23" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="K19" s="2" t="n">
         <v>1</v>
       </c>
       <c r="L19" s="0"/>
       <c r="M19" s="1" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="N19" s="1" t="s">
         <v>49</v>
@@ -14980,17 +13689,17 @@
         <v>5</v>
       </c>
       <c r="I20" s="17" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="J20" s="23" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="K20" s="14" t="n">
         <v>1</v>
       </c>
       <c r="L20" s="13"/>
       <c r="M20" s="1" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="N20" s="1" t="s">
         <v>49</v>

--- a/Projects/CCRU_SAND/Data/Contract Execution 2018.xlsx
+++ b/Projects/CCRU_SAND/Data/Contract Execution 2018.xlsx
@@ -17,7 +17,8 @@
     <sheet name="Pos 2018 - Petroleum" sheetId="7" state="visible" r:id="rId8"/>
     <sheet name="Pos 2018 - HoReCa - Bar Tavern Night Clubs" sheetId="8" state="visible" r:id="rId9"/>
     <sheet name="Pos 2018 - HoReCa - Coffee Tea Shops" sheetId="9" state="visible" r:id="rId10"/>
-    <sheet name="Pos 2018 - FT" sheetId="10" state="visible" r:id="rId11"/>
+    <sheet name="Pos 2018 - HoReCa - Restaurant Cafe" sheetId="10" state="visible" r:id="rId11"/>
+    <sheet name="Pos 2018 - FT" sheetId="11" state="visible" r:id="rId12"/>
   </sheets>
   <definedNames>
     <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0" vbProcedure="false">'Pos 2018 - MT - Hypermarket'!$A$1:$AH$24</definedName>
@@ -54,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2209" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2414" uniqueCount="142">
   <si>
     <t xml:space="preserve">Channel</t>
   </si>
@@ -475,6 +476,12 @@
   <si>
     <t xml:space="preserve">HRC_CTS</t>
   </si>
+  <si>
+    <t xml:space="preserve">KPI Set</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HRC_RC</t>
+  </si>
 </sst>
 </file>
 
@@ -736,21 +743,21 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="1" style="1" width="21.7085020242915"/>
-    <col collapsed="false" hidden="false" max="6" min="3" style="2" width="21.7085020242915"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="21.7085020242915"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="21.7085020242915"/>
-    <col collapsed="false" hidden="false" max="10" min="9" style="1" width="21.7085020242915"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="2" width="21.7085020242915"/>
-    <col collapsed="false" hidden="false" max="13" min="12" style="1" width="21.7085020242915"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="2" width="21.7085020242915"/>
-    <col collapsed="false" hidden="false" max="25" min="15" style="1" width="21.7085020242915"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="3" width="21.7085020242915"/>
-    <col collapsed="false" hidden="false" max="28" min="27" style="1" width="21.7085020242915"/>
-    <col collapsed="false" hidden="false" max="30" min="29" style="2" width="21.7085020242915"/>
-    <col collapsed="false" hidden="false" max="32" min="31" style="1" width="21.7085020242915"/>
-    <col collapsed="false" hidden="false" max="37" min="33" style="4" width="21.7085020242915"/>
-    <col collapsed="false" hidden="false" max="1025" min="38" style="1" width="21.7085020242915"/>
+    <col collapsed="false" hidden="false" max="2" min="1" style="1" width="22.7085020242915"/>
+    <col collapsed="false" hidden="false" max="6" min="3" style="2" width="22.7085020242915"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="22.7085020242915"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="22.7085020242915"/>
+    <col collapsed="false" hidden="false" max="10" min="9" style="1" width="22.7085020242915"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="2" width="22.7085020242915"/>
+    <col collapsed="false" hidden="false" max="13" min="12" style="1" width="22.7085020242915"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="2" width="22.7085020242915"/>
+    <col collapsed="false" hidden="false" max="25" min="15" style="1" width="22.7085020242915"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="3" width="22.7085020242915"/>
+    <col collapsed="false" hidden="false" max="28" min="27" style="1" width="22.7085020242915"/>
+    <col collapsed="false" hidden="false" max="30" min="29" style="2" width="22.7085020242915"/>
+    <col collapsed="false" hidden="false" max="32" min="31" style="1" width="22.7085020242915"/>
+    <col collapsed="false" hidden="false" max="37" min="33" style="4" width="22.7085020242915"/>
+    <col collapsed="false" hidden="false" max="1025" min="38" style="1" width="22.7085020242915"/>
   </cols>
   <sheetData>
     <row r="1" s="5" customFormat="true" ht="67" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2220,20 +2227,1353 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="18.2834008097166"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="19.1376518218624"/>
-    <col collapsed="false" hidden="false" max="6" min="3" style="2" width="18.2834008097166"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="18.2834008097166"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="18.2834008097166"/>
-    <col collapsed="false" hidden="false" max="10" min="9" style="1" width="18.2834008097166"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="2" width="18.2834008097166"/>
-    <col collapsed="false" hidden="false" max="25" min="12" style="1" width="18.2834008097166"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="2" width="18.2834008097166"/>
-    <col collapsed="false" hidden="false" max="28" min="27" style="1" width="18.2834008097166"/>
-    <col collapsed="false" hidden="false" max="30" min="29" style="2" width="18.2834008097166"/>
-    <col collapsed="false" hidden="false" max="32" min="31" style="1" width="18.2834008097166"/>
-    <col collapsed="false" hidden="false" max="37" min="33" style="25" width="18.2834008097166"/>
-    <col collapsed="false" hidden="false" max="1025" min="38" style="1" width="18.2834008097166"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="16.8542510121458"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="17.5668016194332"/>
+    <col collapsed="false" hidden="false" max="6" min="3" style="2" width="16.8542510121458"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="16.8542510121458"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="16.8542510121458"/>
+    <col collapsed="false" hidden="false" max="10" min="9" style="1" width="16.8542510121458"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="2" width="16.8542510121458"/>
+    <col collapsed="false" hidden="false" max="25" min="12" style="1" width="16.8542510121458"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="2" width="16.8542510121458"/>
+    <col collapsed="false" hidden="false" max="28" min="27" style="1" width="16.8542510121458"/>
+    <col collapsed="false" hidden="false" max="30" min="29" style="2" width="16.8542510121458"/>
+    <col collapsed="false" hidden="false" max="32" min="31" style="1" width="16.8542510121458"/>
+    <col collapsed="false" hidden="false" max="37" min="33" style="25" width="16.8542510121458"/>
+    <col collapsed="false" hidden="false" max="1025" min="38" style="1" width="16.8542510121458"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="5" customFormat="true" ht="64" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="N1" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" s="4" customFormat="true" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="22" t="s">
+        <v>141</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" s="12" t="n">
+        <v>2</v>
+      </c>
+      <c r="G2" s="11"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="J2" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="K2" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="O2" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z2" s="12" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AB2" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC2" s="12"/>
+      <c r="AD2" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE2" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="AF2" s="13" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" s="4" customFormat="true" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="22" t="s">
+        <v>141</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" s="12" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" s="12" t="n">
+        <v>2</v>
+      </c>
+      <c r="G3" s="11"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="J3" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="K3" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="O3" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z3" s="12" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AB3" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC3" s="12"/>
+      <c r="AD3" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE3" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="AF3" s="13" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="22" t="s">
+        <v>141</v>
+      </c>
+      <c r="B4" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" s="0"/>
+      <c r="F4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="H4" s="0"/>
+      <c r="I4" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="J4" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="K4" s="0"/>
+      <c r="L4" s="0"/>
+      <c r="M4" s="0"/>
+      <c r="N4" s="0"/>
+      <c r="O4" s="0"/>
+      <c r="P4" s="0"/>
+      <c r="Q4" s="0"/>
+      <c r="R4" s="0"/>
+      <c r="S4" s="0"/>
+      <c r="T4" s="0"/>
+      <c r="U4" s="0"/>
+      <c r="V4" s="0"/>
+      <c r="W4" s="0"/>
+      <c r="X4" s="0"/>
+      <c r="Y4" s="0"/>
+      <c r="Z4" s="2" t="n">
+        <v>0.333</v>
+      </c>
+      <c r="AA4" s="0"/>
+      <c r="AB4" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="AC4" s="19"/>
+      <c r="AD4" s="19"/>
+      <c r="AE4" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF4" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="22" t="s">
+        <v>141</v>
+      </c>
+      <c r="B5" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="F5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="G5" s="0"/>
+      <c r="H5" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="K5" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" s="0"/>
+      <c r="M5" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="P5" s="0"/>
+      <c r="Q5" s="0"/>
+      <c r="R5" s="0"/>
+      <c r="S5" s="0"/>
+      <c r="T5" s="0"/>
+      <c r="U5" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="V5" s="0"/>
+      <c r="W5" s="0"/>
+      <c r="X5" s="0"/>
+      <c r="Y5" s="0"/>
+      <c r="Z5" s="19"/>
+      <c r="AA5" s="0"/>
+      <c r="AB5" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC5" s="19"/>
+      <c r="AD5" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE5" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AF5" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="22" t="s">
+        <v>141</v>
+      </c>
+      <c r="B6" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="C6" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="F6" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="G6" s="0"/>
+      <c r="H6" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="K6" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" s="0"/>
+      <c r="M6" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="P6" s="0"/>
+      <c r="Q6" s="0"/>
+      <c r="R6" s="0"/>
+      <c r="S6" s="0"/>
+      <c r="T6" s="0"/>
+      <c r="U6" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="V6" s="0"/>
+      <c r="W6" s="0"/>
+      <c r="X6" s="0"/>
+      <c r="Y6" s="0"/>
+      <c r="Z6" s="19"/>
+      <c r="AA6" s="0"/>
+      <c r="AB6" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC6" s="19"/>
+      <c r="AD6" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE6" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AF6" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="22" t="s">
+        <v>141</v>
+      </c>
+      <c r="B7" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="C7" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="F7" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="G7" s="0"/>
+      <c r="H7" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="K7" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" s="0"/>
+      <c r="M7" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="P7" s="0"/>
+      <c r="Q7" s="0"/>
+      <c r="R7" s="0"/>
+      <c r="S7" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="T7" s="0"/>
+      <c r="U7" s="0"/>
+      <c r="V7" s="0"/>
+      <c r="W7" s="0"/>
+      <c r="X7" s="0"/>
+      <c r="Y7" s="0"/>
+      <c r="Z7" s="19"/>
+      <c r="AA7" s="0"/>
+      <c r="AB7" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="AC7" s="19"/>
+      <c r="AD7" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE7" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AF7" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="22" t="s">
+        <v>141</v>
+      </c>
+      <c r="B8" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="C8" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="D8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" s="0"/>
+      <c r="F8" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="H8" s="0"/>
+      <c r="I8" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="J8" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="K8" s="0"/>
+      <c r="L8" s="0"/>
+      <c r="M8" s="0"/>
+      <c r="N8" s="0"/>
+      <c r="O8" s="0"/>
+      <c r="P8" s="0"/>
+      <c r="Q8" s="0"/>
+      <c r="R8" s="0"/>
+      <c r="S8" s="0"/>
+      <c r="T8" s="0"/>
+      <c r="U8" s="0"/>
+      <c r="V8" s="0"/>
+      <c r="W8" s="0"/>
+      <c r="X8" s="0"/>
+      <c r="Y8" s="0"/>
+      <c r="Z8" s="2" t="n">
+        <v>0.667</v>
+      </c>
+      <c r="AA8" s="0"/>
+      <c r="AB8" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="AC8" s="19"/>
+      <c r="AD8" s="19"/>
+      <c r="AE8" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF8" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="22" t="s">
+        <v>141</v>
+      </c>
+      <c r="B9" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="C9" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="D9" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="F9" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="H9" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="I9" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="J9" s="23" t="s">
+        <v>111</v>
+      </c>
+      <c r="K9" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" s="0"/>
+      <c r="M9" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="O9" s="0"/>
+      <c r="P9" s="0"/>
+      <c r="Q9" s="0"/>
+      <c r="R9" s="0"/>
+      <c r="S9" s="0"/>
+      <c r="T9" s="0"/>
+      <c r="U9" s="0"/>
+      <c r="V9" s="0"/>
+      <c r="W9" s="0"/>
+      <c r="X9" s="0"/>
+      <c r="Y9" s="0"/>
+      <c r="AA9" s="0"/>
+      <c r="AB9" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="AC9" s="19"/>
+      <c r="AD9" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE9" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="AF9" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="22" t="s">
+        <v>141</v>
+      </c>
+      <c r="B10" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="C10" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="D10" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="F10" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="H10" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="I10" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="J10" s="23" t="s">
+        <v>111</v>
+      </c>
+      <c r="K10" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" s="0"/>
+      <c r="M10" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="N10" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="O10" s="0"/>
+      <c r="P10" s="0"/>
+      <c r="Q10" s="0"/>
+      <c r="R10" s="0"/>
+      <c r="S10" s="0"/>
+      <c r="T10" s="0"/>
+      <c r="U10" s="0"/>
+      <c r="V10" s="0"/>
+      <c r="W10" s="0"/>
+      <c r="X10" s="0"/>
+      <c r="Y10" s="0"/>
+      <c r="AA10" s="0"/>
+      <c r="AB10" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="AC10" s="19"/>
+      <c r="AD10" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE10" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="AF10" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="22" t="s">
+        <v>141</v>
+      </c>
+      <c r="B11" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="C11" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="D11" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="F11" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="H11" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="I11" s="17" t="s">
+        <v>115</v>
+      </c>
+      <c r="J11" s="23" t="s">
+        <v>111</v>
+      </c>
+      <c r="K11" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" s="0"/>
+      <c r="M11" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="N11" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="O11" s="0"/>
+      <c r="P11" s="0"/>
+      <c r="Q11" s="0"/>
+      <c r="R11" s="0"/>
+      <c r="S11" s="0"/>
+      <c r="T11" s="0"/>
+      <c r="U11" s="0"/>
+      <c r="V11" s="0"/>
+      <c r="W11" s="0"/>
+      <c r="X11" s="0"/>
+      <c r="Y11" s="0"/>
+      <c r="AA11" s="0"/>
+      <c r="AB11" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="AC11" s="19"/>
+      <c r="AD11" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE11" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="AF11" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="22" t="s">
+        <v>141</v>
+      </c>
+      <c r="B12" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="C12" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="D12" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="F12" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="H12" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="I12" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="J12" s="23" t="s">
+        <v>111</v>
+      </c>
+      <c r="K12" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" s="0"/>
+      <c r="M12" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="N12" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="O12" s="0"/>
+      <c r="P12" s="0"/>
+      <c r="Q12" s="0"/>
+      <c r="R12" s="0"/>
+      <c r="S12" s="0"/>
+      <c r="T12" s="0"/>
+      <c r="U12" s="0"/>
+      <c r="V12" s="0"/>
+      <c r="W12" s="0"/>
+      <c r="X12" s="0"/>
+      <c r="Y12" s="0"/>
+      <c r="AA12" s="0"/>
+      <c r="AB12" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="AC12" s="19"/>
+      <c r="AD12" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE12" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="AF12" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A13" s="22" t="s">
+        <v>141</v>
+      </c>
+      <c r="B13" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="C13" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="D13" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="F13" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="H13" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="I13" s="17" t="s">
+        <v>119</v>
+      </c>
+      <c r="J13" s="23" t="s">
+        <v>111</v>
+      </c>
+      <c r="K13" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" s="0"/>
+      <c r="M13" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="N13" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="O13" s="0"/>
+      <c r="P13" s="0"/>
+      <c r="Q13" s="0"/>
+      <c r="R13" s="0"/>
+      <c r="S13" s="0"/>
+      <c r="T13" s="0"/>
+      <c r="U13" s="0"/>
+      <c r="V13" s="0"/>
+      <c r="W13" s="0"/>
+      <c r="X13" s="0"/>
+      <c r="Y13" s="0"/>
+      <c r="AA13" s="0"/>
+      <c r="AB13" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="AC13" s="19"/>
+      <c r="AD13" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE13" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="AF13" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A14" s="22" t="s">
+        <v>141</v>
+      </c>
+      <c r="B14" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="C14" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="D14" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="F14" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="H14" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="I14" s="17" t="s">
+        <v>121</v>
+      </c>
+      <c r="J14" s="23" t="s">
+        <v>111</v>
+      </c>
+      <c r="K14" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" s="0"/>
+      <c r="M14" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="N14" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="O14" s="0"/>
+      <c r="P14" s="0"/>
+      <c r="Q14" s="0"/>
+      <c r="R14" s="0"/>
+      <c r="S14" s="0"/>
+      <c r="T14" s="0"/>
+      <c r="U14" s="0"/>
+      <c r="V14" s="0"/>
+      <c r="W14" s="0"/>
+      <c r="X14" s="0"/>
+      <c r="Y14" s="0"/>
+      <c r="AA14" s="0"/>
+      <c r="AB14" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="AC14" s="19"/>
+      <c r="AD14" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE14" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="AF14" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A15" s="22" t="s">
+        <v>141</v>
+      </c>
+      <c r="B15" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="C15" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="D15" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="F15" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="H15" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="I15" s="17" t="s">
+        <v>123</v>
+      </c>
+      <c r="J15" s="23" t="s">
+        <v>111</v>
+      </c>
+      <c r="K15" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" s="0"/>
+      <c r="M15" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="N15" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="O15" s="0"/>
+      <c r="P15" s="0"/>
+      <c r="Q15" s="0"/>
+      <c r="R15" s="0"/>
+      <c r="S15" s="0"/>
+      <c r="T15" s="0"/>
+      <c r="U15" s="0"/>
+      <c r="V15" s="0"/>
+      <c r="W15" s="0"/>
+      <c r="X15" s="0"/>
+      <c r="Y15" s="0"/>
+      <c r="AA15" s="0"/>
+      <c r="AB15" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="AC15" s="19"/>
+      <c r="AD15" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE15" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="AF15" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A16" s="22" t="s">
+        <v>141</v>
+      </c>
+      <c r="B16" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="C16" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="D16" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="F16" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="H16" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="I16" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="J16" s="23" t="s">
+        <v>111</v>
+      </c>
+      <c r="K16" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" s="0"/>
+      <c r="M16" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="N16" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="O16" s="0"/>
+      <c r="P16" s="0"/>
+      <c r="Q16" s="0"/>
+      <c r="R16" s="0"/>
+      <c r="S16" s="0"/>
+      <c r="T16" s="0"/>
+      <c r="U16" s="0"/>
+      <c r="V16" s="0"/>
+      <c r="W16" s="0"/>
+      <c r="X16" s="0"/>
+      <c r="Y16" s="0"/>
+      <c r="AA16" s="0"/>
+      <c r="AB16" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="AC16" s="19"/>
+      <c r="AD16" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE16" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="AF16" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A17" s="22" t="s">
+        <v>141</v>
+      </c>
+      <c r="B17" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="C17" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="D17" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="F17" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="H17" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="I17" s="17" t="s">
+        <v>127</v>
+      </c>
+      <c r="J17" s="23" t="s">
+        <v>111</v>
+      </c>
+      <c r="K17" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" s="0"/>
+      <c r="M17" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="N17" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="O17" s="0"/>
+      <c r="P17" s="0"/>
+      <c r="Q17" s="0"/>
+      <c r="R17" s="0"/>
+      <c r="S17" s="0"/>
+      <c r="T17" s="0"/>
+      <c r="U17" s="0"/>
+      <c r="V17" s="0"/>
+      <c r="W17" s="0"/>
+      <c r="X17" s="0"/>
+      <c r="Y17" s="0"/>
+      <c r="AA17" s="0"/>
+      <c r="AB17" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="AC17" s="19"/>
+      <c r="AD17" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE17" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="AF17" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A18" s="22" t="s">
+        <v>141</v>
+      </c>
+      <c r="B18" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="C18" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="D18" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="F18" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="H18" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="I18" s="17" t="s">
+        <v>129</v>
+      </c>
+      <c r="J18" s="23" t="s">
+        <v>111</v>
+      </c>
+      <c r="K18" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" s="0"/>
+      <c r="M18" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="N18" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="O18" s="0"/>
+      <c r="P18" s="0"/>
+      <c r="Q18" s="0"/>
+      <c r="R18" s="0"/>
+      <c r="S18" s="0"/>
+      <c r="T18" s="0"/>
+      <c r="U18" s="0"/>
+      <c r="V18" s="0"/>
+      <c r="W18" s="0"/>
+      <c r="X18" s="0"/>
+      <c r="Y18" s="0"/>
+      <c r="AA18" s="0"/>
+      <c r="AB18" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="AC18" s="19"/>
+      <c r="AD18" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE18" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="AF18" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A19" s="22" t="s">
+        <v>141</v>
+      </c>
+      <c r="B19" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="C19" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="D19" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="F19" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="H19" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="I19" s="17" t="s">
+        <v>131</v>
+      </c>
+      <c r="J19" s="23" t="s">
+        <v>111</v>
+      </c>
+      <c r="K19" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" s="0"/>
+      <c r="M19" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="N19" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="O19" s="0"/>
+      <c r="P19" s="0"/>
+      <c r="Q19" s="0"/>
+      <c r="R19" s="0"/>
+      <c r="S19" s="0"/>
+      <c r="T19" s="0"/>
+      <c r="U19" s="0"/>
+      <c r="V19" s="0"/>
+      <c r="W19" s="0"/>
+      <c r="X19" s="0"/>
+      <c r="Y19" s="0"/>
+      <c r="AA19" s="0"/>
+      <c r="AB19" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="AC19" s="19"/>
+      <c r="AD19" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE19" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="AF19" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A20" s="22" t="s">
+        <v>141</v>
+      </c>
+      <c r="B20" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="C20" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="D20" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="F20" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="H20" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="I20" s="17" t="s">
+        <v>133</v>
+      </c>
+      <c r="J20" s="23" t="s">
+        <v>111</v>
+      </c>
+      <c r="K20" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" s="13"/>
+      <c r="M20" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="N20" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="O20" s="13"/>
+      <c r="P20" s="13"/>
+      <c r="Q20" s="13"/>
+      <c r="R20" s="13"/>
+      <c r="S20" s="13"/>
+      <c r="T20" s="13"/>
+      <c r="U20" s="13"/>
+      <c r="V20" s="13"/>
+      <c r="W20" s="13"/>
+      <c r="X20" s="13"/>
+      <c r="Y20" s="13"/>
+      <c r="AA20" s="13"/>
+      <c r="AB20" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="AC20" s="14"/>
+      <c r="AD20" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE20" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="AF20" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:AF65536"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="19.1376518218624"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="19.995951417004"/>
+    <col collapsed="false" hidden="false" max="6" min="3" style="2" width="19.1376518218624"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="19.1376518218624"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="19.1376518218624"/>
+    <col collapsed="false" hidden="false" max="10" min="9" style="1" width="19.1376518218624"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="2" width="19.1376518218624"/>
+    <col collapsed="false" hidden="false" max="25" min="12" style="1" width="19.1376518218624"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="2" width="19.1376518218624"/>
+    <col collapsed="false" hidden="false" max="28" min="27" style="1" width="19.1376518218624"/>
+    <col collapsed="false" hidden="false" max="30" min="29" style="2" width="19.1376518218624"/>
+    <col collapsed="false" hidden="false" max="32" min="31" style="1" width="19.1376518218624"/>
+    <col collapsed="false" hidden="false" max="37" min="33" style="25" width="19.1376518218624"/>
+    <col collapsed="false" hidden="false" max="1025" min="38" style="1" width="19.1376518218624"/>
   </cols>
   <sheetData>
     <row r="1" s="5" customFormat="true" ht="64" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2378,21 +3718,20 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="1" style="1" width="19.1376518218624"/>
-    <col collapsed="false" hidden="false" max="6" min="3" style="2" width="19.1376518218624"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="19.1376518218624"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="19.1376518218624"/>
-    <col collapsed="false" hidden="false" max="10" min="9" style="1" width="19.1376518218624"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="2" width="19.1376518218624"/>
-    <col collapsed="false" hidden="false" max="13" min="12" style="1" width="19.1376518218624"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="2" width="19.1376518218624"/>
-    <col collapsed="false" hidden="false" max="25" min="15" style="1" width="19.1376518218624"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="2" width="19.1376518218624"/>
-    <col collapsed="false" hidden="false" max="28" min="27" style="1" width="19.1376518218624"/>
-    <col collapsed="false" hidden="false" max="30" min="29" style="2" width="19.1376518218624"/>
-    <col collapsed="false" hidden="false" max="32" min="31" style="1" width="19.1376518218624"/>
-    <col collapsed="false" hidden="false" max="37" min="33" style="0" width="19.1376518218624"/>
-    <col collapsed="false" hidden="false" max="1025" min="38" style="1" width="19.1376518218624"/>
+    <col collapsed="false" hidden="false" max="2" min="1" style="1" width="19.995951417004"/>
+    <col collapsed="false" hidden="false" max="6" min="3" style="2" width="19.995951417004"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="19.995951417004"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="19.995951417004"/>
+    <col collapsed="false" hidden="false" max="10" min="9" style="1" width="19.995951417004"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="2" width="19.995951417004"/>
+    <col collapsed="false" hidden="false" max="13" min="12" style="1" width="19.995951417004"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="2" width="19.995951417004"/>
+    <col collapsed="false" hidden="false" max="25" min="15" style="1" width="19.995951417004"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="2" width="19.995951417004"/>
+    <col collapsed="false" hidden="false" max="28" min="27" style="1" width="19.995951417004"/>
+    <col collapsed="false" hidden="false" max="30" min="29" style="2" width="19.995951417004"/>
+    <col collapsed="false" hidden="false" max="32" min="31" style="1" width="19.995951417004"/>
+    <col collapsed="false" hidden="false" max="1025" min="38" style="1" width="19.995951417004"/>
   </cols>
   <sheetData>
     <row r="1" s="5" customFormat="true" ht="56" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3867,18 +5206,18 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="21.2793522267206"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="19.1376518218624"/>
-    <col collapsed="false" hidden="false" max="6" min="3" style="2" width="21.2793522267206"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="21.2793522267206"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="21.2793522267206"/>
-    <col collapsed="false" hidden="false" max="10" min="9" style="1" width="21.2793522267206"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="2" width="21.2793522267206"/>
-    <col collapsed="false" hidden="false" max="25" min="12" style="1" width="21.2793522267206"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="2" width="21.2793522267206"/>
-    <col collapsed="false" hidden="false" max="28" min="27" style="1" width="21.2793522267206"/>
-    <col collapsed="false" hidden="false" max="30" min="29" style="2" width="21.2793522267206"/>
-    <col collapsed="false" hidden="false" max="1025" min="31" style="1" width="21.2793522267206"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="22.2793522267206"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="19.995951417004"/>
+    <col collapsed="false" hidden="false" max="6" min="3" style="2" width="22.2793522267206"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="22.2793522267206"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="22.2793522267206"/>
+    <col collapsed="false" hidden="false" max="10" min="9" style="1" width="22.2793522267206"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="2" width="22.2793522267206"/>
+    <col collapsed="false" hidden="false" max="25" min="12" style="1" width="22.2793522267206"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="2" width="22.2793522267206"/>
+    <col collapsed="false" hidden="false" max="28" min="27" style="1" width="22.2793522267206"/>
+    <col collapsed="false" hidden="false" max="30" min="29" style="2" width="22.2793522267206"/>
+    <col collapsed="false" hidden="false" max="1025" min="31" style="1" width="22.2793522267206"/>
   </cols>
   <sheetData>
     <row r="1" s="5" customFormat="true" ht="59" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5391,22 +6730,22 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="20.1376518218623"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="19.1376518218624"/>
-    <col collapsed="false" hidden="false" max="6" min="3" style="2" width="20.1376518218623"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="23.7085020242915"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="20.1376518218623"/>
-    <col collapsed="false" hidden="false" max="10" min="9" style="1" width="20.1376518218623"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="2" width="20.1376518218623"/>
-    <col collapsed="false" hidden="false" max="13" min="12" style="1" width="20.1376518218623"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="2" width="20.1376518218623"/>
-    <col collapsed="false" hidden="false" max="25" min="15" style="1" width="20.1376518218623"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="2" width="20.1376518218623"/>
-    <col collapsed="false" hidden="false" max="28" min="27" style="1" width="20.1376518218623"/>
-    <col collapsed="false" hidden="false" max="30" min="29" style="2" width="20.1376518218623"/>
-    <col collapsed="false" hidden="false" max="32" min="31" style="1" width="20.1376518218623"/>
-    <col collapsed="false" hidden="false" max="37" min="33" style="0" width="10.1417004048583"/>
-    <col collapsed="false" hidden="false" max="1025" min="38" style="1" width="20.1376518218623"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="20.995951417004"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="19.995951417004"/>
+    <col collapsed="false" hidden="false" max="6" min="3" style="2" width="20.995951417004"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="24.7085020242915"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="20.995951417004"/>
+    <col collapsed="false" hidden="false" max="10" min="9" style="1" width="20.995951417004"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="2" width="20.995951417004"/>
+    <col collapsed="false" hidden="false" max="13" min="12" style="1" width="20.995951417004"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="2" width="20.995951417004"/>
+    <col collapsed="false" hidden="false" max="25" min="15" style="1" width="20.995951417004"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="2" width="20.995951417004"/>
+    <col collapsed="false" hidden="false" max="28" min="27" style="1" width="20.995951417004"/>
+    <col collapsed="false" hidden="false" max="30" min="29" style="2" width="20.995951417004"/>
+    <col collapsed="false" hidden="false" max="32" min="31" style="1" width="20.995951417004"/>
+    <col collapsed="false" hidden="false" max="37" min="33" style="0" width="10.5708502024292"/>
+    <col collapsed="false" hidden="false" max="1025" min="38" style="1" width="20.995951417004"/>
   </cols>
   <sheetData>
     <row r="1" s="5" customFormat="true" ht="65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6879,20 +8218,20 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="19.995951417004"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="19.1376518218624"/>
-    <col collapsed="false" hidden="false" max="6" min="3" style="2" width="19.995951417004"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="19.995951417004"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="19.995951417004"/>
-    <col collapsed="false" hidden="false" max="10" min="9" style="1" width="19.995951417004"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="2" width="19.995951417004"/>
-    <col collapsed="false" hidden="false" max="25" min="12" style="1" width="19.995951417004"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="2" width="19.995951417004"/>
-    <col collapsed="false" hidden="false" max="28" min="27" style="1" width="19.995951417004"/>
-    <col collapsed="false" hidden="false" max="30" min="29" style="2" width="19.995951417004"/>
-    <col collapsed="false" hidden="false" max="32" min="31" style="1" width="19.995951417004"/>
-    <col collapsed="false" hidden="false" max="37" min="33" style="20" width="19.995951417004"/>
-    <col collapsed="false" hidden="false" max="1025" min="38" style="1" width="19.995951417004"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="20.8542510121457"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="19.995951417004"/>
+    <col collapsed="false" hidden="false" max="6" min="3" style="2" width="20.8542510121457"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="20.8542510121457"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="20.8542510121457"/>
+    <col collapsed="false" hidden="false" max="10" min="9" style="1" width="20.8542510121457"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="2" width="20.8542510121457"/>
+    <col collapsed="false" hidden="false" max="25" min="12" style="1" width="20.8542510121457"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="2" width="20.8542510121457"/>
+    <col collapsed="false" hidden="false" max="28" min="27" style="1" width="20.8542510121457"/>
+    <col collapsed="false" hidden="false" max="30" min="29" style="2" width="20.8542510121457"/>
+    <col collapsed="false" hidden="false" max="32" min="31" style="1" width="20.8542510121457"/>
+    <col collapsed="false" hidden="false" max="37" min="33" style="20" width="20.8542510121457"/>
+    <col collapsed="false" hidden="false" max="1025" min="38" style="1" width="20.8542510121457"/>
   </cols>
   <sheetData>
     <row r="1" s="5" customFormat="true" ht="64" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8217,20 +9556,20 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="22.5668016194332"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="19.1376518218624"/>
-    <col collapsed="false" hidden="false" max="6" min="3" style="2" width="22.5668016194332"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="22.5668016194332"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="22.5668016194332"/>
-    <col collapsed="false" hidden="false" max="10" min="9" style="1" width="22.5668016194332"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="2" width="22.5668016194332"/>
-    <col collapsed="false" hidden="false" max="25" min="12" style="1" width="22.5668016194332"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="2" width="22.5668016194332"/>
-    <col collapsed="false" hidden="false" max="28" min="27" style="1" width="22.5668016194332"/>
-    <col collapsed="false" hidden="false" max="30" min="29" style="2" width="22.5668016194332"/>
-    <col collapsed="false" hidden="false" max="32" min="31" style="1" width="22.5668016194332"/>
-    <col collapsed="false" hidden="false" max="37" min="33" style="20" width="22.5668016194332"/>
-    <col collapsed="false" hidden="false" max="1025" min="38" style="1" width="22.5668016194332"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="23.5668016194332"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="19.995951417004"/>
+    <col collapsed="false" hidden="false" max="6" min="3" style="2" width="23.5668016194332"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="23.5668016194332"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="23.5668016194332"/>
+    <col collapsed="false" hidden="false" max="10" min="9" style="1" width="23.5668016194332"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="2" width="23.5668016194332"/>
+    <col collapsed="false" hidden="false" max="25" min="12" style="1" width="23.5668016194332"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="2" width="23.5668016194332"/>
+    <col collapsed="false" hidden="false" max="28" min="27" style="1" width="23.5668016194332"/>
+    <col collapsed="false" hidden="false" max="30" min="29" style="2" width="23.5668016194332"/>
+    <col collapsed="false" hidden="false" max="32" min="31" style="1" width="23.5668016194332"/>
+    <col collapsed="false" hidden="false" max="37" min="33" style="20" width="23.5668016194332"/>
+    <col collapsed="false" hidden="false" max="1025" min="38" style="1" width="23.5668016194332"/>
   </cols>
   <sheetData>
     <row r="1" s="5" customFormat="true" ht="80" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9555,21 +10894,21 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="20.4251012145749"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="19.1376518218624"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="10.8542510121457"/>
-    <col collapsed="false" hidden="false" max="6" min="4" style="2" width="12.2834008097166"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="1" width="20.4251012145749"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="28.2793522267206"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="20.4251012145749"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="2" width="20.4251012145749"/>
-    <col collapsed="false" hidden="false" max="13" min="12" style="1" width="20.4251012145749"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="2" width="20.4251012145749"/>
-    <col collapsed="false" hidden="false" max="25" min="15" style="1" width="20.4251012145749"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="2" width="20.4251012145749"/>
-    <col collapsed="false" hidden="false" max="28" min="27" style="1" width="20.4251012145749"/>
-    <col collapsed="false" hidden="false" max="30" min="29" style="2" width="20.4251012145749"/>
-    <col collapsed="false" hidden="false" max="1025" min="31" style="1" width="20.4251012145749"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="21.2793522267206"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="19.995951417004"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="11.2834008097166"/>
+    <col collapsed="false" hidden="false" max="6" min="4" style="2" width="12.8542510121458"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="1" width="21.2793522267206"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="29.5668016194332"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="21.2793522267206"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="2" width="21.2793522267206"/>
+    <col collapsed="false" hidden="false" max="13" min="12" style="1" width="21.2793522267206"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="2" width="21.2793522267206"/>
+    <col collapsed="false" hidden="false" max="25" min="15" style="1" width="21.2793522267206"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="2" width="21.2793522267206"/>
+    <col collapsed="false" hidden="false" max="28" min="27" style="1" width="21.2793522267206"/>
+    <col collapsed="false" hidden="false" max="30" min="29" style="2" width="21.2793522267206"/>
+    <col collapsed="false" hidden="false" max="1025" min="31" style="1" width="21.2793522267206"/>
   </cols>
   <sheetData>
     <row r="1" s="5" customFormat="true" ht="44" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11075,22 +12414,22 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="25.8502024291498"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="19.1376518218624"/>
-    <col collapsed="false" hidden="false" max="6" min="3" style="2" width="25.8502024291498"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="25.8502024291498"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="25.8502024291498"/>
-    <col collapsed="false" hidden="false" max="10" min="9" style="1" width="25.8502024291498"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="2" width="25.8502024291498"/>
-    <col collapsed="false" hidden="false" max="13" min="12" style="1" width="25.8502024291498"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="2" width="25.8502024291498"/>
-    <col collapsed="false" hidden="false" max="25" min="15" style="1" width="25.8502024291498"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="2" width="25.8502024291498"/>
-    <col collapsed="false" hidden="false" max="28" min="27" style="1" width="25.8502024291498"/>
-    <col collapsed="false" hidden="false" max="30" min="29" style="2" width="25.8502024291498"/>
-    <col collapsed="false" hidden="false" max="32" min="31" style="1" width="25.8502024291498"/>
-    <col collapsed="false" hidden="false" max="37" min="33" style="20" width="25.8502024291498"/>
-    <col collapsed="false" hidden="false" max="1025" min="38" style="1" width="25.8502024291498"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="26.995951417004"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="19.995951417004"/>
+    <col collapsed="false" hidden="false" max="6" min="3" style="2" width="26.995951417004"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="26.995951417004"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="26.995951417004"/>
+    <col collapsed="false" hidden="false" max="10" min="9" style="1" width="26.995951417004"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="2" width="26.995951417004"/>
+    <col collapsed="false" hidden="false" max="13" min="12" style="1" width="26.995951417004"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="2" width="26.995951417004"/>
+    <col collapsed="false" hidden="false" max="25" min="15" style="1" width="26.995951417004"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="2" width="26.995951417004"/>
+    <col collapsed="false" hidden="false" max="28" min="27" style="1" width="26.995951417004"/>
+    <col collapsed="false" hidden="false" max="30" min="29" style="2" width="26.995951417004"/>
+    <col collapsed="false" hidden="false" max="32" min="31" style="1" width="26.995951417004"/>
+    <col collapsed="false" hidden="false" max="37" min="33" style="20" width="26.995951417004"/>
+    <col collapsed="false" hidden="false" max="1025" min="38" style="1" width="26.995951417004"/>
   </cols>
   <sheetData>
     <row r="1" s="5" customFormat="true" ht="72" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12417,20 +13756,20 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="19.995951417004"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="19.1376518218624"/>
-    <col collapsed="false" hidden="false" max="6" min="3" style="2" width="19.995951417004"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="19.995951417004"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="19.995951417004"/>
-    <col collapsed="false" hidden="false" max="10" min="9" style="1" width="19.995951417004"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="2" width="19.995951417004"/>
-    <col collapsed="false" hidden="false" max="25" min="12" style="1" width="19.995951417004"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="2" width="19.995951417004"/>
-    <col collapsed="false" hidden="false" max="28" min="27" style="1" width="19.995951417004"/>
-    <col collapsed="false" hidden="false" max="30" min="29" style="2" width="19.995951417004"/>
-    <col collapsed="false" hidden="false" max="32" min="31" style="1" width="19.995951417004"/>
-    <col collapsed="false" hidden="false" max="37" min="33" style="20" width="19.995951417004"/>
-    <col collapsed="false" hidden="false" max="1025" min="38" style="1" width="19.995951417004"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="20.8542510121457"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="19.995951417004"/>
+    <col collapsed="false" hidden="false" max="6" min="3" style="2" width="20.8542510121457"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="20.8542510121457"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="20.8542510121457"/>
+    <col collapsed="false" hidden="false" max="10" min="9" style="1" width="20.8542510121457"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="2" width="20.8542510121457"/>
+    <col collapsed="false" hidden="false" max="25" min="12" style="1" width="20.8542510121457"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="2" width="20.8542510121457"/>
+    <col collapsed="false" hidden="false" max="28" min="27" style="1" width="20.8542510121457"/>
+    <col collapsed="false" hidden="false" max="30" min="29" style="2" width="20.8542510121457"/>
+    <col collapsed="false" hidden="false" max="32" min="31" style="1" width="20.8542510121457"/>
+    <col collapsed="false" hidden="false" max="37" min="33" style="20" width="20.8542510121457"/>
+    <col collapsed="false" hidden="false" max="1025" min="38" style="1" width="20.8542510121457"/>
   </cols>
   <sheetData>
     <row r="1" s="5" customFormat="true" ht="70" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">

--- a/Projects/CCRU_SAND/Data/Contract Execution 2018.xlsx
+++ b/Projects/CCRU_SAND/Data/Contract Execution 2018.xlsx
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2414" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2414" uniqueCount="140">
   <si>
     <t xml:space="preserve">Channel</t>
   </si>
@@ -357,9 +357,6 @@
     <t xml:space="preserve">Juices</t>
   </si>
   <si>
-    <t xml:space="preserve">PoS Set </t>
-  </si>
-  <si>
     <t xml:space="preserve">x</t>
   </si>
   <si>
@@ -475,9 +472,6 @@
   </si>
   <si>
     <t xml:space="preserve">HRC_CTS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KPI Set</t>
   </si>
   <si>
     <t xml:space="preserve">HRC_RC</t>
@@ -743,21 +737,21 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="1" style="1" width="22.7085020242915"/>
-    <col collapsed="false" hidden="false" max="6" min="3" style="2" width="22.7085020242915"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="22.7085020242915"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="22.7085020242915"/>
-    <col collapsed="false" hidden="false" max="10" min="9" style="1" width="22.7085020242915"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="2" width="22.7085020242915"/>
-    <col collapsed="false" hidden="false" max="13" min="12" style="1" width="22.7085020242915"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="2" width="22.7085020242915"/>
-    <col collapsed="false" hidden="false" max="25" min="15" style="1" width="22.7085020242915"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="3" width="22.7085020242915"/>
-    <col collapsed="false" hidden="false" max="28" min="27" style="1" width="22.7085020242915"/>
-    <col collapsed="false" hidden="false" max="30" min="29" style="2" width="22.7085020242915"/>
-    <col collapsed="false" hidden="false" max="32" min="31" style="1" width="22.7085020242915"/>
-    <col collapsed="false" hidden="false" max="37" min="33" style="4" width="22.7085020242915"/>
-    <col collapsed="false" hidden="false" max="1025" min="38" style="1" width="22.7085020242915"/>
+    <col collapsed="false" hidden="false" max="2" min="1" style="1" width="24.7085020242915"/>
+    <col collapsed="false" hidden="false" max="6" min="3" style="2" width="24.7085020242915"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="24.7085020242915"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="24.7085020242915"/>
+    <col collapsed="false" hidden="false" max="10" min="9" style="1" width="24.7085020242915"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="2" width="24.7085020242915"/>
+    <col collapsed="false" hidden="false" max="13" min="12" style="1" width="24.7085020242915"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="2" width="24.7085020242915"/>
+    <col collapsed="false" hidden="false" max="25" min="15" style="1" width="24.7085020242915"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="3" width="24.7085020242915"/>
+    <col collapsed="false" hidden="false" max="28" min="27" style="1" width="24.7085020242915"/>
+    <col collapsed="false" hidden="false" max="30" min="29" style="2" width="24.7085020242915"/>
+    <col collapsed="false" hidden="false" max="32" min="31" style="1" width="24.7085020242915"/>
+    <col collapsed="false" hidden="false" max="37" min="33" style="4" width="24.7085020242915"/>
+    <col collapsed="false" hidden="false" max="1025" min="38" style="1" width="24.7085020242915"/>
   </cols>
   <sheetData>
     <row r="1" s="5" customFormat="true" ht="67" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2222,25 +2216,25 @@
   <dimension ref="A1:AF65536"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="16.8542510121458"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="17.5668016194332"/>
-    <col collapsed="false" hidden="false" max="6" min="3" style="2" width="16.8542510121458"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="16.8542510121458"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="16.8542510121458"/>
-    <col collapsed="false" hidden="false" max="10" min="9" style="1" width="16.8542510121458"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="2" width="16.8542510121458"/>
-    <col collapsed="false" hidden="false" max="25" min="12" style="1" width="16.8542510121458"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="2" width="16.8542510121458"/>
-    <col collapsed="false" hidden="false" max="28" min="27" style="1" width="16.8542510121458"/>
-    <col collapsed="false" hidden="false" max="30" min="29" style="2" width="16.8542510121458"/>
-    <col collapsed="false" hidden="false" max="32" min="31" style="1" width="16.8542510121458"/>
-    <col collapsed="false" hidden="false" max="37" min="33" style="25" width="16.8542510121458"/>
-    <col collapsed="false" hidden="false" max="1025" min="38" style="1" width="16.8542510121458"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="18.2834008097166"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="19.1376518218624"/>
+    <col collapsed="false" hidden="false" max="6" min="3" style="2" width="18.2834008097166"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="18.2834008097166"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="18.2834008097166"/>
+    <col collapsed="false" hidden="false" max="10" min="9" style="1" width="18.2834008097166"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="2" width="18.2834008097166"/>
+    <col collapsed="false" hidden="false" max="25" min="12" style="1" width="18.2834008097166"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="2" width="18.2834008097166"/>
+    <col collapsed="false" hidden="false" max="28" min="27" style="1" width="18.2834008097166"/>
+    <col collapsed="false" hidden="false" max="30" min="29" style="2" width="18.2834008097166"/>
+    <col collapsed="false" hidden="false" max="32" min="31" style="1" width="18.2834008097166"/>
+    <col collapsed="false" hidden="false" max="37" min="33" style="25" width="18.2834008097166"/>
+    <col collapsed="false" hidden="false" max="1025" min="38" style="1" width="18.2834008097166"/>
   </cols>
   <sheetData>
     <row r="1" s="5" customFormat="true" ht="64" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2248,7 +2242,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>140</v>
+        <v>1</v>
       </c>
       <c r="C1" s="6" t="s">
         <v>2</v>
@@ -2281,7 +2275,7 @@
         <v>11</v>
       </c>
       <c r="M1" s="5" t="s">
-        <v>100</v>
+        <v>12</v>
       </c>
       <c r="N1" s="5" t="s">
         <v>13</v>
@@ -2343,7 +2337,7 @@
     </row>
     <row r="2" s="4" customFormat="true" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="22" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B2" s="11" t="s">
         <v>33</v>
@@ -2393,7 +2387,7 @@
     </row>
     <row r="3" s="4" customFormat="true" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="22" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B3" s="11" t="s">
         <v>33</v>
@@ -2443,7 +2437,7 @@
     </row>
     <row r="4" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="22" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B4" s="18" t="s">
         <v>42</v>
@@ -2459,7 +2453,7 @@
         <v>2</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H4" s="0"/>
       <c r="I4" s="1" t="s">
@@ -2501,7 +2495,7 @@
     </row>
     <row r="5" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="22" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B5" s="18" t="s">
         <v>42</v>
@@ -2571,7 +2565,7 @@
     </row>
     <row r="6" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="22" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B6" s="18" t="s">
         <v>42</v>
@@ -2641,7 +2635,7 @@
     </row>
     <row r="7" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="22" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B7" s="18" t="s">
         <v>42</v>
@@ -2711,7 +2705,7 @@
     </row>
     <row r="8" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="22" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B8" s="18" t="s">
         <v>42</v>
@@ -2727,11 +2721,11 @@
         <v>2</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H8" s="0"/>
       <c r="I8" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="J8" s="13" t="s">
         <v>45</v>
@@ -2769,7 +2763,7 @@
     </row>
     <row r="9" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="22" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B9" s="18" t="s">
         <v>42</v>
@@ -2790,17 +2784,17 @@
         <v>5</v>
       </c>
       <c r="I9" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="J9" s="23" t="s">
         <v>110</v>
-      </c>
-      <c r="J9" s="23" t="s">
-        <v>111</v>
       </c>
       <c r="K9" s="2" t="n">
         <v>1</v>
       </c>
       <c r="L9" s="0"/>
       <c r="M9" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="N9" s="1" t="s">
         <v>49</v>
@@ -2833,7 +2827,7 @@
     </row>
     <row r="10" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="22" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B10" s="18" t="s">
         <v>42</v>
@@ -2854,17 +2848,17 @@
         <v>5</v>
       </c>
       <c r="I10" s="17" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="J10" s="23" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="K10" s="2" t="n">
         <v>1</v>
       </c>
       <c r="L10" s="0"/>
       <c r="M10" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="N10" s="1" t="s">
         <v>49</v>
@@ -2897,7 +2891,7 @@
     </row>
     <row r="11" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="22" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B11" s="18" t="s">
         <v>42</v>
@@ -2918,17 +2912,17 @@
         <v>5</v>
       </c>
       <c r="I11" s="17" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="J11" s="23" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="K11" s="2" t="n">
         <v>1</v>
       </c>
       <c r="L11" s="0"/>
       <c r="M11" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="N11" s="1" t="s">
         <v>49</v>
@@ -2961,7 +2955,7 @@
     </row>
     <row r="12" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="22" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B12" s="18" t="s">
         <v>42</v>
@@ -2982,17 +2976,17 @@
         <v>5</v>
       </c>
       <c r="I12" s="17" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J12" s="23" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="K12" s="2" t="n">
         <v>1</v>
       </c>
       <c r="L12" s="0"/>
       <c r="M12" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="N12" s="1" t="s">
         <v>49</v>
@@ -3025,7 +3019,7 @@
     </row>
     <row r="13" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="22" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B13" s="18" t="s">
         <v>42</v>
@@ -3046,17 +3040,17 @@
         <v>5</v>
       </c>
       <c r="I13" s="17" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J13" s="23" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="K13" s="2" t="n">
         <v>1</v>
       </c>
       <c r="L13" s="0"/>
       <c r="M13" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="N13" s="1" t="s">
         <v>49</v>
@@ -3089,7 +3083,7 @@
     </row>
     <row r="14" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="22" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B14" s="18" t="s">
         <v>42</v>
@@ -3110,17 +3104,17 @@
         <v>5</v>
       </c>
       <c r="I14" s="17" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="J14" s="23" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="K14" s="2" t="n">
         <v>1</v>
       </c>
       <c r="L14" s="0"/>
       <c r="M14" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="N14" s="1" t="s">
         <v>49</v>
@@ -3153,7 +3147,7 @@
     </row>
     <row r="15" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="22" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B15" s="18" t="s">
         <v>42</v>
@@ -3174,17 +3168,17 @@
         <v>5</v>
       </c>
       <c r="I15" s="17" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="J15" s="23" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="K15" s="2" t="n">
         <v>1</v>
       </c>
       <c r="L15" s="0"/>
       <c r="M15" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="N15" s="1" t="s">
         <v>49</v>
@@ -3217,7 +3211,7 @@
     </row>
     <row r="16" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="22" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B16" s="18" t="s">
         <v>42</v>
@@ -3238,17 +3232,17 @@
         <v>5</v>
       </c>
       <c r="I16" s="17" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="J16" s="23" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="K16" s="2" t="n">
         <v>1</v>
       </c>
       <c r="L16" s="0"/>
       <c r="M16" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="N16" s="1" t="s">
         <v>49</v>
@@ -3281,7 +3275,7 @@
     </row>
     <row r="17" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="22" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B17" s="18" t="s">
         <v>42</v>
@@ -3302,17 +3296,17 @@
         <v>5</v>
       </c>
       <c r="I17" s="17" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J17" s="23" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="K17" s="2" t="n">
         <v>1</v>
       </c>
       <c r="L17" s="0"/>
       <c r="M17" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="N17" s="1" t="s">
         <v>49</v>
@@ -3345,7 +3339,7 @@
     </row>
     <row r="18" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="22" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B18" s="18" t="s">
         <v>42</v>
@@ -3366,17 +3360,17 @@
         <v>5</v>
       </c>
       <c r="I18" s="17" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J18" s="23" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="K18" s="2" t="n">
         <v>1</v>
       </c>
       <c r="L18" s="0"/>
       <c r="M18" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="N18" s="1" t="s">
         <v>49</v>
@@ -3409,7 +3403,7 @@
     </row>
     <row r="19" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="22" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B19" s="18" t="s">
         <v>42</v>
@@ -3430,17 +3424,17 @@
         <v>5</v>
       </c>
       <c r="I19" s="17" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="J19" s="23" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="K19" s="2" t="n">
         <v>1</v>
       </c>
       <c r="L19" s="0"/>
       <c r="M19" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="N19" s="1" t="s">
         <v>49</v>
@@ -3473,7 +3467,7 @@
     </row>
     <row r="20" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="22" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B20" s="18" t="s">
         <v>42</v>
@@ -3494,17 +3488,17 @@
         <v>5</v>
       </c>
       <c r="I20" s="17" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="J20" s="23" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="K20" s="14" t="n">
         <v>1</v>
       </c>
       <c r="L20" s="13"/>
       <c r="M20" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="N20" s="1" t="s">
         <v>49</v>
@@ -3555,25 +3549,25 @@
   <dimension ref="A1:AF65536"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="M1" activeCellId="0" sqref="M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="19.1376518218624"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="19.995951417004"/>
-    <col collapsed="false" hidden="false" max="6" min="3" style="2" width="19.1376518218624"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="19.1376518218624"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="19.1376518218624"/>
-    <col collapsed="false" hidden="false" max="10" min="9" style="1" width="19.1376518218624"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="2" width="19.1376518218624"/>
-    <col collapsed="false" hidden="false" max="25" min="12" style="1" width="19.1376518218624"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="2" width="19.1376518218624"/>
-    <col collapsed="false" hidden="false" max="28" min="27" style="1" width="19.1376518218624"/>
-    <col collapsed="false" hidden="false" max="30" min="29" style="2" width="19.1376518218624"/>
-    <col collapsed="false" hidden="false" max="32" min="31" style="1" width="19.1376518218624"/>
-    <col collapsed="false" hidden="false" max="37" min="33" style="25" width="19.1376518218624"/>
-    <col collapsed="false" hidden="false" max="1025" min="38" style="1" width="19.1376518218624"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="20.8542510121457"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="21.7085020242915"/>
+    <col collapsed="false" hidden="false" max="6" min="3" style="2" width="20.8542510121457"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="20.8542510121457"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="20.8542510121457"/>
+    <col collapsed="false" hidden="false" max="10" min="9" style="1" width="20.8542510121457"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="2" width="20.8542510121457"/>
+    <col collapsed="false" hidden="false" max="25" min="12" style="1" width="20.8542510121457"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="2" width="20.8542510121457"/>
+    <col collapsed="false" hidden="false" max="28" min="27" style="1" width="20.8542510121457"/>
+    <col collapsed="false" hidden="false" max="30" min="29" style="2" width="20.8542510121457"/>
+    <col collapsed="false" hidden="false" max="32" min="31" style="1" width="20.8542510121457"/>
+    <col collapsed="false" hidden="false" max="37" min="33" style="25" width="20.8542510121457"/>
+    <col collapsed="false" hidden="false" max="1025" min="38" style="1" width="20.8542510121457"/>
   </cols>
   <sheetData>
     <row r="1" s="5" customFormat="true" ht="64" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3614,7 +3608,7 @@
         <v>11</v>
       </c>
       <c r="M1" s="5" t="s">
-        <v>100</v>
+        <v>12</v>
       </c>
       <c r="N1" s="5" t="s">
         <v>13</v>
@@ -3712,26 +3706,27 @@
   </sheetPr>
   <dimension ref="A1:AK65536"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="T1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="Z2" activeCellId="0" sqref="Z2"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="M1" activeCellId="0" sqref="M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="1" style="1" width="19.995951417004"/>
-    <col collapsed="false" hidden="false" max="6" min="3" style="2" width="19.995951417004"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="19.995951417004"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="19.995951417004"/>
-    <col collapsed="false" hidden="false" max="10" min="9" style="1" width="19.995951417004"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="2" width="19.995951417004"/>
-    <col collapsed="false" hidden="false" max="13" min="12" style="1" width="19.995951417004"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="2" width="19.995951417004"/>
-    <col collapsed="false" hidden="false" max="25" min="15" style="1" width="19.995951417004"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="2" width="19.995951417004"/>
-    <col collapsed="false" hidden="false" max="28" min="27" style="1" width="19.995951417004"/>
-    <col collapsed="false" hidden="false" max="30" min="29" style="2" width="19.995951417004"/>
-    <col collapsed="false" hidden="false" max="32" min="31" style="1" width="19.995951417004"/>
-    <col collapsed="false" hidden="false" max="1025" min="38" style="1" width="19.995951417004"/>
+    <col collapsed="false" hidden="false" max="2" min="1" style="1" width="21.7085020242915"/>
+    <col collapsed="false" hidden="false" max="6" min="3" style="2" width="21.7085020242915"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="21.7085020242915"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="21.7085020242915"/>
+    <col collapsed="false" hidden="false" max="10" min="9" style="1" width="21.7085020242915"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="2" width="21.7085020242915"/>
+    <col collapsed="false" hidden="false" max="13" min="12" style="1" width="21.7085020242915"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="2" width="21.7085020242915"/>
+    <col collapsed="false" hidden="false" max="25" min="15" style="1" width="21.7085020242915"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="2" width="21.7085020242915"/>
+    <col collapsed="false" hidden="false" max="28" min="27" style="1" width="21.7085020242915"/>
+    <col collapsed="false" hidden="false" max="30" min="29" style="2" width="21.7085020242915"/>
+    <col collapsed="false" hidden="false" max="32" min="31" style="1" width="21.7085020242915"/>
+    <col collapsed="false" hidden="false" max="37" min="33" style="0" width="9.2834008097166"/>
+    <col collapsed="false" hidden="false" max="1025" min="38" style="1" width="21.7085020242915"/>
   </cols>
   <sheetData>
     <row r="1" s="5" customFormat="true" ht="56" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3772,7 +3767,7 @@
         <v>11</v>
       </c>
       <c r="M1" s="5" t="s">
-        <v>100</v>
+        <v>12</v>
       </c>
       <c r="N1" s="6" t="s">
         <v>13</v>
@@ -3836,12 +3831,12 @@
       <c r="AI1" s="0"/>
       <c r="AJ1" s="0"/>
       <c r="AK1" s="0" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="2" s="4" customFormat="true" ht="39" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="18" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B2" s="11" t="s">
         <v>33</v>
@@ -3891,7 +3886,7 @@
     </row>
     <row r="3" s="4" customFormat="true" ht="39" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="18" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B3" s="11" t="s">
         <v>33</v>
@@ -3941,7 +3936,7 @@
     </row>
     <row r="4" customFormat="false" ht="34" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="18" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B4" s="18" t="s">
         <v>42</v>
@@ -3999,7 +3994,7 @@
     </row>
     <row r="5" customFormat="false" ht="34" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="18" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B5" s="18" t="s">
         <v>42</v>
@@ -4060,7 +4055,7 @@
     </row>
     <row r="6" customFormat="false" ht="34" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="18" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B6" s="18" t="s">
         <v>42</v>
@@ -4121,7 +4116,7 @@
     </row>
     <row r="7" customFormat="false" ht="34" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="18" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B7" s="18" t="s">
         <v>42</v>
@@ -4182,7 +4177,7 @@
     </row>
     <row r="8" customFormat="false" ht="34" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="18" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B8" s="18" t="s">
         <v>42</v>
@@ -4243,7 +4238,7 @@
     </row>
     <row r="9" customFormat="false" ht="34" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="18" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B9" s="18" t="s">
         <v>42</v>
@@ -4304,7 +4299,7 @@
     </row>
     <row r="10" customFormat="false" ht="34" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="18" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B10" s="18" t="s">
         <v>42</v>
@@ -4365,7 +4360,7 @@
     </row>
     <row r="11" customFormat="false" ht="34" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="18" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B11" s="18" t="s">
         <v>42</v>
@@ -4426,7 +4421,7 @@
     </row>
     <row r="12" customFormat="false" ht="34" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="18" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B12" s="18" t="s">
         <v>42</v>
@@ -4487,7 +4482,7 @@
     </row>
     <row r="13" customFormat="false" ht="34" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="18" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B13" s="18" t="s">
         <v>42</v>
@@ -4548,7 +4543,7 @@
     </row>
     <row r="14" customFormat="false" ht="34" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="18" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B14" s="18" t="s">
         <v>42</v>
@@ -4609,7 +4604,7 @@
     </row>
     <row r="15" customFormat="false" ht="34" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="18" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B15" s="18" t="s">
         <v>42</v>
@@ -4657,7 +4652,7 @@
     </row>
     <row r="16" customFormat="false" ht="34" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="18" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B16" s="18" t="s">
         <v>42</v>
@@ -4717,7 +4712,7 @@
     </row>
     <row r="17" customFormat="false" ht="34" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="18" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B17" s="18" t="s">
         <v>42</v>
@@ -4777,7 +4772,7 @@
     </row>
     <row r="18" customFormat="false" ht="34" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="18" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B18" s="18" t="s">
         <v>42</v>
@@ -4836,7 +4831,7 @@
     </row>
     <row r="19" customFormat="false" ht="34" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="18" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B19" s="18" t="s">
         <v>42</v>
@@ -4883,7 +4878,7 @@
     </row>
     <row r="20" customFormat="false" ht="34" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="18" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B20" s="18" t="s">
         <v>42</v>
@@ -4943,7 +4938,7 @@
     </row>
     <row r="21" customFormat="false" ht="34" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="18" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B21" s="18" t="s">
         <v>42</v>
@@ -5003,7 +4998,7 @@
     </row>
     <row r="22" customFormat="false" ht="34" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="18" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B22" s="18" t="s">
         <v>42</v>
@@ -5063,7 +5058,7 @@
     </row>
     <row r="23" customFormat="false" ht="34" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="18" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B23" s="18" t="s">
         <v>42</v>
@@ -5123,7 +5118,7 @@
     </row>
     <row r="24" customFormat="false" ht="34" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="18" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B24" s="18" t="s">
         <v>42</v>
@@ -5201,23 +5196,23 @@
   <dimension ref="A1:AJ65536"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I22" activeCellId="0" sqref="I22"/>
+      <selection pane="topLeft" activeCell="AE18" activeCellId="0" sqref="AE18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="22.2793522267206"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="19.995951417004"/>
-    <col collapsed="false" hidden="false" max="6" min="3" style="2" width="22.2793522267206"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="22.2793522267206"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="22.2793522267206"/>
-    <col collapsed="false" hidden="false" max="10" min="9" style="1" width="22.2793522267206"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="2" width="22.2793522267206"/>
-    <col collapsed="false" hidden="false" max="25" min="12" style="1" width="22.2793522267206"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="2" width="22.2793522267206"/>
-    <col collapsed="false" hidden="false" max="28" min="27" style="1" width="22.2793522267206"/>
-    <col collapsed="false" hidden="false" max="30" min="29" style="2" width="22.2793522267206"/>
-    <col collapsed="false" hidden="false" max="1025" min="31" style="1" width="22.2793522267206"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="24.2793522267206"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="21.7085020242915"/>
+    <col collapsed="false" hidden="false" max="6" min="3" style="2" width="24.2793522267206"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="24.2793522267206"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="24.2793522267206"/>
+    <col collapsed="false" hidden="false" max="10" min="9" style="1" width="24.2793522267206"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="2" width="24.2793522267206"/>
+    <col collapsed="false" hidden="false" max="25" min="12" style="1" width="24.2793522267206"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="2" width="24.2793522267206"/>
+    <col collapsed="false" hidden="false" max="28" min="27" style="1" width="24.2793522267206"/>
+    <col collapsed="false" hidden="false" max="30" min="29" style="2" width="24.2793522267206"/>
+    <col collapsed="false" hidden="false" max="1025" min="31" style="1" width="24.2793522267206"/>
   </cols>
   <sheetData>
     <row r="1" s="5" customFormat="true" ht="59" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5323,7 +5318,7 @@
     </row>
     <row r="2" s="4" customFormat="true" ht="39" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="18" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B2" s="11" t="s">
         <v>33</v>
@@ -5373,7 +5368,7 @@
     </row>
     <row r="3" s="4" customFormat="true" ht="39" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="18" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B3" s="11" t="s">
         <v>33</v>
@@ -5423,7 +5418,7 @@
     </row>
     <row r="4" customFormat="false" ht="37" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="18" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B4" s="18" t="s">
         <v>42</v>
@@ -5483,7 +5478,7 @@
     </row>
     <row r="5" customFormat="false" ht="37" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="18" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B5" s="18" t="s">
         <v>42</v>
@@ -5546,7 +5541,7 @@
     </row>
     <row r="6" customFormat="false" ht="37" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="18" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B6" s="18" t="s">
         <v>42</v>
@@ -5609,7 +5604,7 @@
     </row>
     <row r="7" customFormat="false" ht="37" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="18" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B7" s="18" t="s">
         <v>42</v>
@@ -5672,7 +5667,7 @@
     </row>
     <row r="8" customFormat="false" ht="37" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="18" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B8" s="18" t="s">
         <v>42</v>
@@ -5735,7 +5730,7 @@
     </row>
     <row r="9" customFormat="false" ht="37" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="18" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B9" s="18" t="s">
         <v>42</v>
@@ -5798,7 +5793,7 @@
     </row>
     <row r="10" customFormat="false" ht="37" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="18" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B10" s="18" t="s">
         <v>42</v>
@@ -5861,7 +5856,7 @@
     </row>
     <row r="11" customFormat="false" ht="37" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="18" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B11" s="18" t="s">
         <v>42</v>
@@ -5924,7 +5919,7 @@
     </row>
     <row r="12" customFormat="false" ht="37" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="18" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B12" s="18" t="s">
         <v>42</v>
@@ -5987,7 +5982,7 @@
     </row>
     <row r="13" customFormat="false" ht="37" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="18" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B13" s="18" t="s">
         <v>42</v>
@@ -6050,7 +6045,7 @@
     </row>
     <row r="14" customFormat="false" ht="37" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="18" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B14" s="18" t="s">
         <v>42</v>
@@ -6113,7 +6108,7 @@
     </row>
     <row r="15" customFormat="false" ht="37" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="18" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B15" s="18" t="s">
         <v>42</v>
@@ -6163,7 +6158,7 @@
     </row>
     <row r="16" customFormat="false" ht="37" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="18" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B16" s="18" t="s">
         <v>42</v>
@@ -6225,7 +6220,7 @@
     </row>
     <row r="17" customFormat="false" ht="37" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="18" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B17" s="18" t="s">
         <v>42</v>
@@ -6287,7 +6282,7 @@
     </row>
     <row r="18" customFormat="false" ht="37" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="18" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B18" s="18" t="s">
         <v>42</v>
@@ -6348,7 +6343,7 @@
     </row>
     <row r="19" customFormat="false" ht="37" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="18" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B19" s="18" t="s">
         <v>42</v>
@@ -6397,7 +6392,7 @@
     </row>
     <row r="20" customFormat="false" ht="37" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="18" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B20" s="18" t="s">
         <v>42</v>
@@ -6459,7 +6454,7 @@
     </row>
     <row r="21" customFormat="false" ht="37" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="18" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B21" s="18" t="s">
         <v>42</v>
@@ -6521,7 +6516,7 @@
     </row>
     <row r="22" customFormat="false" ht="37" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="18" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B22" s="18" t="s">
         <v>42</v>
@@ -6583,7 +6578,7 @@
     </row>
     <row r="23" customFormat="false" ht="37" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="18" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B23" s="18" t="s">
         <v>42</v>
@@ -6645,7 +6640,7 @@
     </row>
     <row r="24" customFormat="false" ht="37" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="18" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B24" s="18" t="s">
         <v>42</v>
@@ -6722,30 +6717,31 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AK65536"/>
+  <dimension ref="1:24"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="U1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="Z3" activeCellId="0" sqref="Z3"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K5" activeCellId="0" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="20.995951417004"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="19.995951417004"/>
-    <col collapsed="false" hidden="false" max="6" min="3" style="2" width="20.995951417004"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="24.7085020242915"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="20.995951417004"/>
-    <col collapsed="false" hidden="false" max="10" min="9" style="1" width="20.995951417004"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="2" width="20.995951417004"/>
-    <col collapsed="false" hidden="false" max="13" min="12" style="1" width="20.995951417004"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="2" width="20.995951417004"/>
-    <col collapsed="false" hidden="false" max="25" min="15" style="1" width="20.995951417004"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="2" width="20.995951417004"/>
-    <col collapsed="false" hidden="false" max="28" min="27" style="1" width="20.995951417004"/>
-    <col collapsed="false" hidden="false" max="30" min="29" style="2" width="20.995951417004"/>
-    <col collapsed="false" hidden="false" max="32" min="31" style="1" width="20.995951417004"/>
-    <col collapsed="false" hidden="false" max="37" min="33" style="0" width="10.5708502024292"/>
-    <col collapsed="false" hidden="false" max="1025" min="38" style="1" width="20.995951417004"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="22.8502024291498"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="21.7085020242915"/>
+    <col collapsed="false" hidden="false" max="6" min="3" style="2" width="22.8502024291498"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="26.995951417004"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="22.8502024291498"/>
+    <col collapsed="false" hidden="false" max="10" min="9" style="1" width="22.8502024291498"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="2" width="22.8502024291498"/>
+    <col collapsed="false" hidden="false" max="13" min="12" style="1" width="22.8502024291498"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="2" width="22.8502024291498"/>
+    <col collapsed="false" hidden="false" max="25" min="15" style="1" width="22.8502024291498"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="2" width="22.8502024291498"/>
+    <col collapsed="false" hidden="false" max="28" min="27" style="1" width="22.8502024291498"/>
+    <col collapsed="false" hidden="false" max="30" min="29" style="2" width="22.8502024291498"/>
+    <col collapsed="false" hidden="false" max="32" min="31" style="1" width="22.8502024291498"/>
+    <col collapsed="false" hidden="false" max="37" min="33" style="0" width="11.4251012145749"/>
+    <col collapsed="false" hidden="false" max="1023" min="38" style="1" width="22.8502024291498"/>
+    <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="22.8502024291498"/>
   </cols>
   <sheetData>
     <row r="1" s="5" customFormat="true" ht="65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6850,10 +6846,11 @@
       <c r="AI1" s="0"/>
       <c r="AJ1" s="0"/>
       <c r="AK1" s="0"/>
+      <c r="AMJ1" s="0"/>
     </row>
     <row r="2" s="4" customFormat="true" ht="39" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="18" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B2" s="11" t="s">
         <v>33</v>
@@ -6900,10 +6897,11 @@
       <c r="AF2" s="13" t="s">
         <v>39</v>
       </c>
+      <c r="AMJ2" s="0"/>
     </row>
     <row r="3" s="4" customFormat="true" ht="39" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="18" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B3" s="11" t="s">
         <v>33</v>
@@ -6950,10 +6948,11 @@
       <c r="AF3" s="13" t="s">
         <v>39</v>
       </c>
+      <c r="AMJ3" s="0"/>
     </row>
     <row r="4" customFormat="false" ht="40" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="18" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B4" s="18" t="s">
         <v>42</v>
@@ -7011,7 +7010,7 @@
     </row>
     <row r="5" customFormat="false" ht="40" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="18" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B5" s="18" t="s">
         <v>42</v>
@@ -7072,7 +7071,7 @@
     </row>
     <row r="6" customFormat="false" ht="40" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="18" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B6" s="18" t="s">
         <v>42</v>
@@ -7133,7 +7132,7 @@
     </row>
     <row r="7" customFormat="false" ht="40" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="18" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B7" s="18" t="s">
         <v>42</v>
@@ -7194,7 +7193,7 @@
     </row>
     <row r="8" customFormat="false" ht="40" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="18" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B8" s="18" t="s">
         <v>42</v>
@@ -7255,7 +7254,7 @@
     </row>
     <row r="9" customFormat="false" ht="40" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="18" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B9" s="18" t="s">
         <v>42</v>
@@ -7316,7 +7315,7 @@
     </row>
     <row r="10" customFormat="false" ht="40" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="18" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B10" s="18" t="s">
         <v>42</v>
@@ -7377,7 +7376,7 @@
     </row>
     <row r="11" customFormat="false" ht="40" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="18" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B11" s="18" t="s">
         <v>42</v>
@@ -7438,7 +7437,7 @@
     </row>
     <row r="12" customFormat="false" ht="40" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="18" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B12" s="18" t="s">
         <v>42</v>
@@ -7499,7 +7498,7 @@
     </row>
     <row r="13" customFormat="false" ht="40" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="18" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B13" s="18" t="s">
         <v>42</v>
@@ -7560,7 +7559,7 @@
     </row>
     <row r="14" customFormat="false" ht="40" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="18" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B14" s="18" t="s">
         <v>42</v>
@@ -7621,7 +7620,7 @@
     </row>
     <row r="15" customFormat="false" ht="40" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="18" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B15" s="18" t="s">
         <v>42</v>
@@ -7669,7 +7668,7 @@
     </row>
     <row r="16" customFormat="false" ht="40" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="18" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B16" s="18" t="s">
         <v>42</v>
@@ -7729,7 +7728,7 @@
     </row>
     <row r="17" customFormat="false" ht="40" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="18" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B17" s="18" t="s">
         <v>42</v>
@@ -7789,7 +7788,7 @@
     </row>
     <row r="18" customFormat="false" ht="40" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="18" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B18" s="18" t="s">
         <v>42</v>
@@ -7848,7 +7847,7 @@
     </row>
     <row r="19" customFormat="false" ht="40" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="18" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B19" s="18" t="s">
         <v>42</v>
@@ -7895,7 +7894,7 @@
     </row>
     <row r="20" customFormat="false" ht="40" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="18" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B20" s="18" t="s">
         <v>42</v>
@@ -7955,7 +7954,7 @@
     </row>
     <row r="21" customFormat="false" ht="40" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="18" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B21" s="18" t="s">
         <v>42</v>
@@ -8015,7 +8014,7 @@
     </row>
     <row r="22" customFormat="false" ht="40" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="18" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B22" s="18" t="s">
         <v>42</v>
@@ -8075,7 +8074,7 @@
     </row>
     <row r="23" customFormat="false" ht="40" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="18" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B23" s="18" t="s">
         <v>42</v>
@@ -8135,7 +8134,7 @@
     </row>
     <row r="24" customFormat="false" ht="40" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="18" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B24" s="18" t="s">
         <v>42</v>
@@ -8193,7 +8192,6 @@
         <v>39</v>
       </c>
     </row>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -8212,26 +8210,26 @@
   </sheetPr>
   <dimension ref="A1:AK65536"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="M1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="Q21" activeCellId="0" sqref="Q21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="20.8542510121457"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="19.995951417004"/>
-    <col collapsed="false" hidden="false" max="6" min="3" style="2" width="20.8542510121457"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="20.8542510121457"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="20.8542510121457"/>
-    <col collapsed="false" hidden="false" max="10" min="9" style="1" width="20.8542510121457"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="2" width="20.8542510121457"/>
-    <col collapsed="false" hidden="false" max="25" min="12" style="1" width="20.8542510121457"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="2" width="20.8542510121457"/>
-    <col collapsed="false" hidden="false" max="28" min="27" style="1" width="20.8542510121457"/>
-    <col collapsed="false" hidden="false" max="30" min="29" style="2" width="20.8542510121457"/>
-    <col collapsed="false" hidden="false" max="32" min="31" style="1" width="20.8542510121457"/>
-    <col collapsed="false" hidden="false" max="37" min="33" style="20" width="20.8542510121457"/>
-    <col collapsed="false" hidden="false" max="1025" min="38" style="1" width="20.8542510121457"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="22.7085020242915"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="21.7085020242915"/>
+    <col collapsed="false" hidden="false" max="6" min="3" style="2" width="22.7085020242915"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="22.7085020242915"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="22.7085020242915"/>
+    <col collapsed="false" hidden="false" max="10" min="9" style="1" width="22.7085020242915"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="2" width="22.7085020242915"/>
+    <col collapsed="false" hidden="false" max="25" min="12" style="1" width="22.7085020242915"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="2" width="22.7085020242915"/>
+    <col collapsed="false" hidden="false" max="28" min="27" style="1" width="22.7085020242915"/>
+    <col collapsed="false" hidden="false" max="30" min="29" style="2" width="22.7085020242915"/>
+    <col collapsed="false" hidden="false" max="32" min="31" style="1" width="22.7085020242915"/>
+    <col collapsed="false" hidden="false" max="37" min="33" style="20" width="22.7085020242915"/>
+    <col collapsed="false" hidden="false" max="1025" min="38" style="1" width="22.7085020242915"/>
   </cols>
   <sheetData>
     <row r="1" s="5" customFormat="true" ht="64" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8339,7 +8337,7 @@
     </row>
     <row r="2" s="4" customFormat="true" ht="39" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="22" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B2" s="11" t="s">
         <v>33</v>
@@ -8389,7 +8387,7 @@
     </row>
     <row r="3" s="4" customFormat="true" ht="39" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="22" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B3" s="11" t="s">
         <v>33</v>
@@ -8439,7 +8437,7 @@
     </row>
     <row r="4" customFormat="false" ht="38" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="22" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B4" s="18" t="s">
         <v>42</v>
@@ -8455,7 +8453,7 @@
         <v>2</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H4" s="0"/>
       <c r="I4" s="1" t="s">
@@ -8484,7 +8482,7 @@
       </c>
       <c r="AA4" s="0"/>
       <c r="AB4" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AC4" s="19"/>
       <c r="AD4" s="19"/>
@@ -8497,7 +8495,7 @@
     </row>
     <row r="5" customFormat="false" ht="38" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="22" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B5" s="18" t="s">
         <v>42</v>
@@ -8567,7 +8565,7 @@
     </row>
     <row r="6" customFormat="false" ht="38" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="22" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B6" s="18" t="s">
         <v>42</v>
@@ -8637,7 +8635,7 @@
     </row>
     <row r="7" customFormat="false" ht="38" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="22" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B7" s="18" t="s">
         <v>42</v>
@@ -8707,7 +8705,7 @@
     </row>
     <row r="8" customFormat="false" ht="38" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="22" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B8" s="18" t="s">
         <v>42</v>
@@ -8723,11 +8721,11 @@
         <v>2</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H8" s="0"/>
       <c r="I8" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="J8" s="13" t="s">
         <v>45</v>
@@ -8752,7 +8750,7 @@
       </c>
       <c r="AA8" s="0"/>
       <c r="AB8" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AC8" s="19"/>
       <c r="AD8" s="19"/>
@@ -8765,7 +8763,7 @@
     </row>
     <row r="9" customFormat="false" ht="38" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="22" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B9" s="18" t="s">
         <v>42</v>
@@ -8786,17 +8784,17 @@
         <v>5</v>
       </c>
       <c r="I9" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="J9" s="23" t="s">
         <v>110</v>
-      </c>
-      <c r="J9" s="23" t="s">
-        <v>111</v>
       </c>
       <c r="K9" s="2" t="n">
         <v>1</v>
       </c>
       <c r="L9" s="0"/>
       <c r="M9" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="N9" s="1" t="s">
         <v>49</v>
@@ -8829,7 +8827,7 @@
     </row>
     <row r="10" customFormat="false" ht="38" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="22" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B10" s="18" t="s">
         <v>42</v>
@@ -8850,17 +8848,17 @@
         <v>5</v>
       </c>
       <c r="I10" s="17" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="J10" s="23" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="K10" s="2" t="n">
         <v>1</v>
       </c>
       <c r="L10" s="0"/>
       <c r="M10" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="N10" s="1" t="s">
         <v>49</v>
@@ -8893,7 +8891,7 @@
     </row>
     <row r="11" customFormat="false" ht="38" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="22" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B11" s="18" t="s">
         <v>42</v>
@@ -8914,17 +8912,17 @@
         <v>5</v>
       </c>
       <c r="I11" s="17" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="J11" s="23" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="K11" s="2" t="n">
         <v>1</v>
       </c>
       <c r="L11" s="0"/>
       <c r="M11" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="N11" s="1" t="s">
         <v>49</v>
@@ -8957,7 +8955,7 @@
     </row>
     <row r="12" customFormat="false" ht="38" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="22" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B12" s="18" t="s">
         <v>42</v>
@@ -8978,17 +8976,17 @@
         <v>5</v>
       </c>
       <c r="I12" s="17" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J12" s="23" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="K12" s="2" t="n">
         <v>1</v>
       </c>
       <c r="L12" s="0"/>
       <c r="M12" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="N12" s="1" t="s">
         <v>49</v>
@@ -9021,7 +9019,7 @@
     </row>
     <row r="13" customFormat="false" ht="38" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="22" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B13" s="18" t="s">
         <v>42</v>
@@ -9042,17 +9040,17 @@
         <v>5</v>
       </c>
       <c r="I13" s="17" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J13" s="23" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="K13" s="2" t="n">
         <v>1</v>
       </c>
       <c r="L13" s="0"/>
       <c r="M13" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="N13" s="1" t="s">
         <v>49</v>
@@ -9085,7 +9083,7 @@
     </row>
     <row r="14" customFormat="false" ht="38" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="22" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B14" s="18" t="s">
         <v>42</v>
@@ -9106,17 +9104,17 @@
         <v>5</v>
       </c>
       <c r="I14" s="17" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="J14" s="23" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="K14" s="2" t="n">
         <v>1</v>
       </c>
       <c r="L14" s="0"/>
       <c r="M14" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="N14" s="1" t="s">
         <v>49</v>
@@ -9149,7 +9147,7 @@
     </row>
     <row r="15" customFormat="false" ht="38" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="22" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B15" s="18" t="s">
         <v>42</v>
@@ -9170,17 +9168,17 @@
         <v>5</v>
       </c>
       <c r="I15" s="17" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="J15" s="23" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="K15" s="2" t="n">
         <v>1</v>
       </c>
       <c r="L15" s="0"/>
       <c r="M15" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="N15" s="1" t="s">
         <v>49</v>
@@ -9213,7 +9211,7 @@
     </row>
     <row r="16" customFormat="false" ht="38" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="22" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B16" s="18" t="s">
         <v>42</v>
@@ -9234,17 +9232,17 @@
         <v>5</v>
       </c>
       <c r="I16" s="17" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="J16" s="23" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="K16" s="2" t="n">
         <v>1</v>
       </c>
       <c r="L16" s="0"/>
       <c r="M16" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="N16" s="1" t="s">
         <v>49</v>
@@ -9277,7 +9275,7 @@
     </row>
     <row r="17" customFormat="false" ht="38" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="22" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B17" s="18" t="s">
         <v>42</v>
@@ -9298,17 +9296,17 @@
         <v>5</v>
       </c>
       <c r="I17" s="17" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J17" s="23" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="K17" s="2" t="n">
         <v>1</v>
       </c>
       <c r="L17" s="0"/>
       <c r="M17" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="N17" s="1" t="s">
         <v>49</v>
@@ -9341,7 +9339,7 @@
     </row>
     <row r="18" customFormat="false" ht="38" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="22" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B18" s="18" t="s">
         <v>42</v>
@@ -9362,17 +9360,17 @@
         <v>5</v>
       </c>
       <c r="I18" s="17" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J18" s="23" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="K18" s="2" t="n">
         <v>1</v>
       </c>
       <c r="L18" s="0"/>
       <c r="M18" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="N18" s="1" t="s">
         <v>49</v>
@@ -9405,7 +9403,7 @@
     </row>
     <row r="19" customFormat="false" ht="38" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="22" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B19" s="18" t="s">
         <v>42</v>
@@ -9426,17 +9424,17 @@
         <v>5</v>
       </c>
       <c r="I19" s="17" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="J19" s="23" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="K19" s="2" t="n">
         <v>1</v>
       </c>
       <c r="L19" s="0"/>
       <c r="M19" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="N19" s="1" t="s">
         <v>49</v>
@@ -9469,7 +9467,7 @@
     </row>
     <row r="20" customFormat="false" ht="38" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="22" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B20" s="18" t="s">
         <v>42</v>
@@ -9490,17 +9488,17 @@
         <v>5</v>
       </c>
       <c r="I20" s="17" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="J20" s="23" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="K20" s="14" t="n">
         <v>1</v>
       </c>
       <c r="L20" s="13"/>
       <c r="M20" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="N20" s="1" t="s">
         <v>49</v>
@@ -9556,20 +9554,20 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="23.5668016194332"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="19.995951417004"/>
-    <col collapsed="false" hidden="false" max="6" min="3" style="2" width="23.5668016194332"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="23.5668016194332"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="23.5668016194332"/>
-    <col collapsed="false" hidden="false" max="10" min="9" style="1" width="23.5668016194332"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="2" width="23.5668016194332"/>
-    <col collapsed="false" hidden="false" max="25" min="12" style="1" width="23.5668016194332"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="2" width="23.5668016194332"/>
-    <col collapsed="false" hidden="false" max="28" min="27" style="1" width="23.5668016194332"/>
-    <col collapsed="false" hidden="false" max="30" min="29" style="2" width="23.5668016194332"/>
-    <col collapsed="false" hidden="false" max="32" min="31" style="1" width="23.5668016194332"/>
-    <col collapsed="false" hidden="false" max="37" min="33" style="20" width="23.5668016194332"/>
-    <col collapsed="false" hidden="false" max="1025" min="38" style="1" width="23.5668016194332"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="25.7085020242915"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="21.7085020242915"/>
+    <col collapsed="false" hidden="false" max="6" min="3" style="2" width="25.7085020242915"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="25.7085020242915"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="25.7085020242915"/>
+    <col collapsed="false" hidden="false" max="10" min="9" style="1" width="25.7085020242915"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="2" width="25.7085020242915"/>
+    <col collapsed="false" hidden="false" max="25" min="12" style="1" width="25.7085020242915"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="2" width="25.7085020242915"/>
+    <col collapsed="false" hidden="false" max="28" min="27" style="1" width="25.7085020242915"/>
+    <col collapsed="false" hidden="false" max="30" min="29" style="2" width="25.7085020242915"/>
+    <col collapsed="false" hidden="false" max="32" min="31" style="1" width="25.7085020242915"/>
+    <col collapsed="false" hidden="false" max="37" min="33" style="20" width="25.7085020242915"/>
+    <col collapsed="false" hidden="false" max="1025" min="38" style="1" width="25.7085020242915"/>
   </cols>
   <sheetData>
     <row r="1" s="5" customFormat="true" ht="80" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9677,7 +9675,7 @@
     </row>
     <row r="2" s="4" customFormat="true" ht="39" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="18" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B2" s="11" t="s">
         <v>33</v>
@@ -9727,7 +9725,7 @@
     </row>
     <row r="3" s="4" customFormat="true" ht="39" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="18" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B3" s="11" t="s">
         <v>33</v>
@@ -9777,7 +9775,7 @@
     </row>
     <row r="4" customFormat="false" ht="40" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="18" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B4" s="18" t="s">
         <v>42</v>
@@ -9793,7 +9791,7 @@
         <v>2</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H4" s="0"/>
       <c r="I4" s="1" t="s">
@@ -9835,7 +9833,7 @@
     </row>
     <row r="5" customFormat="false" ht="40" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="18" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B5" s="18" t="s">
         <v>42</v>
@@ -9905,7 +9903,7 @@
     </row>
     <row r="6" customFormat="false" ht="40" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="18" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B6" s="18" t="s">
         <v>42</v>
@@ -9975,7 +9973,7 @@
     </row>
     <row r="7" customFormat="false" ht="40" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="18" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B7" s="18" t="s">
         <v>42</v>
@@ -10045,7 +10043,7 @@
     </row>
     <row r="8" customFormat="false" ht="40" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="18" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B8" s="18" t="s">
         <v>42</v>
@@ -10061,11 +10059,11 @@
         <v>2</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H8" s="0"/>
       <c r="I8" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="J8" s="13" t="s">
         <v>45</v>
@@ -10103,7 +10101,7 @@
     </row>
     <row r="9" customFormat="false" ht="40" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="18" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B9" s="18" t="s">
         <v>42</v>
@@ -10124,17 +10122,17 @@
         <v>5</v>
       </c>
       <c r="I9" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="J9" s="23" t="s">
         <v>110</v>
-      </c>
-      <c r="J9" s="23" t="s">
-        <v>111</v>
       </c>
       <c r="K9" s="2" t="n">
         <v>1</v>
       </c>
       <c r="L9" s="0"/>
       <c r="M9" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="N9" s="1" t="s">
         <v>49</v>
@@ -10167,7 +10165,7 @@
     </row>
     <row r="10" customFormat="false" ht="40" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="18" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B10" s="18" t="s">
         <v>42</v>
@@ -10188,17 +10186,17 @@
         <v>5</v>
       </c>
       <c r="I10" s="17" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="J10" s="23" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="K10" s="2" t="n">
         <v>1</v>
       </c>
       <c r="L10" s="0"/>
       <c r="M10" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="N10" s="1" t="s">
         <v>49</v>
@@ -10231,7 +10229,7 @@
     </row>
     <row r="11" customFormat="false" ht="40" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="18" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B11" s="18" t="s">
         <v>42</v>
@@ -10252,17 +10250,17 @@
         <v>5</v>
       </c>
       <c r="I11" s="17" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="J11" s="23" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="K11" s="2" t="n">
         <v>1</v>
       </c>
       <c r="L11" s="0"/>
       <c r="M11" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="N11" s="1" t="s">
         <v>49</v>
@@ -10295,7 +10293,7 @@
     </row>
     <row r="12" customFormat="false" ht="40" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="18" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B12" s="18" t="s">
         <v>42</v>
@@ -10316,17 +10314,17 @@
         <v>5</v>
       </c>
       <c r="I12" s="17" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J12" s="23" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="K12" s="2" t="n">
         <v>1</v>
       </c>
       <c r="L12" s="0"/>
       <c r="M12" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="N12" s="1" t="s">
         <v>49</v>
@@ -10359,7 +10357,7 @@
     </row>
     <row r="13" customFormat="false" ht="40" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="18" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B13" s="18" t="s">
         <v>42</v>
@@ -10380,17 +10378,17 @@
         <v>5</v>
       </c>
       <c r="I13" s="17" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J13" s="23" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="K13" s="2" t="n">
         <v>1</v>
       </c>
       <c r="L13" s="0"/>
       <c r="M13" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="N13" s="1" t="s">
         <v>49</v>
@@ -10423,7 +10421,7 @@
     </row>
     <row r="14" customFormat="false" ht="40" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="18" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B14" s="18" t="s">
         <v>42</v>
@@ -10444,17 +10442,17 @@
         <v>5</v>
       </c>
       <c r="I14" s="17" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="J14" s="23" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="K14" s="2" t="n">
         <v>1</v>
       </c>
       <c r="L14" s="0"/>
       <c r="M14" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="N14" s="1" t="s">
         <v>49</v>
@@ -10487,7 +10485,7 @@
     </row>
     <row r="15" customFormat="false" ht="40" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="18" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B15" s="18" t="s">
         <v>42</v>
@@ -10508,17 +10506,17 @@
         <v>5</v>
       </c>
       <c r="I15" s="17" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="J15" s="23" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="K15" s="2" t="n">
         <v>1</v>
       </c>
       <c r="L15" s="0"/>
       <c r="M15" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="N15" s="1" t="s">
         <v>49</v>
@@ -10551,7 +10549,7 @@
     </row>
     <row r="16" customFormat="false" ht="40" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="18" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B16" s="18" t="s">
         <v>42</v>
@@ -10572,17 +10570,17 @@
         <v>5</v>
       </c>
       <c r="I16" s="17" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="J16" s="23" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="K16" s="2" t="n">
         <v>1</v>
       </c>
       <c r="L16" s="0"/>
       <c r="M16" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="N16" s="1" t="s">
         <v>49</v>
@@ -10615,7 +10613,7 @@
     </row>
     <row r="17" customFormat="false" ht="40" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="18" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B17" s="18" t="s">
         <v>42</v>
@@ -10636,17 +10634,17 @@
         <v>5</v>
       </c>
       <c r="I17" s="17" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J17" s="23" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="K17" s="2" t="n">
         <v>1</v>
       </c>
       <c r="L17" s="0"/>
       <c r="M17" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="N17" s="1" t="s">
         <v>49</v>
@@ -10679,7 +10677,7 @@
     </row>
     <row r="18" customFormat="false" ht="40" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="18" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B18" s="18" t="s">
         <v>42</v>
@@ -10700,17 +10698,17 @@
         <v>5</v>
       </c>
       <c r="I18" s="17" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J18" s="23" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="K18" s="2" t="n">
         <v>1</v>
       </c>
       <c r="L18" s="0"/>
       <c r="M18" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="N18" s="1" t="s">
         <v>49</v>
@@ -10743,7 +10741,7 @@
     </row>
     <row r="19" customFormat="false" ht="40" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="18" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B19" s="18" t="s">
         <v>42</v>
@@ -10764,17 +10762,17 @@
         <v>5</v>
       </c>
       <c r="I19" s="17" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="J19" s="23" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="K19" s="2" t="n">
         <v>1</v>
       </c>
       <c r="L19" s="0"/>
       <c r="M19" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="N19" s="1" t="s">
         <v>49</v>
@@ -10807,7 +10805,7 @@
     </row>
     <row r="20" customFormat="false" ht="40" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="18" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B20" s="18" t="s">
         <v>42</v>
@@ -10828,17 +10826,17 @@
         <v>5</v>
       </c>
       <c r="I20" s="17" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="J20" s="23" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="K20" s="14" t="n">
         <v>1</v>
       </c>
       <c r="L20" s="13"/>
       <c r="M20" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="N20" s="1" t="s">
         <v>49</v>
@@ -10889,26 +10887,26 @@
   <dimension ref="A1:AK26"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="topLeft" activeCell="K7" activeCellId="0" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="21.2793522267206"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="19.995951417004"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="11.2834008097166"/>
-    <col collapsed="false" hidden="false" max="6" min="4" style="2" width="12.8542510121458"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="1" width="21.2793522267206"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="29.5668016194332"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="21.2793522267206"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="2" width="21.2793522267206"/>
-    <col collapsed="false" hidden="false" max="13" min="12" style="1" width="21.2793522267206"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="2" width="21.2793522267206"/>
-    <col collapsed="false" hidden="false" max="25" min="15" style="1" width="21.2793522267206"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="2" width="21.2793522267206"/>
-    <col collapsed="false" hidden="false" max="28" min="27" style="1" width="21.2793522267206"/>
-    <col collapsed="false" hidden="false" max="30" min="29" style="2" width="21.2793522267206"/>
-    <col collapsed="false" hidden="false" max="1025" min="31" style="1" width="21.2793522267206"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="23.2793522267206"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="21.7085020242915"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="12.1417004048583"/>
+    <col collapsed="false" hidden="false" max="6" min="4" style="2" width="13.9959514170041"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="1" width="23.2793522267206"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="32.2793522267206"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="23.2793522267206"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="2" width="23.2793522267206"/>
+    <col collapsed="false" hidden="false" max="13" min="12" style="1" width="23.2793522267206"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="2" width="23.2793522267206"/>
+    <col collapsed="false" hidden="false" max="25" min="15" style="1" width="23.2793522267206"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="2" width="23.2793522267206"/>
+    <col collapsed="false" hidden="false" max="28" min="27" style="1" width="23.2793522267206"/>
+    <col collapsed="false" hidden="false" max="30" min="29" style="2" width="23.2793522267206"/>
+    <col collapsed="false" hidden="false" max="1025" min="31" style="1" width="23.2793522267206"/>
   </cols>
   <sheetData>
     <row r="1" s="5" customFormat="true" ht="44" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11016,7 +11014,7 @@
     </row>
     <row r="2" s="4" customFormat="true" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="22" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B2" s="11" t="s">
         <v>33</v>
@@ -11066,7 +11064,7 @@
     </row>
     <row r="3" s="4" customFormat="true" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="22" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B3" s="11" t="s">
         <v>33</v>
@@ -11116,7 +11114,7 @@
     </row>
     <row r="4" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="22" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B4" s="18" t="s">
         <v>42</v>
@@ -11132,7 +11130,7 @@
         <v>2</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H4" s="0"/>
       <c r="I4" s="1" t="s">
@@ -11164,7 +11162,7 @@
     </row>
     <row r="5" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="22" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B5" s="18" t="s">
         <v>42</v>
@@ -11224,7 +11222,7 @@
     </row>
     <row r="6" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="22" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B6" s="18" t="s">
         <v>42</v>
@@ -11284,7 +11282,7 @@
     </row>
     <row r="7" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="22" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B7" s="18" t="s">
         <v>42</v>
@@ -11343,7 +11341,7 @@
     </row>
     <row r="8" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="22" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B8" s="18" t="s">
         <v>42</v>
@@ -11359,11 +11357,11 @@
         <v>2</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H8" s="0"/>
       <c r="I8" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="J8" s="13" t="s">
         <v>45</v>
@@ -11390,7 +11388,7 @@
     </row>
     <row r="9" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="22" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B9" s="18" t="s">
         <v>42</v>
@@ -11412,17 +11410,17 @@
         <v>5</v>
       </c>
       <c r="I9" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="J9" s="1" t="s">
         <v>110</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>111</v>
       </c>
       <c r="K9" s="2" t="n">
         <v>1</v>
       </c>
       <c r="L9" s="0"/>
       <c r="M9" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="N9" s="2" t="s">
         <v>49</v>
@@ -11445,7 +11443,7 @@
     </row>
     <row r="10" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="22" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B10" s="18" t="s">
         <v>42</v>
@@ -11467,17 +11465,17 @@
         <v>5</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="K10" s="2" t="n">
         <v>1</v>
       </c>
       <c r="L10" s="0"/>
       <c r="M10" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="N10" s="2" t="s">
         <v>49</v>
@@ -11500,7 +11498,7 @@
     </row>
     <row r="11" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="22" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B11" s="18" t="s">
         <v>42</v>
@@ -11522,17 +11520,17 @@
         <v>5</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="K11" s="2" t="n">
         <v>1</v>
       </c>
       <c r="L11" s="0"/>
       <c r="M11" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="N11" s="2" t="s">
         <v>49</v>
@@ -11555,7 +11553,7 @@
     </row>
     <row r="12" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="22" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B12" s="18" t="s">
         <v>42</v>
@@ -11577,17 +11575,17 @@
         <v>5</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="K12" s="2" t="n">
         <v>1</v>
       </c>
       <c r="L12" s="0"/>
       <c r="M12" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="N12" s="2" t="s">
         <v>49</v>
@@ -11610,7 +11608,7 @@
     </row>
     <row r="13" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="22" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B13" s="18" t="s">
         <v>42</v>
@@ -11632,17 +11630,17 @@
         <v>5</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="K13" s="2" t="n">
         <v>1</v>
       </c>
       <c r="L13" s="0"/>
       <c r="M13" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="N13" s="2" t="s">
         <v>49</v>
@@ -11665,7 +11663,7 @@
     </row>
     <row r="14" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="22" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B14" s="18" t="s">
         <v>42</v>
@@ -11687,17 +11685,17 @@
         <v>5</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="K14" s="2" t="n">
         <v>1</v>
       </c>
       <c r="L14" s="0"/>
       <c r="M14" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="N14" s="2" t="s">
         <v>49</v>
@@ -11720,7 +11718,7 @@
     </row>
     <row r="15" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="22" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B15" s="18" t="s">
         <v>42</v>
@@ -11742,17 +11740,17 @@
         <v>5</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="K15" s="2" t="n">
         <v>1</v>
       </c>
       <c r="L15" s="0"/>
       <c r="M15" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="N15" s="2" t="s">
         <v>49</v>
@@ -11775,7 +11773,7 @@
     </row>
     <row r="16" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="22" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B16" s="18" t="s">
         <v>42</v>
@@ -11797,17 +11795,17 @@
         <v>5</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="K16" s="2" t="n">
         <v>1</v>
       </c>
       <c r="L16" s="0"/>
       <c r="M16" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="N16" s="2" t="s">
         <v>49</v>
@@ -11830,7 +11828,7 @@
     </row>
     <row r="17" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="22" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B17" s="18" t="s">
         <v>42</v>
@@ -11852,17 +11850,17 @@
         <v>5</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="K17" s="2" t="n">
         <v>1</v>
       </c>
       <c r="L17" s="0"/>
       <c r="M17" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="N17" s="2" t="s">
         <v>49</v>
@@ -11885,7 +11883,7 @@
     </row>
     <row r="18" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="22" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B18" s="18" t="s">
         <v>42</v>
@@ -11907,17 +11905,17 @@
         <v>5</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="K18" s="2" t="n">
         <v>1</v>
       </c>
       <c r="L18" s="0"/>
       <c r="M18" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="N18" s="2" t="s">
         <v>49</v>
@@ -11940,7 +11938,7 @@
     </row>
     <row r="19" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="22" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B19" s="18" t="s">
         <v>42</v>
@@ -11962,17 +11960,17 @@
         <v>5</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="K19" s="2" t="n">
         <v>1</v>
       </c>
       <c r="L19" s="0"/>
       <c r="M19" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="N19" s="2" t="s">
         <v>49</v>
@@ -11995,7 +11993,7 @@
     </row>
     <row r="20" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="22" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B20" s="18" t="s">
         <v>42</v>
@@ -12017,17 +12015,17 @@
         <v>5</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="K20" s="2" t="n">
         <v>1</v>
       </c>
       <c r="L20" s="0"/>
       <c r="M20" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="N20" s="2" t="s">
         <v>49</v>
@@ -12050,7 +12048,7 @@
     </row>
     <row r="21" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="22" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B21" s="18" t="s">
         <v>42</v>
@@ -12066,7 +12064,7 @@
         <v>2</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H21" s="0"/>
       <c r="I21" s="1" t="s">
@@ -12097,7 +12095,7 @@
     </row>
     <row r="22" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="22" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B22" s="18" t="s">
         <v>42</v>
@@ -12156,7 +12154,7 @@
     </row>
     <row r="23" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="22" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B23" s="18" t="s">
         <v>42</v>
@@ -12215,7 +12213,7 @@
     </row>
     <row r="24" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="22" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B24" s="18" t="s">
         <v>42</v>
@@ -12274,7 +12272,7 @@
     </row>
     <row r="25" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="22" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B25" s="18" t="s">
         <v>42</v>
@@ -12333,7 +12331,7 @@
     </row>
     <row r="26" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="22" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B26" s="18" t="s">
         <v>42</v>
@@ -12414,22 +12412,22 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="26.995951417004"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="19.995951417004"/>
-    <col collapsed="false" hidden="false" max="6" min="3" style="2" width="26.995951417004"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="26.995951417004"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="26.995951417004"/>
-    <col collapsed="false" hidden="false" max="10" min="9" style="1" width="26.995951417004"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="2" width="26.995951417004"/>
-    <col collapsed="false" hidden="false" max="13" min="12" style="1" width="26.995951417004"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="2" width="26.995951417004"/>
-    <col collapsed="false" hidden="false" max="25" min="15" style="1" width="26.995951417004"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="2" width="26.995951417004"/>
-    <col collapsed="false" hidden="false" max="28" min="27" style="1" width="26.995951417004"/>
-    <col collapsed="false" hidden="false" max="30" min="29" style="2" width="26.995951417004"/>
-    <col collapsed="false" hidden="false" max="32" min="31" style="1" width="26.995951417004"/>
-    <col collapsed="false" hidden="false" max="37" min="33" style="20" width="26.995951417004"/>
-    <col collapsed="false" hidden="false" max="1025" min="38" style="1" width="26.995951417004"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="29.4210526315789"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="21.7085020242915"/>
+    <col collapsed="false" hidden="false" max="6" min="3" style="2" width="29.4210526315789"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="29.4210526315789"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="29.4210526315789"/>
+    <col collapsed="false" hidden="false" max="10" min="9" style="1" width="29.4210526315789"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="2" width="29.4210526315789"/>
+    <col collapsed="false" hidden="false" max="13" min="12" style="1" width="29.4210526315789"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="2" width="29.4210526315789"/>
+    <col collapsed="false" hidden="false" max="25" min="15" style="1" width="29.4210526315789"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="2" width="29.4210526315789"/>
+    <col collapsed="false" hidden="false" max="28" min="27" style="1" width="29.4210526315789"/>
+    <col collapsed="false" hidden="false" max="30" min="29" style="2" width="29.4210526315789"/>
+    <col collapsed="false" hidden="false" max="32" min="31" style="1" width="29.4210526315789"/>
+    <col collapsed="false" hidden="false" max="37" min="33" style="20" width="29.4210526315789"/>
+    <col collapsed="false" hidden="false" max="1025" min="38" style="1" width="29.4210526315789"/>
   </cols>
   <sheetData>
     <row r="1" s="5" customFormat="true" ht="72" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12537,7 +12535,7 @@
     </row>
     <row r="2" s="4" customFormat="true" ht="38" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="22" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B2" s="11" t="s">
         <v>33</v>
@@ -12587,7 +12585,7 @@
     </row>
     <row r="3" s="4" customFormat="true" ht="38" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="22" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B3" s="11" t="s">
         <v>33</v>
@@ -12637,7 +12635,7 @@
     </row>
     <row r="4" customFormat="false" ht="39" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="22" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B4" s="18" t="s">
         <v>42</v>
@@ -12653,7 +12651,7 @@
         <v>2</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H4" s="0"/>
       <c r="I4" s="1" t="s">
@@ -12697,7 +12695,7 @@
     </row>
     <row r="5" customFormat="false" ht="39" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="22" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B5" s="18" t="s">
         <v>42</v>
@@ -12767,7 +12765,7 @@
     </row>
     <row r="6" customFormat="false" ht="39" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="22" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B6" s="18" t="s">
         <v>42</v>
@@ -12837,7 +12835,7 @@
     </row>
     <row r="7" customFormat="false" ht="39" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="22" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B7" s="18" t="s">
         <v>42</v>
@@ -12907,7 +12905,7 @@
     </row>
     <row r="8" customFormat="false" ht="39" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="22" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B8" s="18" t="s">
         <v>42</v>
@@ -12923,11 +12921,11 @@
         <v>2</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H8" s="0"/>
       <c r="I8" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="J8" s="13" t="s">
         <v>45</v>
@@ -12965,7 +12963,7 @@
     </row>
     <row r="9" customFormat="false" ht="39" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="22" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B9" s="18" t="s">
         <v>42</v>
@@ -12986,17 +12984,17 @@
         <v>5</v>
       </c>
       <c r="I9" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="J9" s="23" t="s">
         <v>110</v>
-      </c>
-      <c r="J9" s="23" t="s">
-        <v>111</v>
       </c>
       <c r="K9" s="2" t="n">
         <v>1</v>
       </c>
       <c r="L9" s="0"/>
       <c r="M9" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="N9" s="2" t="s">
         <v>49</v>
@@ -13029,7 +13027,7 @@
     </row>
     <row r="10" customFormat="false" ht="39" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="22" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B10" s="18" t="s">
         <v>42</v>
@@ -13050,17 +13048,17 @@
         <v>5</v>
       </c>
       <c r="I10" s="17" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="J10" s="23" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="K10" s="2" t="n">
         <v>1</v>
       </c>
       <c r="L10" s="0"/>
       <c r="M10" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="N10" s="2" t="s">
         <v>49</v>
@@ -13093,7 +13091,7 @@
     </row>
     <row r="11" customFormat="false" ht="39" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="22" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B11" s="18" t="s">
         <v>42</v>
@@ -13114,17 +13112,17 @@
         <v>5</v>
       </c>
       <c r="I11" s="17" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="J11" s="23" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="K11" s="2" t="n">
         <v>1</v>
       </c>
       <c r="L11" s="0"/>
       <c r="M11" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="N11" s="2" t="s">
         <v>49</v>
@@ -13157,7 +13155,7 @@
     </row>
     <row r="12" customFormat="false" ht="39" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="22" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B12" s="18" t="s">
         <v>42</v>
@@ -13178,17 +13176,17 @@
         <v>5</v>
       </c>
       <c r="I12" s="17" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J12" s="23" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="K12" s="2" t="n">
         <v>1</v>
       </c>
       <c r="L12" s="0"/>
       <c r="M12" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="N12" s="2" t="s">
         <v>49</v>
@@ -13221,7 +13219,7 @@
     </row>
     <row r="13" customFormat="false" ht="39" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="22" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B13" s="18" t="s">
         <v>42</v>
@@ -13242,17 +13240,17 @@
         <v>5</v>
       </c>
       <c r="I13" s="17" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J13" s="23" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="K13" s="2" t="n">
         <v>1</v>
       </c>
       <c r="L13" s="0"/>
       <c r="M13" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="N13" s="2" t="s">
         <v>49</v>
@@ -13285,7 +13283,7 @@
     </row>
     <row r="14" customFormat="false" ht="39" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="22" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B14" s="18" t="s">
         <v>42</v>
@@ -13306,17 +13304,17 @@
         <v>5</v>
       </c>
       <c r="I14" s="17" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="J14" s="23" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="K14" s="2" t="n">
         <v>1</v>
       </c>
       <c r="L14" s="0"/>
       <c r="M14" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="N14" s="2" t="s">
         <v>49</v>
@@ -13349,7 +13347,7 @@
     </row>
     <row r="15" customFormat="false" ht="39" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="22" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B15" s="18" t="s">
         <v>42</v>
@@ -13370,17 +13368,17 @@
         <v>5</v>
       </c>
       <c r="I15" s="17" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="J15" s="23" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="K15" s="2" t="n">
         <v>1</v>
       </c>
       <c r="L15" s="0"/>
       <c r="M15" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="N15" s="2" t="s">
         <v>49</v>
@@ -13413,7 +13411,7 @@
     </row>
     <row r="16" customFormat="false" ht="39" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="22" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B16" s="18" t="s">
         <v>42</v>
@@ -13434,17 +13432,17 @@
         <v>5</v>
       </c>
       <c r="I16" s="17" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="J16" s="23" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="K16" s="2" t="n">
         <v>1</v>
       </c>
       <c r="L16" s="0"/>
       <c r="M16" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="N16" s="2" t="s">
         <v>49</v>
@@ -13477,7 +13475,7 @@
     </row>
     <row r="17" customFormat="false" ht="39" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="22" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B17" s="18" t="s">
         <v>42</v>
@@ -13498,17 +13496,17 @@
         <v>5</v>
       </c>
       <c r="I17" s="17" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J17" s="23" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="K17" s="2" t="n">
         <v>1</v>
       </c>
       <c r="L17" s="0"/>
       <c r="M17" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="N17" s="2" t="s">
         <v>49</v>
@@ -13541,7 +13539,7 @@
     </row>
     <row r="18" customFormat="false" ht="39" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="22" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B18" s="18" t="s">
         <v>42</v>
@@ -13562,17 +13560,17 @@
         <v>5</v>
       </c>
       <c r="I18" s="17" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J18" s="23" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="K18" s="2" t="n">
         <v>1</v>
       </c>
       <c r="L18" s="0"/>
       <c r="M18" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="N18" s="2" t="s">
         <v>49</v>
@@ -13605,7 +13603,7 @@
     </row>
     <row r="19" customFormat="false" ht="39" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="22" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B19" s="18" t="s">
         <v>42</v>
@@ -13626,17 +13624,17 @@
         <v>5</v>
       </c>
       <c r="I19" s="17" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="J19" s="23" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="K19" s="2" t="n">
         <v>1</v>
       </c>
       <c r="L19" s="0"/>
       <c r="M19" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="N19" s="2" t="s">
         <v>49</v>
@@ -13669,7 +13667,7 @@
     </row>
     <row r="20" customFormat="false" ht="39" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="22" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B20" s="18" t="s">
         <v>42</v>
@@ -13690,17 +13688,17 @@
         <v>5</v>
       </c>
       <c r="I20" s="17" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="J20" s="23" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="K20" s="14" t="n">
         <v>1</v>
       </c>
       <c r="L20" s="13"/>
       <c r="M20" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="N20" s="2" t="s">
         <v>49</v>
@@ -13756,20 +13754,20 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="20.8542510121457"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="19.995951417004"/>
-    <col collapsed="false" hidden="false" max="6" min="3" style="2" width="20.8542510121457"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="20.8542510121457"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="20.8542510121457"/>
-    <col collapsed="false" hidden="false" max="10" min="9" style="1" width="20.8542510121457"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="2" width="20.8542510121457"/>
-    <col collapsed="false" hidden="false" max="25" min="12" style="1" width="20.8542510121457"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="2" width="20.8542510121457"/>
-    <col collapsed="false" hidden="false" max="28" min="27" style="1" width="20.8542510121457"/>
-    <col collapsed="false" hidden="false" max="30" min="29" style="2" width="20.8542510121457"/>
-    <col collapsed="false" hidden="false" max="32" min="31" style="1" width="20.8542510121457"/>
-    <col collapsed="false" hidden="false" max="37" min="33" style="20" width="20.8542510121457"/>
-    <col collapsed="false" hidden="false" max="1025" min="38" style="1" width="20.8542510121457"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="22.7085020242915"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="21.7085020242915"/>
+    <col collapsed="false" hidden="false" max="6" min="3" style="2" width="22.7085020242915"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="22.7085020242915"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="22.7085020242915"/>
+    <col collapsed="false" hidden="false" max="10" min="9" style="1" width="22.7085020242915"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="2" width="22.7085020242915"/>
+    <col collapsed="false" hidden="false" max="25" min="12" style="1" width="22.7085020242915"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="2" width="22.7085020242915"/>
+    <col collapsed="false" hidden="false" max="28" min="27" style="1" width="22.7085020242915"/>
+    <col collapsed="false" hidden="false" max="30" min="29" style="2" width="22.7085020242915"/>
+    <col collapsed="false" hidden="false" max="32" min="31" style="1" width="22.7085020242915"/>
+    <col collapsed="false" hidden="false" max="37" min="33" style="20" width="22.7085020242915"/>
+    <col collapsed="false" hidden="false" max="1025" min="38" style="1" width="22.7085020242915"/>
   </cols>
   <sheetData>
     <row r="1" s="5" customFormat="true" ht="70" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13877,7 +13875,7 @@
     </row>
     <row r="2" s="4" customFormat="true" ht="38" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="22" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B2" s="11" t="s">
         <v>33</v>
@@ -13927,7 +13925,7 @@
     </row>
     <row r="3" s="4" customFormat="true" ht="38" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="22" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B3" s="11" t="s">
         <v>33</v>
@@ -13977,7 +13975,7 @@
     </row>
     <row r="4" customFormat="false" ht="37" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="22" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B4" s="18" t="s">
         <v>42</v>
@@ -13993,7 +13991,7 @@
         <v>2</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H4" s="0"/>
       <c r="I4" s="1" t="s">
@@ -14035,7 +14033,7 @@
     </row>
     <row r="5" customFormat="false" ht="37" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="22" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B5" s="18" t="s">
         <v>42</v>
@@ -14105,7 +14103,7 @@
     </row>
     <row r="6" customFormat="false" ht="37" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="22" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B6" s="18" t="s">
         <v>42</v>
@@ -14175,7 +14173,7 @@
     </row>
     <row r="7" customFormat="false" ht="37" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="22" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B7" s="18" t="s">
         <v>42</v>
@@ -14245,7 +14243,7 @@
     </row>
     <row r="8" customFormat="false" ht="37" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="22" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B8" s="18" t="s">
         <v>42</v>
@@ -14261,11 +14259,11 @@
         <v>2</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H8" s="0"/>
       <c r="I8" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="J8" s="13" t="s">
         <v>45</v>
@@ -14303,7 +14301,7 @@
     </row>
     <row r="9" customFormat="false" ht="37" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="22" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B9" s="18" t="s">
         <v>42</v>
@@ -14324,17 +14322,17 @@
         <v>5</v>
       </c>
       <c r="I9" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="J9" s="23" t="s">
         <v>110</v>
-      </c>
-      <c r="J9" s="23" t="s">
-        <v>111</v>
       </c>
       <c r="K9" s="2" t="n">
         <v>1</v>
       </c>
       <c r="L9" s="0"/>
       <c r="M9" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="N9" s="1" t="s">
         <v>49</v>
@@ -14367,7 +14365,7 @@
     </row>
     <row r="10" customFormat="false" ht="37" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="22" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B10" s="18" t="s">
         <v>42</v>
@@ -14388,17 +14386,17 @@
         <v>5</v>
       </c>
       <c r="I10" s="17" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="J10" s="23" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="K10" s="2" t="n">
         <v>1</v>
       </c>
       <c r="L10" s="0"/>
       <c r="M10" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="N10" s="1" t="s">
         <v>49</v>
@@ -14431,7 +14429,7 @@
     </row>
     <row r="11" customFormat="false" ht="37" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="22" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B11" s="18" t="s">
         <v>42</v>
@@ -14452,17 +14450,17 @@
         <v>5</v>
       </c>
       <c r="I11" s="17" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="J11" s="23" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="K11" s="2" t="n">
         <v>1</v>
       </c>
       <c r="L11" s="0"/>
       <c r="M11" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="N11" s="1" t="s">
         <v>49</v>
@@ -14495,7 +14493,7 @@
     </row>
     <row r="12" customFormat="false" ht="37" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="22" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B12" s="18" t="s">
         <v>42</v>
@@ -14516,17 +14514,17 @@
         <v>5</v>
       </c>
       <c r="I12" s="17" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J12" s="23" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="K12" s="2" t="n">
         <v>1</v>
       </c>
       <c r="L12" s="0"/>
       <c r="M12" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="N12" s="1" t="s">
         <v>49</v>
@@ -14559,7 +14557,7 @@
     </row>
     <row r="13" customFormat="false" ht="37" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="22" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B13" s="18" t="s">
         <v>42</v>
@@ -14580,17 +14578,17 @@
         <v>5</v>
       </c>
       <c r="I13" s="17" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J13" s="23" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="K13" s="2" t="n">
         <v>1</v>
       </c>
       <c r="L13" s="0"/>
       <c r="M13" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="N13" s="1" t="s">
         <v>49</v>
@@ -14623,7 +14621,7 @@
     </row>
     <row r="14" customFormat="false" ht="37" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="22" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B14" s="18" t="s">
         <v>42</v>
@@ -14644,17 +14642,17 @@
         <v>5</v>
       </c>
       <c r="I14" s="17" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="J14" s="23" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="K14" s="2" t="n">
         <v>1</v>
       </c>
       <c r="L14" s="0"/>
       <c r="M14" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="N14" s="1" t="s">
         <v>49</v>
@@ -14687,7 +14685,7 @@
     </row>
     <row r="15" customFormat="false" ht="37" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="22" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B15" s="18" t="s">
         <v>42</v>
@@ -14708,17 +14706,17 @@
         <v>5</v>
       </c>
       <c r="I15" s="17" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="J15" s="23" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="K15" s="2" t="n">
         <v>1</v>
       </c>
       <c r="L15" s="0"/>
       <c r="M15" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="N15" s="1" t="s">
         <v>49</v>
@@ -14751,7 +14749,7 @@
     </row>
     <row r="16" customFormat="false" ht="37" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="22" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B16" s="18" t="s">
         <v>42</v>
@@ -14772,17 +14770,17 @@
         <v>5</v>
       </c>
       <c r="I16" s="17" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="J16" s="23" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="K16" s="2" t="n">
         <v>1</v>
       </c>
       <c r="L16" s="0"/>
       <c r="M16" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="N16" s="1" t="s">
         <v>49</v>
@@ -14815,7 +14813,7 @@
     </row>
     <row r="17" customFormat="false" ht="37" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="22" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B17" s="18" t="s">
         <v>42</v>
@@ -14836,17 +14834,17 @@
         <v>5</v>
       </c>
       <c r="I17" s="17" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J17" s="23" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="K17" s="2" t="n">
         <v>1</v>
       </c>
       <c r="L17" s="0"/>
       <c r="M17" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="N17" s="1" t="s">
         <v>49</v>
@@ -14879,7 +14877,7 @@
     </row>
     <row r="18" customFormat="false" ht="37" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="22" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B18" s="18" t="s">
         <v>42</v>
@@ -14900,17 +14898,17 @@
         <v>5</v>
       </c>
       <c r="I18" s="17" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J18" s="23" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="K18" s="2" t="n">
         <v>1</v>
       </c>
       <c r="L18" s="0"/>
       <c r="M18" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="N18" s="1" t="s">
         <v>49</v>
@@ -14943,7 +14941,7 @@
     </row>
     <row r="19" customFormat="false" ht="37" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="22" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B19" s="18" t="s">
         <v>42</v>
@@ -14964,17 +14962,17 @@
         <v>5</v>
       </c>
       <c r="I19" s="17" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="J19" s="23" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="K19" s="2" t="n">
         <v>1</v>
       </c>
       <c r="L19" s="0"/>
       <c r="M19" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="N19" s="1" t="s">
         <v>49</v>
@@ -15007,7 +15005,7 @@
     </row>
     <row r="20" customFormat="false" ht="37" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="22" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B20" s="18" t="s">
         <v>42</v>
@@ -15028,17 +15026,17 @@
         <v>5</v>
       </c>
       <c r="I20" s="17" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="J20" s="23" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="K20" s="14" t="n">
         <v>1</v>
       </c>
       <c r="L20" s="13"/>
       <c r="M20" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="N20" s="1" t="s">
         <v>49</v>
